--- a/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163305D4-8207-4BBC-98FD-FF9236D60DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EC090-77F5-4FB1-BB6A-3787984F3238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3489,6 +3489,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3516,103 +3601,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3631,10 +3619,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5127,50 +5127,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>27132</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>65917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DE5320-9446-4025-B85E-A3A19B174F78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1095375"/>
-          <a:ext cx="11542857" cy="6066667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5194,7 +5150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5238,7 +5194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5282,7 +5238,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5291,6 +5247,50 @@
         <a:xfrm>
           <a:off x="247650" y="21897975"/>
           <a:ext cx="9123809" cy="5380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>17608</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA80087F-47E1-4E83-8D74-33D63F38855F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1095375"/>
+          <a:ext cx="11533333" cy="6057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6210,1770 +6210,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="182"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="182"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="182"/>
+      <c r="AN2" s="182"/>
+      <c r="AO2" s="182"/>
+      <c r="AP2" s="182"/>
+      <c r="AQ2" s="182"/>
+      <c r="AR2" s="182"/>
+      <c r="AS2" s="182"/>
+      <c r="AT2" s="182"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153" t="s">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="153" t="s">
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="152" t="s">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152" t="s">
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="152"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152" t="s">
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="152"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="152"/>
-      <c r="AR3" s="152"/>
-      <c r="AS3" s="152" t="s">
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="152"/>
-      <c r="AU3" s="152"/>
-      <c r="AV3" s="152"/>
-      <c r="AW3" s="152"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="152"/>
-      <c r="AN4" s="152"/>
-      <c r="AO4" s="152"/>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="152"/>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="152"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="183"/>
+      <c r="AE4" s="183"/>
+      <c r="AF4" s="183"/>
+      <c r="AG4" s="183"/>
+      <c r="AH4" s="183"/>
+      <c r="AI4" s="183"/>
+      <c r="AJ4" s="183"/>
+      <c r="AK4" s="183"/>
+      <c r="AL4" s="183"/>
+      <c r="AM4" s="183"/>
+      <c r="AN4" s="183"/>
+      <c r="AO4" s="183"/>
+      <c r="AP4" s="183"/>
+      <c r="AQ4" s="183"/>
+      <c r="AR4" s="183"/>
+      <c r="AS4" s="183"/>
+      <c r="AT4" s="183"/>
+      <c r="AU4" s="183"/>
+      <c r="AV4" s="183"/>
+      <c r="AW4" s="183"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="160">
+      <c r="B5" s="175">
         <v>1</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="156">
         <v>43720</v>
       </c>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162" t="s">
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="163"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="162" t="s">
+      <c r="K5" s="158"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="159" t="s">
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="168" t="s">
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="168"/>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="168"/>
-      <c r="AI5" s="168"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="168"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="168"/>
-      <c r="AN5" s="159" t="s">
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="174"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="174"/>
+      <c r="AN5" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="AO5" s="159"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="159"/>
-      <c r="AR5" s="159"/>
-      <c r="AS5" s="159"/>
-      <c r="AT5" s="159"/>
-      <c r="AU5" s="159"/>
-      <c r="AV5" s="159"/>
-      <c r="AW5" s="159"/>
+      <c r="AO5" s="163"/>
+      <c r="AP5" s="163"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="163"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="163"/>
+      <c r="AU5" s="163"/>
+      <c r="AV5" s="163"/>
+      <c r="AW5" s="163"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="168"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="168"/>
-      <c r="AG6" s="168"/>
-      <c r="AH6" s="168"/>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="168"/>
-      <c r="AK6" s="168"/>
-      <c r="AL6" s="168"/>
-      <c r="AM6" s="168"/>
-      <c r="AN6" s="159"/>
-      <c r="AO6" s="159"/>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="159"/>
-      <c r="AR6" s="159"/>
-      <c r="AS6" s="159"/>
-      <c r="AT6" s="159"/>
-      <c r="AU6" s="159"/>
-      <c r="AV6" s="159"/>
-      <c r="AW6" s="159"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="174"/>
+      <c r="AJ6" s="174"/>
+      <c r="AK6" s="174"/>
+      <c r="AL6" s="174"/>
+      <c r="AM6" s="174"/>
+      <c r="AN6" s="163"/>
+      <c r="AO6" s="163"/>
+      <c r="AP6" s="163"/>
+      <c r="AQ6" s="163"/>
+      <c r="AR6" s="163"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="163"/>
+      <c r="AU6" s="163"/>
+      <c r="AV6" s="163"/>
+      <c r="AW6" s="163"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="168"/>
-      <c r="AD7" s="168"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="168"/>
-      <c r="AI7" s="168"/>
-      <c r="AJ7" s="168"/>
-      <c r="AK7" s="168"/>
-      <c r="AL7" s="168"/>
-      <c r="AM7" s="168"/>
-      <c r="AN7" s="159"/>
-      <c r="AO7" s="159"/>
-      <c r="AP7" s="159"/>
-      <c r="AQ7" s="159"/>
-      <c r="AR7" s="159"/>
-      <c r="AS7" s="159"/>
-      <c r="AT7" s="159"/>
-      <c r="AU7" s="159"/>
-      <c r="AV7" s="159"/>
-      <c r="AW7" s="159"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="163"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="168"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="168"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="168"/>
-      <c r="AL8" s="168"/>
-      <c r="AM8" s="168"/>
-      <c r="AN8" s="159"/>
-      <c r="AO8" s="159"/>
-      <c r="AP8" s="159"/>
-      <c r="AQ8" s="159"/>
-      <c r="AR8" s="159"/>
-      <c r="AS8" s="159"/>
-      <c r="AT8" s="159"/>
-      <c r="AU8" s="159"/>
-      <c r="AV8" s="159"/>
-      <c r="AW8" s="159"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="174"/>
+      <c r="AK8" s="174"/>
+      <c r="AL8" s="174"/>
+      <c r="AM8" s="174"/>
+      <c r="AN8" s="163"/>
+      <c r="AO8" s="163"/>
+      <c r="AP8" s="163"/>
+      <c r="AQ8" s="163"/>
+      <c r="AR8" s="163"/>
+      <c r="AS8" s="163"/>
+      <c r="AT8" s="163"/>
+      <c r="AU8" s="163"/>
+      <c r="AV8" s="163"/>
+      <c r="AW8" s="163"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="168"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="168"/>
-      <c r="AJ9" s="168"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="168"/>
-      <c r="AN9" s="159"/>
-      <c r="AO9" s="159"/>
-      <c r="AP9" s="159"/>
-      <c r="AQ9" s="159"/>
-      <c r="AR9" s="159"/>
-      <c r="AS9" s="159"/>
-      <c r="AT9" s="159"/>
-      <c r="AU9" s="159"/>
-      <c r="AV9" s="159"/>
-      <c r="AW9" s="159"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="174"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="174"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="163"/>
+      <c r="AQ9" s="163"/>
+      <c r="AR9" s="163"/>
+      <c r="AS9" s="163"/>
+      <c r="AT9" s="163"/>
+      <c r="AU9" s="163"/>
+      <c r="AV9" s="163"/>
+      <c r="AW9" s="163"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="168"/>
-      <c r="AH10" s="168"/>
-      <c r="AI10" s="168"/>
-      <c r="AJ10" s="168"/>
-      <c r="AK10" s="168"/>
-      <c r="AL10" s="168"/>
-      <c r="AM10" s="168"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="159"/>
-      <c r="AQ10" s="159"/>
-      <c r="AR10" s="159"/>
-      <c r="AS10" s="159"/>
-      <c r="AT10" s="159"/>
-      <c r="AU10" s="159"/>
-      <c r="AV10" s="159"/>
-      <c r="AW10" s="159"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="174"/>
+      <c r="AI10" s="174"/>
+      <c r="AJ10" s="174"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="174"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="163"/>
+      <c r="AO10" s="163"/>
+      <c r="AP10" s="163"/>
+      <c r="AQ10" s="163"/>
+      <c r="AR10" s="163"/>
+      <c r="AS10" s="163"/>
+      <c r="AT10" s="163"/>
+      <c r="AU10" s="163"/>
+      <c r="AV10" s="163"/>
+      <c r="AW10" s="163"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="181"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="181"/>
-      <c r="AA11" s="181"/>
-      <c r="AB11" s="181"/>
-      <c r="AC11" s="181"/>
-      <c r="AD11" s="181"/>
-      <c r="AE11" s="181"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="181"/>
-      <c r="AH11" s="181"/>
-      <c r="AI11" s="181"/>
-      <c r="AJ11" s="181"/>
-      <c r="AK11" s="181"/>
-      <c r="AL11" s="181"/>
-      <c r="AM11" s="182"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="159"/>
-      <c r="AQ11" s="159"/>
-      <c r="AR11" s="159"/>
-      <c r="AS11" s="159"/>
-      <c r="AT11" s="159"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="159"/>
-      <c r="AW11" s="159"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="176"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="176"/>
+      <c r="AJ11" s="176"/>
+      <c r="AK11" s="176"/>
+      <c r="AL11" s="176"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="163"/>
+      <c r="AQ11" s="163"/>
+      <c r="AR11" s="163"/>
+      <c r="AS11" s="163"/>
+      <c r="AT11" s="163"/>
+      <c r="AU11" s="163"/>
+      <c r="AV11" s="163"/>
+      <c r="AW11" s="163"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="176"/>
-      <c r="Y12" s="176"/>
-      <c r="Z12" s="176"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="176"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="176"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="176"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="176"/>
-      <c r="AL12" s="176"/>
-      <c r="AM12" s="177"/>
-      <c r="AN12" s="178"/>
-      <c r="AO12" s="179"/>
-      <c r="AP12" s="179"/>
-      <c r="AQ12" s="179"/>
-      <c r="AR12" s="180"/>
-      <c r="AS12" s="178"/>
-      <c r="AT12" s="179"/>
-      <c r="AU12" s="179"/>
-      <c r="AV12" s="179"/>
-      <c r="AW12" s="180"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="165"/>
+      <c r="AJ12" s="165"/>
+      <c r="AK12" s="165"/>
+      <c r="AL12" s="165"/>
+      <c r="AM12" s="166"/>
+      <c r="AN12" s="150"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="150"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="151"/>
+      <c r="AV12" s="151"/>
+      <c r="AW12" s="152"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="159"/>
-      <c r="T13" s="159"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="176"/>
-      <c r="AJ13" s="176"/>
-      <c r="AK13" s="176"/>
-      <c r="AL13" s="176"/>
-      <c r="AM13" s="177"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="179"/>
-      <c r="AP13" s="179"/>
-      <c r="AQ13" s="179"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="178"/>
-      <c r="AT13" s="179"/>
-      <c r="AU13" s="179"/>
-      <c r="AV13" s="179"/>
-      <c r="AW13" s="180"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="163"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="165"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="165"/>
+      <c r="AJ13" s="165"/>
+      <c r="AK13" s="165"/>
+      <c r="AL13" s="165"/>
+      <c r="AM13" s="166"/>
+      <c r="AN13" s="150"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="150"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="152"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="168"/>
-      <c r="AF14" s="168"/>
-      <c r="AG14" s="168"/>
-      <c r="AH14" s="168"/>
-      <c r="AI14" s="168"/>
-      <c r="AJ14" s="168"/>
-      <c r="AK14" s="168"/>
-      <c r="AL14" s="168"/>
-      <c r="AM14" s="168"/>
-      <c r="AN14" s="159"/>
-      <c r="AO14" s="159"/>
-      <c r="AP14" s="159"/>
-      <c r="AQ14" s="159"/>
-      <c r="AR14" s="159"/>
-      <c r="AS14" s="178"/>
-      <c r="AT14" s="179"/>
-      <c r="AU14" s="179"/>
-      <c r="AV14" s="179"/>
-      <c r="AW14" s="180"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="174"/>
+      <c r="AJ14" s="174"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="174"/>
+      <c r="AM14" s="174"/>
+      <c r="AN14" s="163"/>
+      <c r="AO14" s="163"/>
+      <c r="AP14" s="163"/>
+      <c r="AQ14" s="163"/>
+      <c r="AR14" s="163"/>
+      <c r="AS14" s="150"/>
+      <c r="AT14" s="151"/>
+      <c r="AU14" s="151"/>
+      <c r="AV14" s="151"/>
+      <c r="AW14" s="152"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="176"/>
-      <c r="X15" s="176"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="176"/>
-      <c r="AL15" s="176"/>
-      <c r="AM15" s="177"/>
-      <c r="AN15" s="178"/>
-      <c r="AO15" s="179"/>
-      <c r="AP15" s="179"/>
-      <c r="AQ15" s="179"/>
-      <c r="AR15" s="180"/>
-      <c r="AS15" s="178"/>
-      <c r="AT15" s="179"/>
-      <c r="AU15" s="179"/>
-      <c r="AV15" s="179"/>
-      <c r="AW15" s="180"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="165"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="165"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="165"/>
+      <c r="AK15" s="165"/>
+      <c r="AL15" s="165"/>
+      <c r="AM15" s="166"/>
+      <c r="AN15" s="150"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
+      <c r="AQ15" s="151"/>
+      <c r="AR15" s="152"/>
+      <c r="AS15" s="150"/>
+      <c r="AT15" s="151"/>
+      <c r="AU15" s="151"/>
+      <c r="AV15" s="151"/>
+      <c r="AW15" s="152"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="176"/>
-      <c r="X16" s="176"/>
-      <c r="Y16" s="176"/>
-      <c r="Z16" s="176"/>
-      <c r="AA16" s="176"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="176"/>
-      <c r="AD16" s="176"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="176"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="176"/>
-      <c r="AJ16" s="176"/>
-      <c r="AK16" s="176"/>
-      <c r="AL16" s="176"/>
-      <c r="AM16" s="177"/>
-      <c r="AN16" s="178"/>
-      <c r="AO16" s="179"/>
-      <c r="AP16" s="179"/>
-      <c r="AQ16" s="179"/>
-      <c r="AR16" s="180"/>
-      <c r="AS16" s="178"/>
-      <c r="AT16" s="179"/>
-      <c r="AU16" s="179"/>
-      <c r="AV16" s="179"/>
-      <c r="AW16" s="180"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="165"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="165"/>
+      <c r="AJ16" s="165"/>
+      <c r="AK16" s="165"/>
+      <c r="AL16" s="165"/>
+      <c r="AM16" s="166"/>
+      <c r="AN16" s="150"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="152"/>
+      <c r="AS16" s="150"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="152"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="175"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="176"/>
-      <c r="Y17" s="176"/>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="176"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="176"/>
-      <c r="AJ17" s="176"/>
-      <c r="AK17" s="176"/>
-      <c r="AL17" s="176"/>
-      <c r="AM17" s="177"/>
-      <c r="AN17" s="178"/>
-      <c r="AO17" s="179"/>
-      <c r="AP17" s="179"/>
-      <c r="AQ17" s="179"/>
-      <c r="AR17" s="180"/>
-      <c r="AS17" s="178"/>
-      <c r="AT17" s="179"/>
-      <c r="AU17" s="179"/>
-      <c r="AV17" s="179"/>
-      <c r="AW17" s="180"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="165"/>
+      <c r="AD17" s="165"/>
+      <c r="AE17" s="165"/>
+      <c r="AF17" s="165"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="165"/>
+      <c r="AJ17" s="165"/>
+      <c r="AK17" s="165"/>
+      <c r="AL17" s="165"/>
+      <c r="AM17" s="166"/>
+      <c r="AN17" s="150"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="150"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="151"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="152"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="175"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="176"/>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="176"/>
-      <c r="AJ18" s="176"/>
-      <c r="AK18" s="176"/>
-      <c r="AL18" s="176"/>
-      <c r="AM18" s="177"/>
-      <c r="AN18" s="178"/>
-      <c r="AO18" s="179"/>
-      <c r="AP18" s="179"/>
-      <c r="AQ18" s="179"/>
-      <c r="AR18" s="180"/>
-      <c r="AS18" s="178"/>
-      <c r="AT18" s="179"/>
-      <c r="AU18" s="179"/>
-      <c r="AV18" s="179"/>
-      <c r="AW18" s="180"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="165"/>
+      <c r="AJ18" s="165"/>
+      <c r="AK18" s="165"/>
+      <c r="AL18" s="165"/>
+      <c r="AM18" s="166"/>
+      <c r="AN18" s="150"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="151"/>
+      <c r="AR18" s="152"/>
+      <c r="AS18" s="150"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="151"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="152"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="175"/>
-      <c r="W19" s="176"/>
-      <c r="X19" s="176"/>
-      <c r="Y19" s="176"/>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="176"/>
-      <c r="AK19" s="176"/>
-      <c r="AL19" s="176"/>
-      <c r="AM19" s="177"/>
-      <c r="AN19" s="159"/>
-      <c r="AO19" s="159"/>
-      <c r="AP19" s="159"/>
-      <c r="AQ19" s="159"/>
-      <c r="AR19" s="159"/>
-      <c r="AS19" s="178"/>
-      <c r="AT19" s="179"/>
-      <c r="AU19" s="179"/>
-      <c r="AV19" s="179"/>
-      <c r="AW19" s="180"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="165"/>
+      <c r="X19" s="165"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="165"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="165"/>
+      <c r="AC19" s="165"/>
+      <c r="AD19" s="165"/>
+      <c r="AE19" s="165"/>
+      <c r="AF19" s="165"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="165"/>
+      <c r="AJ19" s="165"/>
+      <c r="AK19" s="165"/>
+      <c r="AL19" s="165"/>
+      <c r="AM19" s="166"/>
+      <c r="AN19" s="163"/>
+      <c r="AO19" s="163"/>
+      <c r="AP19" s="163"/>
+      <c r="AQ19" s="163"/>
+      <c r="AR19" s="163"/>
+      <c r="AS19" s="150"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="152"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="179"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="176"/>
-      <c r="X20" s="176"/>
-      <c r="Y20" s="176"/>
-      <c r="Z20" s="176"/>
-      <c r="AA20" s="176"/>
-      <c r="AB20" s="176"/>
-      <c r="AC20" s="176"/>
-      <c r="AD20" s="176"/>
-      <c r="AE20" s="176"/>
-      <c r="AF20" s="176"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="176"/>
-      <c r="AI20" s="176"/>
-      <c r="AJ20" s="176"/>
-      <c r="AK20" s="176"/>
-      <c r="AL20" s="176"/>
-      <c r="AM20" s="177"/>
-      <c r="AN20" s="178"/>
-      <c r="AO20" s="179"/>
-      <c r="AP20" s="179"/>
-      <c r="AQ20" s="179"/>
-      <c r="AR20" s="180"/>
-      <c r="AS20" s="178"/>
-      <c r="AT20" s="179"/>
-      <c r="AU20" s="179"/>
-      <c r="AV20" s="179"/>
-      <c r="AW20" s="180"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="165"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="165"/>
+      <c r="AJ20" s="165"/>
+      <c r="AK20" s="165"/>
+      <c r="AL20" s="165"/>
+      <c r="AM20" s="166"/>
+      <c r="AN20" s="150"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
+      <c r="AQ20" s="151"/>
+      <c r="AR20" s="152"/>
+      <c r="AS20" s="150"/>
+      <c r="AT20" s="151"/>
+      <c r="AU20" s="151"/>
+      <c r="AV20" s="151"/>
+      <c r="AW20" s="152"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="176"/>
-      <c r="X21" s="176"/>
-      <c r="Y21" s="176"/>
-      <c r="Z21" s="176"/>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="176"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="176"/>
-      <c r="AE21" s="176"/>
-      <c r="AF21" s="176"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="176"/>
-      <c r="AI21" s="176"/>
-      <c r="AJ21" s="176"/>
-      <c r="AK21" s="176"/>
-      <c r="AL21" s="176"/>
-      <c r="AM21" s="177"/>
-      <c r="AN21" s="178"/>
-      <c r="AO21" s="179"/>
-      <c r="AP21" s="179"/>
-      <c r="AQ21" s="179"/>
-      <c r="AR21" s="180"/>
-      <c r="AS21" s="178"/>
-      <c r="AT21" s="179"/>
-      <c r="AU21" s="179"/>
-      <c r="AV21" s="179"/>
-      <c r="AW21" s="180"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="168"/>
+      <c r="R21" s="169"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="165"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="165"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="165"/>
+      <c r="AL21" s="165"/>
+      <c r="AM21" s="166"/>
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="152"/>
+      <c r="AS21" s="150"/>
+      <c r="AT21" s="151"/>
+      <c r="AU21" s="151"/>
+      <c r="AV21" s="151"/>
+      <c r="AW21" s="152"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="175"/>
-      <c r="W22" s="176"/>
-      <c r="X22" s="176"/>
-      <c r="Y22" s="176"/>
-      <c r="Z22" s="176"/>
-      <c r="AA22" s="176"/>
-      <c r="AB22" s="176"/>
-      <c r="AC22" s="176"/>
-      <c r="AD22" s="176"/>
-      <c r="AE22" s="176"/>
-      <c r="AF22" s="176"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="176"/>
-      <c r="AI22" s="176"/>
-      <c r="AJ22" s="176"/>
-      <c r="AK22" s="176"/>
-      <c r="AL22" s="176"/>
-      <c r="AM22" s="177"/>
-      <c r="AN22" s="178"/>
-      <c r="AO22" s="179"/>
-      <c r="AP22" s="179"/>
-      <c r="AQ22" s="179"/>
-      <c r="AR22" s="180"/>
-      <c r="AS22" s="178"/>
-      <c r="AT22" s="179"/>
-      <c r="AU22" s="179"/>
-      <c r="AV22" s="179"/>
-      <c r="AW22" s="180"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="169"/>
+      <c r="S22" s="163"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="165"/>
+      <c r="AJ22" s="165"/>
+      <c r="AK22" s="165"/>
+      <c r="AL22" s="165"/>
+      <c r="AM22" s="166"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="152"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="152"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="176"/>
-      <c r="Y23" s="176"/>
-      <c r="Z23" s="176"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="176"/>
-      <c r="AC23" s="176"/>
-      <c r="AD23" s="176"/>
-      <c r="AE23" s="176"/>
-      <c r="AF23" s="176"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
-      <c r="AI23" s="176"/>
-      <c r="AJ23" s="176"/>
-      <c r="AK23" s="176"/>
-      <c r="AL23" s="176"/>
-      <c r="AM23" s="177"/>
-      <c r="AN23" s="178"/>
-      <c r="AO23" s="179"/>
-      <c r="AP23" s="179"/>
-      <c r="AQ23" s="179"/>
-      <c r="AR23" s="180"/>
-      <c r="AS23" s="178"/>
-      <c r="AT23" s="179"/>
-      <c r="AU23" s="179"/>
-      <c r="AV23" s="179"/>
-      <c r="AW23" s="180"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="163"/>
+      <c r="T23" s="163"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="165"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="165"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="165"/>
+      <c r="AL23" s="165"/>
+      <c r="AM23" s="166"/>
+      <c r="AN23" s="150"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
+      <c r="AQ23" s="151"/>
+      <c r="AR23" s="152"/>
+      <c r="AS23" s="150"/>
+      <c r="AT23" s="151"/>
+      <c r="AU23" s="151"/>
+      <c r="AV23" s="151"/>
+      <c r="AW23" s="152"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="175"/>
-      <c r="W24" s="176"/>
-      <c r="X24" s="176"/>
-      <c r="Y24" s="176"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="176"/>
-      <c r="AB24" s="176"/>
-      <c r="AC24" s="176"/>
-      <c r="AD24" s="176"/>
-      <c r="AE24" s="176"/>
-      <c r="AF24" s="176"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
-      <c r="AI24" s="176"/>
-      <c r="AJ24" s="176"/>
-      <c r="AK24" s="176"/>
-      <c r="AL24" s="176"/>
-      <c r="AM24" s="177"/>
-      <c r="AN24" s="178"/>
-      <c r="AO24" s="179"/>
-      <c r="AP24" s="179"/>
-      <c r="AQ24" s="179"/>
-      <c r="AR24" s="180"/>
-      <c r="AS24" s="178"/>
-      <c r="AT24" s="179"/>
-      <c r="AU24" s="179"/>
-      <c r="AV24" s="179"/>
-      <c r="AW24" s="180"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="165"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="165"/>
+      <c r="AJ24" s="165"/>
+      <c r="AK24" s="165"/>
+      <c r="AL24" s="165"/>
+      <c r="AM24" s="166"/>
+      <c r="AN24" s="150"/>
+      <c r="AO24" s="151"/>
+      <c r="AP24" s="151"/>
+      <c r="AQ24" s="151"/>
+      <c r="AR24" s="152"/>
+      <c r="AS24" s="150"/>
+      <c r="AT24" s="151"/>
+      <c r="AU24" s="151"/>
+      <c r="AV24" s="151"/>
+      <c r="AW24" s="152"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="176"/>
-      <c r="X25" s="176"/>
-      <c r="Y25" s="176"/>
-      <c r="Z25" s="176"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="176"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="176"/>
-      <c r="AE25" s="176"/>
-      <c r="AF25" s="176"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="176"/>
-      <c r="AI25" s="176"/>
-      <c r="AJ25" s="176"/>
-      <c r="AK25" s="176"/>
-      <c r="AL25" s="176"/>
-      <c r="AM25" s="177"/>
-      <c r="AN25" s="178"/>
-      <c r="AO25" s="179"/>
-      <c r="AP25" s="179"/>
-      <c r="AQ25" s="179"/>
-      <c r="AR25" s="180"/>
-      <c r="AS25" s="178"/>
-      <c r="AT25" s="179"/>
-      <c r="AU25" s="179"/>
-      <c r="AV25" s="179"/>
-      <c r="AW25" s="180"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="168"/>
+      <c r="Q25" s="168"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="165"/>
+      <c r="Z25" s="165"/>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="165"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="165"/>
+      <c r="AJ25" s="165"/>
+      <c r="AK25" s="165"/>
+      <c r="AL25" s="165"/>
+      <c r="AM25" s="166"/>
+      <c r="AN25" s="150"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
+      <c r="AQ25" s="151"/>
+      <c r="AR25" s="152"/>
+      <c r="AS25" s="150"/>
+      <c r="AT25" s="151"/>
+      <c r="AU25" s="151"/>
+      <c r="AV25" s="151"/>
+      <c r="AW25" s="152"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="175"/>
-      <c r="W26" s="176"/>
-      <c r="X26" s="176"/>
-      <c r="Y26" s="176"/>
-      <c r="Z26" s="176"/>
-      <c r="AA26" s="176"/>
-      <c r="AB26" s="176"/>
-      <c r="AC26" s="176"/>
-      <c r="AD26" s="176"/>
-      <c r="AE26" s="176"/>
-      <c r="AF26" s="176"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="176"/>
-      <c r="AI26" s="176"/>
-      <c r="AJ26" s="176"/>
-      <c r="AK26" s="176"/>
-      <c r="AL26" s="176"/>
-      <c r="AM26" s="177"/>
-      <c r="AN26" s="178"/>
-      <c r="AO26" s="179"/>
-      <c r="AP26" s="179"/>
-      <c r="AQ26" s="179"/>
-      <c r="AR26" s="180"/>
-      <c r="AS26" s="178"/>
-      <c r="AT26" s="179"/>
-      <c r="AU26" s="179"/>
-      <c r="AV26" s="179"/>
-      <c r="AW26" s="180"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="168"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="165"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="165"/>
+      <c r="AJ26" s="165"/>
+      <c r="AK26" s="165"/>
+      <c r="AL26" s="165"/>
+      <c r="AM26" s="166"/>
+      <c r="AN26" s="150"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
+      <c r="AQ26" s="151"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="150"/>
+      <c r="AT26" s="151"/>
+      <c r="AU26" s="151"/>
+      <c r="AV26" s="151"/>
+      <c r="AW26" s="152"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="176"/>
-      <c r="X27" s="176"/>
-      <c r="Y27" s="176"/>
-      <c r="Z27" s="176"/>
-      <c r="AA27" s="176"/>
-      <c r="AB27" s="176"/>
-      <c r="AC27" s="176"/>
-      <c r="AD27" s="176"/>
-      <c r="AE27" s="176"/>
-      <c r="AF27" s="176"/>
-      <c r="AG27" s="176"/>
-      <c r="AH27" s="176"/>
-      <c r="AI27" s="176"/>
-      <c r="AJ27" s="176"/>
-      <c r="AK27" s="176"/>
-      <c r="AL27" s="176"/>
-      <c r="AM27" s="177"/>
-      <c r="AN27" s="178"/>
-      <c r="AO27" s="179"/>
-      <c r="AP27" s="179"/>
-      <c r="AQ27" s="179"/>
-      <c r="AR27" s="180"/>
-      <c r="AS27" s="178"/>
-      <c r="AT27" s="179"/>
-      <c r="AU27" s="179"/>
-      <c r="AV27" s="179"/>
-      <c r="AW27" s="180"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="165"/>
+      <c r="AF27" s="165"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="165"/>
+      <c r="AJ27" s="165"/>
+      <c r="AK27" s="165"/>
+      <c r="AL27" s="165"/>
+      <c r="AM27" s="166"/>
+      <c r="AN27" s="150"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="152"/>
+      <c r="AS27" s="150"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="152"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="176"/>
-      <c r="AE28" s="176"/>
-      <c r="AF28" s="176"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="176"/>
-      <c r="AJ28" s="176"/>
-      <c r="AK28" s="176"/>
-      <c r="AL28" s="176"/>
-      <c r="AM28" s="177"/>
-      <c r="AN28" s="178"/>
-      <c r="AO28" s="179"/>
-      <c r="AP28" s="179"/>
-      <c r="AQ28" s="179"/>
-      <c r="AR28" s="180"/>
-      <c r="AS28" s="178"/>
-      <c r="AT28" s="179"/>
-      <c r="AU28" s="179"/>
-      <c r="AV28" s="179"/>
-      <c r="AW28" s="180"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="165"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="165"/>
+      <c r="AL28" s="165"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="150"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="152"/>
+      <c r="AS28" s="150"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="152"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="175"/>
-      <c r="W29" s="176"/>
-      <c r="X29" s="176"/>
-      <c r="Y29" s="176"/>
-      <c r="Z29" s="176"/>
-      <c r="AA29" s="176"/>
-      <c r="AB29" s="176"/>
-      <c r="AC29" s="176"/>
-      <c r="AD29" s="176"/>
-      <c r="AE29" s="176"/>
-      <c r="AF29" s="176"/>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="176"/>
-      <c r="AI29" s="176"/>
-      <c r="AJ29" s="176"/>
-      <c r="AK29" s="176"/>
-      <c r="AL29" s="176"/>
-      <c r="AM29" s="177"/>
-      <c r="AN29" s="178"/>
-      <c r="AO29" s="179"/>
-      <c r="AP29" s="179"/>
-      <c r="AQ29" s="179"/>
-      <c r="AR29" s="180"/>
-      <c r="AS29" s="178"/>
-      <c r="AT29" s="179"/>
-      <c r="AU29" s="179"/>
-      <c r="AV29" s="179"/>
-      <c r="AW29" s="180"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="165"/>
+      <c r="AB29" s="165"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="165"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="165"/>
+      <c r="AJ29" s="165"/>
+      <c r="AK29" s="165"/>
+      <c r="AL29" s="165"/>
+      <c r="AM29" s="166"/>
+      <c r="AN29" s="150"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="151"/>
+      <c r="AR29" s="152"/>
+      <c r="AS29" s="150"/>
+      <c r="AT29" s="151"/>
+      <c r="AU29" s="151"/>
+      <c r="AV29" s="151"/>
+      <c r="AW29" s="152"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="176"/>
-      <c r="X30" s="176"/>
-      <c r="Y30" s="176"/>
-      <c r="Z30" s="176"/>
-      <c r="AA30" s="176"/>
-      <c r="AB30" s="176"/>
-      <c r="AC30" s="176"/>
-      <c r="AD30" s="176"/>
-      <c r="AE30" s="176"/>
-      <c r="AF30" s="176"/>
-      <c r="AG30" s="176"/>
-      <c r="AH30" s="176"/>
-      <c r="AI30" s="176"/>
-      <c r="AJ30" s="176"/>
-      <c r="AK30" s="176"/>
-      <c r="AL30" s="176"/>
-      <c r="AM30" s="177"/>
-      <c r="AN30" s="178"/>
-      <c r="AO30" s="179"/>
-      <c r="AP30" s="179"/>
-      <c r="AQ30" s="179"/>
-      <c r="AR30" s="180"/>
-      <c r="AS30" s="178"/>
-      <c r="AT30" s="179"/>
-      <c r="AU30" s="179"/>
-      <c r="AV30" s="179"/>
-      <c r="AW30" s="180"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="166"/>
+      <c r="AN30" s="150"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="151"/>
+      <c r="AR30" s="152"/>
+      <c r="AS30" s="150"/>
+      <c r="AT30" s="151"/>
+      <c r="AU30" s="151"/>
+      <c r="AV30" s="151"/>
+      <c r="AW30" s="152"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="175"/>
-      <c r="W31" s="176"/>
-      <c r="X31" s="176"/>
-      <c r="Y31" s="176"/>
-      <c r="Z31" s="176"/>
-      <c r="AA31" s="176"/>
-      <c r="AB31" s="176"/>
-      <c r="AC31" s="176"/>
-      <c r="AD31" s="176"/>
-      <c r="AE31" s="176"/>
-      <c r="AF31" s="176"/>
-      <c r="AG31" s="176"/>
-      <c r="AH31" s="176"/>
-      <c r="AI31" s="176"/>
-      <c r="AJ31" s="176"/>
-      <c r="AK31" s="176"/>
-      <c r="AL31" s="176"/>
-      <c r="AM31" s="177"/>
-      <c r="AN31" s="178"/>
-      <c r="AO31" s="179"/>
-      <c r="AP31" s="179"/>
-      <c r="AQ31" s="179"/>
-      <c r="AR31" s="180"/>
-      <c r="AS31" s="178"/>
-      <c r="AT31" s="179"/>
-      <c r="AU31" s="179"/>
-      <c r="AV31" s="179"/>
-      <c r="AW31" s="180"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="168"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="165"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="165"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="165"/>
+      <c r="AJ31" s="165"/>
+      <c r="AK31" s="165"/>
+      <c r="AL31" s="165"/>
+      <c r="AM31" s="166"/>
+      <c r="AN31" s="150"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="151"/>
+      <c r="AR31" s="152"/>
+      <c r="AS31" s="150"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="152"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="176"/>
-      <c r="Y32" s="176"/>
-      <c r="Z32" s="176"/>
-      <c r="AA32" s="176"/>
-      <c r="AB32" s="176"/>
-      <c r="AC32" s="176"/>
-      <c r="AD32" s="176"/>
-      <c r="AE32" s="176"/>
-      <c r="AF32" s="176"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="176"/>
-      <c r="AI32" s="176"/>
-      <c r="AJ32" s="176"/>
-      <c r="AK32" s="176"/>
-      <c r="AL32" s="176"/>
-      <c r="AM32" s="177"/>
-      <c r="AN32" s="178"/>
-      <c r="AO32" s="179"/>
-      <c r="AP32" s="179"/>
-      <c r="AQ32" s="179"/>
-      <c r="AR32" s="180"/>
-      <c r="AS32" s="178"/>
-      <c r="AT32" s="179"/>
-      <c r="AU32" s="179"/>
-      <c r="AV32" s="179"/>
-      <c r="AW32" s="180"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="168"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="165"/>
+      <c r="X32" s="165"/>
+      <c r="Y32" s="165"/>
+      <c r="Z32" s="165"/>
+      <c r="AA32" s="165"/>
+      <c r="AB32" s="165"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="165"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="165"/>
+      <c r="AJ32" s="165"/>
+      <c r="AK32" s="165"/>
+      <c r="AL32" s="165"/>
+      <c r="AM32" s="166"/>
+      <c r="AN32" s="150"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
+      <c r="AQ32" s="151"/>
+      <c r="AR32" s="152"/>
+      <c r="AS32" s="150"/>
+      <c r="AT32" s="151"/>
+      <c r="AU32" s="151"/>
+      <c r="AV32" s="151"/>
+      <c r="AW32" s="152"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="176"/>
-      <c r="Y33" s="176"/>
-      <c r="Z33" s="176"/>
-      <c r="AA33" s="176"/>
-      <c r="AB33" s="176"/>
-      <c r="AC33" s="176"/>
-      <c r="AD33" s="176"/>
-      <c r="AE33" s="176"/>
-      <c r="AF33" s="176"/>
-      <c r="AG33" s="176"/>
-      <c r="AH33" s="176"/>
-      <c r="AI33" s="176"/>
-      <c r="AJ33" s="176"/>
-      <c r="AK33" s="176"/>
-      <c r="AL33" s="176"/>
-      <c r="AM33" s="177"/>
-      <c r="AN33" s="178"/>
-      <c r="AO33" s="179"/>
-      <c r="AP33" s="179"/>
-      <c r="AQ33" s="179"/>
-      <c r="AR33" s="180"/>
-      <c r="AS33" s="178"/>
-      <c r="AT33" s="179"/>
-      <c r="AU33" s="179"/>
-      <c r="AV33" s="179"/>
-      <c r="AW33" s="180"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="163"/>
+      <c r="T33" s="163"/>
+      <c r="U33" s="163"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="165"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="165"/>
+      <c r="AA33" s="165"/>
+      <c r="AB33" s="165"/>
+      <c r="AC33" s="165"/>
+      <c r="AD33" s="165"/>
+      <c r="AE33" s="165"/>
+      <c r="AF33" s="165"/>
+      <c r="AG33" s="165"/>
+      <c r="AH33" s="165"/>
+      <c r="AI33" s="165"/>
+      <c r="AJ33" s="165"/>
+      <c r="AK33" s="165"/>
+      <c r="AL33" s="165"/>
+      <c r="AM33" s="166"/>
+      <c r="AN33" s="150"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
+      <c r="AQ33" s="151"/>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="150"/>
+      <c r="AT33" s="151"/>
+      <c r="AU33" s="151"/>
+      <c r="AV33" s="151"/>
+      <c r="AW33" s="152"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="169"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="188"/>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="189"/>
-      <c r="S34" s="159"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="175"/>
-      <c r="W34" s="176"/>
-      <c r="X34" s="176"/>
-      <c r="Y34" s="176"/>
-      <c r="Z34" s="176"/>
-      <c r="AA34" s="176"/>
-      <c r="AB34" s="176"/>
-      <c r="AC34" s="176"/>
-      <c r="AD34" s="176"/>
-      <c r="AE34" s="176"/>
-      <c r="AF34" s="176"/>
-      <c r="AG34" s="176"/>
-      <c r="AH34" s="176"/>
-      <c r="AI34" s="176"/>
-      <c r="AJ34" s="176"/>
-      <c r="AK34" s="176"/>
-      <c r="AL34" s="176"/>
-      <c r="AM34" s="177"/>
-      <c r="AN34" s="178"/>
-      <c r="AO34" s="179"/>
-      <c r="AP34" s="179"/>
-      <c r="AQ34" s="179"/>
-      <c r="AR34" s="180"/>
-      <c r="AS34" s="178"/>
-      <c r="AT34" s="179"/>
-      <c r="AU34" s="179"/>
-      <c r="AV34" s="179"/>
-      <c r="AW34" s="180"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="163"/>
+      <c r="T34" s="163"/>
+      <c r="U34" s="163"/>
+      <c r="V34" s="164"/>
+      <c r="W34" s="165"/>
+      <c r="X34" s="165"/>
+      <c r="Y34" s="165"/>
+      <c r="Z34" s="165"/>
+      <c r="AA34" s="165"/>
+      <c r="AB34" s="165"/>
+      <c r="AC34" s="165"/>
+      <c r="AD34" s="165"/>
+      <c r="AE34" s="165"/>
+      <c r="AF34" s="165"/>
+      <c r="AG34" s="165"/>
+      <c r="AH34" s="165"/>
+      <c r="AI34" s="165"/>
+      <c r="AJ34" s="165"/>
+      <c r="AK34" s="165"/>
+      <c r="AL34" s="165"/>
+      <c r="AM34" s="166"/>
+      <c r="AN34" s="150"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="151"/>
+      <c r="AR34" s="152"/>
+      <c r="AS34" s="150"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7990,239 +8223,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8382,11 +8382,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="195"/>
-      <c r="AS2" s="196"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="191"/>
+      <c r="AQ2" s="191"/>
+      <c r="AR2" s="191"/>
+      <c r="AS2" s="192"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8395,14 +8395,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
-      <c r="BB2" s="198"/>
-      <c r="BC2" s="198"/>
-      <c r="BD2" s="198"/>
-      <c r="BE2" s="198"/>
-      <c r="BF2" s="198"/>
-      <c r="BG2" s="199"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="194"/>
+      <c r="BC2" s="194"/>
+      <c r="BD2" s="194"/>
+      <c r="BE2" s="194"/>
+      <c r="BF2" s="194"/>
+      <c r="BG2" s="195"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -10221,10 +10221,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="200" t="s">
+      <c r="B50" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="201"/>
+      <c r="C50" s="199"/>
       <c r="D50" s="90" t="s">
         <v>82</v>
       </c>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="190">
+      <c r="B51" s="200">
         <v>1</v>
       </c>
-      <c r="C51" s="191"/>
+      <c r="C51" s="201"/>
       <c r="D51" s="84" t="s">
         <v>118</v>
       </c>
@@ -10342,16 +10342,16 @@
       <c r="AB51" s="88"/>
       <c r="AC51" s="88"/>
       <c r="AD51" s="89"/>
-      <c r="AE51" s="192" t="s">
+      <c r="AE51" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AF51" s="193"/>
-      <c r="AG51" s="192"/>
-      <c r="AH51" s="193"/>
-      <c r="AI51" s="192"/>
-      <c r="AJ51" s="193"/>
-      <c r="AK51" s="192"/>
-      <c r="AL51" s="193"/>
+      <c r="AF51" s="197"/>
+      <c r="AG51" s="196"/>
+      <c r="AH51" s="197"/>
+      <c r="AI51" s="196"/>
+      <c r="AJ51" s="197"/>
+      <c r="AK51" s="196"/>
+      <c r="AL51" s="197"/>
       <c r="AM51" s="85" t="s">
         <v>147</v>
       </c>
@@ -10385,10 +10385,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="190">
+      <c r="B52" s="200">
         <v>2</v>
       </c>
-      <c r="C52" s="191"/>
+      <c r="C52" s="201"/>
       <c r="D52" s="126" t="s">
         <v>118</v>
       </c>
@@ -10420,16 +10420,16 @@
       <c r="AB52" s="88"/>
       <c r="AC52" s="88"/>
       <c r="AD52" s="127"/>
-      <c r="AE52" s="192" t="s">
+      <c r="AE52" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AF52" s="193"/>
-      <c r="AG52" s="192"/>
-      <c r="AH52" s="193"/>
-      <c r="AI52" s="192"/>
-      <c r="AJ52" s="193"/>
-      <c r="AK52" s="192"/>
-      <c r="AL52" s="193"/>
+      <c r="AF52" s="197"/>
+      <c r="AG52" s="196"/>
+      <c r="AH52" s="197"/>
+      <c r="AI52" s="196"/>
+      <c r="AJ52" s="197"/>
+      <c r="AK52" s="196"/>
+      <c r="AL52" s="197"/>
       <c r="AM52" s="85" t="s">
         <v>148</v>
       </c>
@@ -10463,10 +10463,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="190">
+      <c r="B53" s="200">
         <v>3</v>
       </c>
-      <c r="C53" s="191"/>
+      <c r="C53" s="201"/>
       <c r="D53" s="126" t="s">
         <v>118</v>
       </c>
@@ -10498,16 +10498,16 @@
       <c r="AB53" s="88"/>
       <c r="AC53" s="88"/>
       <c r="AD53" s="127"/>
-      <c r="AE53" s="192" t="s">
+      <c r="AE53" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AF53" s="193"/>
-      <c r="AG53" s="192"/>
-      <c r="AH53" s="193"/>
-      <c r="AI53" s="192"/>
-      <c r="AJ53" s="193"/>
-      <c r="AK53" s="192"/>
-      <c r="AL53" s="193"/>
+      <c r="AF53" s="197"/>
+      <c r="AG53" s="196"/>
+      <c r="AH53" s="197"/>
+      <c r="AI53" s="196"/>
+      <c r="AJ53" s="197"/>
+      <c r="AK53" s="196"/>
+      <c r="AL53" s="197"/>
       <c r="AM53" s="85" t="s">
         <v>149</v>
       </c>
@@ -10541,10 +10541,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="190">
+      <c r="B54" s="200">
         <v>4</v>
       </c>
-      <c r="C54" s="191"/>
+      <c r="C54" s="201"/>
       <c r="D54" s="126" t="s">
         <v>119</v>
       </c>
@@ -10576,18 +10576,18 @@
       <c r="AB54" s="88"/>
       <c r="AC54" s="88"/>
       <c r="AD54" s="127"/>
-      <c r="AE54" s="192" t="s">
+      <c r="AE54" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AF54" s="193"/>
-      <c r="AG54" s="192"/>
-      <c r="AH54" s="193"/>
-      <c r="AI54" s="192" t="s">
+      <c r="AF54" s="197"/>
+      <c r="AG54" s="196"/>
+      <c r="AH54" s="197"/>
+      <c r="AI54" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AJ54" s="193"/>
-      <c r="AK54" s="192"/>
-      <c r="AL54" s="193"/>
+      <c r="AJ54" s="197"/>
+      <c r="AK54" s="196"/>
+      <c r="AL54" s="197"/>
       <c r="AM54" s="85" t="s">
         <v>150</v>
       </c>
@@ -10621,10 +10621,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="28"/>
-      <c r="B55" s="190">
+      <c r="B55" s="200">
         <v>5</v>
       </c>
-      <c r="C55" s="191"/>
+      <c r="C55" s="201"/>
       <c r="D55" s="126" t="s">
         <v>119</v>
       </c>
@@ -10656,18 +10656,18 @@
       <c r="AB55" s="88"/>
       <c r="AC55" s="88"/>
       <c r="AD55" s="127"/>
-      <c r="AE55" s="192" t="s">
+      <c r="AE55" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AF55" s="193"/>
-      <c r="AG55" s="192" t="s">
+      <c r="AF55" s="197"/>
+      <c r="AG55" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="AH55" s="193"/>
-      <c r="AI55" s="192"/>
-      <c r="AJ55" s="193"/>
-      <c r="AK55" s="192"/>
-      <c r="AL55" s="193"/>
+      <c r="AH55" s="197"/>
+      <c r="AI55" s="196"/>
+      <c r="AJ55" s="197"/>
+      <c r="AK55" s="196"/>
+      <c r="AL55" s="197"/>
       <c r="AM55" s="85" t="s">
         <v>151</v>
       </c>
@@ -10701,6 +10701,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10709,26 +10729,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10874,7 +10874,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="197" t="str">
+      <c r="CU1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="197"/>
+      <c r="CU2" s="193"/>
       <c r="CV2" s="202"/>
       <c r="CW2" s="202"/>
       <c r="CX2" s="202"/>
@@ -11125,7 +11125,7 @@
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11241,22 +11241,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="152" t="s">
+      <c r="E6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="152" t="s">
+      <c r="H6" s="183" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="211" t="s">
@@ -11265,13 +11265,13 @@
       <c r="J6" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="152" t="s">
+      <c r="K6" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="152" t="s">
+      <c r="L6" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="152" t="s">
+      <c r="M6" s="183" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -11286,17 +11286,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
       <c r="I7" s="211"/>
       <c r="J7" s="211"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -11762,22 +11762,22 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="152" t="s">
+      <c r="E19" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="152" t="s">
+      <c r="H19" s="183" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="212" t="s">
@@ -11786,13 +11786,13 @@
       <c r="J19" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="152" t="s">
+      <c r="K19" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="152" t="s">
+      <c r="L19" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="152" t="s">
+      <c r="M19" s="183" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="72" t="s">
@@ -11807,17 +11807,17 @@
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
       <c r="I20" s="213"/>
       <c r="J20" s="211"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -11955,22 +11955,22 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="65"/>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="152" t="s">
+      <c r="E25" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="152" t="s">
+      <c r="F25" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="152" t="s">
+      <c r="G25" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="152" t="s">
+      <c r="H25" s="183" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="211" t="s">
@@ -11979,13 +11979,13 @@
       <c r="J25" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="152" t="s">
+      <c r="K25" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="152" t="s">
+      <c r="L25" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="152" t="s">
+      <c r="M25" s="183" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="72" t="s">
@@ -12000,17 +12000,17 @@
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
       <c r="I26" s="211"/>
       <c r="J26" s="211"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
       <c r="N26" s="95" t="s">
         <v>64</v>
       </c>
@@ -12486,30 +12486,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12522,6 +12498,30 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12540,9 +12540,9 @@
   <dimension ref="A1:AZ263"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31:Q42"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12597,7 +12597,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="194">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="197" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12684,7 +12684,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="197"/>
+      <c r="AT2" s="193"/>
       <c r="AU2" s="202"/>
       <c r="AV2" s="202"/>
       <c r="AW2" s="202"/>
@@ -24961,7 +24961,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="194">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -24977,7 +24977,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="197" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -25048,7 +25048,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="197"/>
+      <c r="AT2" s="193"/>
       <c r="AU2" s="202"/>
       <c r="AV2" s="202"/>
       <c r="AW2" s="202"/>
@@ -30976,7 +30976,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="194">
+      <c r="AI1" s="190">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -30992,7 +30992,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="197" t="str">
+      <c r="AT1" s="193" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -31063,7 +31063,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="197"/>
+      <c r="AT2" s="193"/>
       <c r="AU2" s="202"/>
       <c r="AV2" s="202"/>
       <c r="AW2" s="202"/>
@@ -43922,21 +43922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -44094,24 +44079,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44127,4 +44110,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185402E4-E620-40AD-A1A8-0CCAA7836B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886BFCAD-83E8-4115-B5AE-DA743E2944C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,9 +1904,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON 最新データ.RANKNO = 1</t>
-  </si>
-  <si>
     <t>・受払データ.払出区分</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2422,6 +2419,10 @@
     <rPh sb="7" eb="9">
       <t>クブン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 最新データ.RANKNO</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3321,6 +3322,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3348,103 +3434,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3463,10 +3452,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5886,1770 +5887,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="144"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="144"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="144"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="145" t="s">
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145" t="s">
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="145"/>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="145"/>
-      <c r="AN3" s="145" t="s">
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
+      <c r="AJ3" s="176"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="176"/>
+      <c r="AN3" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="145"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="145"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="145"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="145"/>
-      <c r="AP4" s="145"/>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="145"/>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="145"/>
-      <c r="AW4" s="145"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="176"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="153">
+      <c r="B5" s="168">
         <v>1</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="149">
         <v>43720</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="155" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="152" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="161" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="161"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="152" t="s">
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="152"/>
-      <c r="AP5" s="152"/>
-      <c r="AQ5" s="152"/>
-      <c r="AR5" s="152"/>
-      <c r="AS5" s="152"/>
-      <c r="AT5" s="152"/>
-      <c r="AU5" s="152"/>
-      <c r="AV5" s="152"/>
-      <c r="AW5" s="152"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="161"/>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="161"/>
-      <c r="AN6" s="152"/>
-      <c r="AO6" s="152"/>
-      <c r="AP6" s="152"/>
-      <c r="AQ6" s="152"/>
-      <c r="AR6" s="152"/>
-      <c r="AS6" s="152"/>
-      <c r="AT6" s="152"/>
-      <c r="AU6" s="152"/>
-      <c r="AV6" s="152"/>
-      <c r="AW6" s="152"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="152"/>
-      <c r="AR7" s="152"/>
-      <c r="AS7" s="152"/>
-      <c r="AT7" s="152"/>
-      <c r="AU7" s="152"/>
-      <c r="AV7" s="152"/>
-      <c r="AW7" s="152"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="167"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="161"/>
-      <c r="AJ8" s="161"/>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="152"/>
-      <c r="AO8" s="152"/>
-      <c r="AP8" s="152"/>
-      <c r="AQ8" s="152"/>
-      <c r="AR8" s="152"/>
-      <c r="AS8" s="152"/>
-      <c r="AT8" s="152"/>
-      <c r="AU8" s="152"/>
-      <c r="AV8" s="152"/>
-      <c r="AW8" s="152"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167"/>
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167"/>
+      <c r="AM8" s="167"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="161"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="161"/>
-      <c r="AK9" s="161"/>
-      <c r="AL9" s="161"/>
-      <c r="AM9" s="161"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
-      <c r="AQ9" s="152"/>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="152"/>
-      <c r="AT9" s="152"/>
-      <c r="AU9" s="152"/>
-      <c r="AV9" s="152"/>
-      <c r="AW9" s="152"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="167"/>
+      <c r="AK9" s="167"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="161"/>
-      <c r="AJ10" s="161"/>
-      <c r="AK10" s="161"/>
-      <c r="AL10" s="161"/>
-      <c r="AM10" s="161"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="167"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="167"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="174"/>
-      <c r="AH11" s="174"/>
-      <c r="AI11" s="174"/>
-      <c r="AJ11" s="174"/>
-      <c r="AK11" s="174"/>
-      <c r="AL11" s="174"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="152"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="152"/>
-      <c r="AQ11" s="152"/>
-      <c r="AR11" s="152"/>
-      <c r="AS11" s="152"/>
-      <c r="AT11" s="152"/>
-      <c r="AU11" s="152"/>
-      <c r="AV11" s="152"/>
-      <c r="AW11" s="152"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="169"/>
+      <c r="AJ11" s="169"/>
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="169"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="167"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="169"/>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="170"/>
-      <c r="AN12" s="171"/>
-      <c r="AO12" s="172"/>
-      <c r="AP12" s="172"/>
-      <c r="AQ12" s="172"/>
-      <c r="AR12" s="173"/>
-      <c r="AS12" s="171"/>
-      <c r="AT12" s="172"/>
-      <c r="AU12" s="172"/>
-      <c r="AV12" s="172"/>
-      <c r="AW12" s="173"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="158"/>
+      <c r="AC12" s="158"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="158"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="158"/>
+      <c r="AJ12" s="158"/>
+      <c r="AK12" s="158"/>
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="144"/>
+      <c r="AP12" s="144"/>
+      <c r="AQ12" s="144"/>
+      <c r="AR12" s="145"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="144"/>
+      <c r="AU12" s="144"/>
+      <c r="AV12" s="144"/>
+      <c r="AW12" s="145"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="169"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="169"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="169"/>
-      <c r="AI13" s="169"/>
-      <c r="AJ13" s="169"/>
-      <c r="AK13" s="169"/>
-      <c r="AL13" s="169"/>
-      <c r="AM13" s="170"/>
-      <c r="AN13" s="171"/>
-      <c r="AO13" s="172"/>
-      <c r="AP13" s="172"/>
-      <c r="AQ13" s="172"/>
-      <c r="AR13" s="173"/>
-      <c r="AS13" s="171"/>
-      <c r="AT13" s="172"/>
-      <c r="AU13" s="172"/>
-      <c r="AV13" s="172"/>
-      <c r="AW13" s="173"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="158"/>
+      <c r="AB13" s="158"/>
+      <c r="AC13" s="158"/>
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="158"/>
+      <c r="AJ13" s="158"/>
+      <c r="AK13" s="158"/>
+      <c r="AL13" s="158"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="144"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="144"/>
+      <c r="AW13" s="145"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="167"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="161"/>
-      <c r="AI14" s="161"/>
-      <c r="AJ14" s="161"/>
-      <c r="AK14" s="161"/>
-      <c r="AL14" s="161"/>
-      <c r="AM14" s="161"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
-      <c r="AQ14" s="152"/>
-      <c r="AR14" s="152"/>
-      <c r="AS14" s="171"/>
-      <c r="AT14" s="172"/>
-      <c r="AU14" s="172"/>
-      <c r="AV14" s="172"/>
-      <c r="AW14" s="173"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="167"/>
+      <c r="AH14" s="167"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="167"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="143"/>
+      <c r="AT14" s="144"/>
+      <c r="AU14" s="144"/>
+      <c r="AV14" s="144"/>
+      <c r="AW14" s="145"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="169"/>
-      <c r="AB15" s="169"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="169"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="169"/>
-      <c r="AM15" s="170"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="172"/>
-      <c r="AP15" s="172"/>
-      <c r="AQ15" s="172"/>
-      <c r="AR15" s="173"/>
-      <c r="AS15" s="171"/>
-      <c r="AT15" s="172"/>
-      <c r="AU15" s="172"/>
-      <c r="AV15" s="172"/>
-      <c r="AW15" s="173"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="158"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="158"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="158"/>
+      <c r="AB15" s="158"/>
+      <c r="AC15" s="158"/>
+      <c r="AD15" s="158"/>
+      <c r="AE15" s="158"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="158"/>
+      <c r="AJ15" s="158"/>
+      <c r="AK15" s="158"/>
+      <c r="AL15" s="158"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="144"/>
+      <c r="AP15" s="144"/>
+      <c r="AQ15" s="144"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="143"/>
+      <c r="AT15" s="144"/>
+      <c r="AU15" s="144"/>
+      <c r="AV15" s="144"/>
+      <c r="AW15" s="145"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="169"/>
-      <c r="X16" s="169"/>
-      <c r="Y16" s="169"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="169"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="169"/>
-      <c r="AD16" s="169"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="169"/>
-      <c r="AI16" s="169"/>
-      <c r="AJ16" s="169"/>
-      <c r="AK16" s="169"/>
-      <c r="AL16" s="169"/>
-      <c r="AM16" s="170"/>
-      <c r="AN16" s="171"/>
-      <c r="AO16" s="172"/>
-      <c r="AP16" s="172"/>
-      <c r="AQ16" s="172"/>
-      <c r="AR16" s="173"/>
-      <c r="AS16" s="171"/>
-      <c r="AT16" s="172"/>
-      <c r="AU16" s="172"/>
-      <c r="AV16" s="172"/>
-      <c r="AW16" s="173"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="158"/>
+      <c r="AB16" s="158"/>
+      <c r="AC16" s="158"/>
+      <c r="AD16" s="158"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="158"/>
+      <c r="AJ16" s="158"/>
+      <c r="AK16" s="158"/>
+      <c r="AL16" s="158"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="144"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="144"/>
+      <c r="AV16" s="144"/>
+      <c r="AW16" s="145"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="179"/>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="169"/>
-      <c r="AB17" s="169"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="169"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="169"/>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="169"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="171"/>
-      <c r="AO17" s="172"/>
-      <c r="AP17" s="172"/>
-      <c r="AQ17" s="172"/>
-      <c r="AR17" s="173"/>
-      <c r="AS17" s="171"/>
-      <c r="AT17" s="172"/>
-      <c r="AU17" s="172"/>
-      <c r="AV17" s="172"/>
-      <c r="AW17" s="173"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="158"/>
+      <c r="AD17" s="158"/>
+      <c r="AE17" s="158"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="158"/>
+      <c r="AJ17" s="158"/>
+      <c r="AK17" s="158"/>
+      <c r="AL17" s="158"/>
+      <c r="AM17" s="159"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="144"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="143"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="144"/>
+      <c r="AV17" s="144"/>
+      <c r="AW17" s="145"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="152"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="169"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="169"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="169"/>
-      <c r="AJ18" s="169"/>
-      <c r="AK18" s="169"/>
-      <c r="AL18" s="169"/>
-      <c r="AM18" s="170"/>
-      <c r="AN18" s="171"/>
-      <c r="AO18" s="172"/>
-      <c r="AP18" s="172"/>
-      <c r="AQ18" s="172"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="171"/>
-      <c r="AT18" s="172"/>
-      <c r="AU18" s="172"/>
-      <c r="AV18" s="172"/>
-      <c r="AW18" s="173"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="158"/>
+      <c r="AK18" s="158"/>
+      <c r="AL18" s="158"/>
+      <c r="AM18" s="159"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="144"/>
+      <c r="AQ18" s="144"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="143"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="144"/>
+      <c r="AV18" s="144"/>
+      <c r="AW18" s="145"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="169"/>
-      <c r="X19" s="169"/>
-      <c r="Y19" s="169"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="169"/>
-      <c r="AB19" s="169"/>
-      <c r="AC19" s="169"/>
-      <c r="AD19" s="169"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="169"/>
-      <c r="AG19" s="169"/>
-      <c r="AH19" s="169"/>
-      <c r="AI19" s="169"/>
-      <c r="AJ19" s="169"/>
-      <c r="AK19" s="169"/>
-      <c r="AL19" s="169"/>
-      <c r="AM19" s="170"/>
-      <c r="AN19" s="152"/>
-      <c r="AO19" s="152"/>
-      <c r="AP19" s="152"/>
-      <c r="AQ19" s="152"/>
-      <c r="AR19" s="152"/>
-      <c r="AS19" s="171"/>
-      <c r="AT19" s="172"/>
-      <c r="AU19" s="172"/>
-      <c r="AV19" s="172"/>
-      <c r="AW19" s="173"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="158"/>
+      <c r="AD19" s="158"/>
+      <c r="AE19" s="158"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="158"/>
+      <c r="AJ19" s="158"/>
+      <c r="AK19" s="158"/>
+      <c r="AL19" s="158"/>
+      <c r="AM19" s="159"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="144"/>
+      <c r="AV19" s="144"/>
+      <c r="AW19" s="145"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="169"/>
-      <c r="X20" s="169"/>
-      <c r="Y20" s="169"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="169"/>
-      <c r="AB20" s="169"/>
-      <c r="AC20" s="169"/>
-      <c r="AD20" s="169"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="169"/>
-      <c r="AG20" s="169"/>
-      <c r="AH20" s="169"/>
-      <c r="AI20" s="169"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="169"/>
-      <c r="AL20" s="169"/>
-      <c r="AM20" s="170"/>
-      <c r="AN20" s="171"/>
-      <c r="AO20" s="172"/>
-      <c r="AP20" s="172"/>
-      <c r="AQ20" s="172"/>
-      <c r="AR20" s="173"/>
-      <c r="AS20" s="171"/>
-      <c r="AT20" s="172"/>
-      <c r="AU20" s="172"/>
-      <c r="AV20" s="172"/>
-      <c r="AW20" s="173"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="158"/>
+      <c r="AD20" s="158"/>
+      <c r="AE20" s="158"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="158"/>
+      <c r="AJ20" s="158"/>
+      <c r="AK20" s="158"/>
+      <c r="AL20" s="158"/>
+      <c r="AM20" s="159"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="144"/>
+      <c r="AP20" s="144"/>
+      <c r="AQ20" s="144"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="143"/>
+      <c r="AT20" s="144"/>
+      <c r="AU20" s="144"/>
+      <c r="AV20" s="144"/>
+      <c r="AW20" s="145"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="169"/>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="169"/>
-      <c r="AA21" s="169"/>
-      <c r="AB21" s="169"/>
-      <c r="AC21" s="169"/>
-      <c r="AD21" s="169"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="169"/>
-      <c r="AG21" s="169"/>
-      <c r="AH21" s="169"/>
-      <c r="AI21" s="169"/>
-      <c r="AJ21" s="169"/>
-      <c r="AK21" s="169"/>
-      <c r="AL21" s="169"/>
-      <c r="AM21" s="170"/>
-      <c r="AN21" s="171"/>
-      <c r="AO21" s="172"/>
-      <c r="AP21" s="172"/>
-      <c r="AQ21" s="172"/>
-      <c r="AR21" s="173"/>
-      <c r="AS21" s="171"/>
-      <c r="AT21" s="172"/>
-      <c r="AU21" s="172"/>
-      <c r="AV21" s="172"/>
-      <c r="AW21" s="173"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="158"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="158"/>
+      <c r="AB21" s="158"/>
+      <c r="AC21" s="158"/>
+      <c r="AD21" s="158"/>
+      <c r="AE21" s="158"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="158"/>
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="158"/>
+      <c r="AL21" s="158"/>
+      <c r="AM21" s="159"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="144"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="143"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="144"/>
+      <c r="AV21" s="144"/>
+      <c r="AW21" s="145"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="169"/>
-      <c r="X22" s="169"/>
-      <c r="Y22" s="169"/>
-      <c r="Z22" s="169"/>
-      <c r="AA22" s="169"/>
-      <c r="AB22" s="169"/>
-      <c r="AC22" s="169"/>
-      <c r="AD22" s="169"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="169"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="169"/>
-      <c r="AJ22" s="169"/>
-      <c r="AK22" s="169"/>
-      <c r="AL22" s="169"/>
-      <c r="AM22" s="170"/>
-      <c r="AN22" s="171"/>
-      <c r="AO22" s="172"/>
-      <c r="AP22" s="172"/>
-      <c r="AQ22" s="172"/>
-      <c r="AR22" s="173"/>
-      <c r="AS22" s="171"/>
-      <c r="AT22" s="172"/>
-      <c r="AU22" s="172"/>
-      <c r="AV22" s="172"/>
-      <c r="AW22" s="173"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="158"/>
+      <c r="AL22" s="158"/>
+      <c r="AM22" s="159"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="144"/>
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="144"/>
+      <c r="AR22" s="145"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="144"/>
+      <c r="AV22" s="144"/>
+      <c r="AW22" s="145"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="169"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="169"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="169"/>
-      <c r="AD23" s="169"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="169"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="169"/>
-      <c r="AJ23" s="169"/>
-      <c r="AK23" s="169"/>
-      <c r="AL23" s="169"/>
-      <c r="AM23" s="170"/>
-      <c r="AN23" s="171"/>
-      <c r="AO23" s="172"/>
-      <c r="AP23" s="172"/>
-      <c r="AQ23" s="172"/>
-      <c r="AR23" s="173"/>
-      <c r="AS23" s="171"/>
-      <c r="AT23" s="172"/>
-      <c r="AU23" s="172"/>
-      <c r="AV23" s="172"/>
-      <c r="AW23" s="173"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="158"/>
+      <c r="AD23" s="158"/>
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="158"/>
+      <c r="AJ23" s="158"/>
+      <c r="AK23" s="158"/>
+      <c r="AL23" s="158"/>
+      <c r="AM23" s="159"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+      <c r="AW23" s="145"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="169"/>
-      <c r="X24" s="169"/>
-      <c r="Y24" s="169"/>
-      <c r="Z24" s="169"/>
-      <c r="AA24" s="169"/>
-      <c r="AB24" s="169"/>
-      <c r="AC24" s="169"/>
-      <c r="AD24" s="169"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="169"/>
-      <c r="AJ24" s="169"/>
-      <c r="AK24" s="169"/>
-      <c r="AL24" s="169"/>
-      <c r="AM24" s="170"/>
-      <c r="AN24" s="171"/>
-      <c r="AO24" s="172"/>
-      <c r="AP24" s="172"/>
-      <c r="AQ24" s="172"/>
-      <c r="AR24" s="173"/>
-      <c r="AS24" s="171"/>
-      <c r="AT24" s="172"/>
-      <c r="AU24" s="172"/>
-      <c r="AV24" s="172"/>
-      <c r="AW24" s="173"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="158"/>
+      <c r="AD24" s="158"/>
+      <c r="AE24" s="158"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="158"/>
+      <c r="AJ24" s="158"/>
+      <c r="AK24" s="158"/>
+      <c r="AL24" s="158"/>
+      <c r="AM24" s="159"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="143"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="145"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="167"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="169"/>
-      <c r="X25" s="169"/>
-      <c r="Y25" s="169"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="169"/>
-      <c r="AB25" s="169"/>
-      <c r="AC25" s="169"/>
-      <c r="AD25" s="169"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="169"/>
-      <c r="AI25" s="169"/>
-      <c r="AJ25" s="169"/>
-      <c r="AK25" s="169"/>
-      <c r="AL25" s="169"/>
-      <c r="AM25" s="170"/>
-      <c r="AN25" s="171"/>
-      <c r="AO25" s="172"/>
-      <c r="AP25" s="172"/>
-      <c r="AQ25" s="172"/>
-      <c r="AR25" s="173"/>
-      <c r="AS25" s="171"/>
-      <c r="AT25" s="172"/>
-      <c r="AU25" s="172"/>
-      <c r="AV25" s="172"/>
-      <c r="AW25" s="173"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="158"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="158"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="158"/>
+      <c r="AJ25" s="158"/>
+      <c r="AK25" s="158"/>
+      <c r="AL25" s="158"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="145"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169"/>
-      <c r="AM26" s="170"/>
-      <c r="AN26" s="171"/>
-      <c r="AO26" s="172"/>
-      <c r="AP26" s="172"/>
-      <c r="AQ26" s="172"/>
-      <c r="AR26" s="173"/>
-      <c r="AS26" s="171"/>
-      <c r="AT26" s="172"/>
-      <c r="AU26" s="172"/>
-      <c r="AV26" s="172"/>
-      <c r="AW26" s="173"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="158"/>
+      <c r="AK26" s="158"/>
+      <c r="AL26" s="158"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="144"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="145"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="169"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="169"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="169"/>
-      <c r="AC27" s="169"/>
-      <c r="AD27" s="169"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="169"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="169"/>
-      <c r="AJ27" s="169"/>
-      <c r="AK27" s="169"/>
-      <c r="AL27" s="169"/>
-      <c r="AM27" s="170"/>
-      <c r="AN27" s="171"/>
-      <c r="AO27" s="172"/>
-      <c r="AP27" s="172"/>
-      <c r="AQ27" s="172"/>
-      <c r="AR27" s="173"/>
-      <c r="AS27" s="171"/>
-      <c r="AT27" s="172"/>
-      <c r="AU27" s="172"/>
-      <c r="AV27" s="172"/>
-      <c r="AW27" s="173"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="158"/>
+      <c r="AJ27" s="158"/>
+      <c r="AK27" s="158"/>
+      <c r="AL27" s="158"/>
+      <c r="AM27" s="159"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="143"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
+      <c r="AV27" s="144"/>
+      <c r="AW27" s="145"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="169"/>
-      <c r="X28" s="169"/>
-      <c r="Y28" s="169"/>
-      <c r="Z28" s="169"/>
-      <c r="AA28" s="169"/>
-      <c r="AB28" s="169"/>
-      <c r="AC28" s="169"/>
-      <c r="AD28" s="169"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="169"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="169"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="169"/>
-      <c r="AL28" s="169"/>
-      <c r="AM28" s="170"/>
-      <c r="AN28" s="171"/>
-      <c r="AO28" s="172"/>
-      <c r="AP28" s="172"/>
-      <c r="AQ28" s="172"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="171"/>
-      <c r="AT28" s="172"/>
-      <c r="AU28" s="172"/>
-      <c r="AV28" s="172"/>
-      <c r="AW28" s="173"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="145"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="152"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="169"/>
-      <c r="X29" s="169"/>
-      <c r="Y29" s="169"/>
-      <c r="Z29" s="169"/>
-      <c r="AA29" s="169"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="169"/>
-      <c r="AD29" s="169"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="169"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="169"/>
-      <c r="AJ29" s="169"/>
-      <c r="AK29" s="169"/>
-      <c r="AL29" s="169"/>
-      <c r="AM29" s="170"/>
-      <c r="AN29" s="171"/>
-      <c r="AO29" s="172"/>
-      <c r="AP29" s="172"/>
-      <c r="AQ29" s="172"/>
-      <c r="AR29" s="173"/>
-      <c r="AS29" s="171"/>
-      <c r="AT29" s="172"/>
-      <c r="AU29" s="172"/>
-      <c r="AV29" s="172"/>
-      <c r="AW29" s="173"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="158"/>
+      <c r="AC29" s="158"/>
+      <c r="AD29" s="158"/>
+      <c r="AE29" s="158"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="158"/>
+      <c r="AJ29" s="158"/>
+      <c r="AK29" s="158"/>
+      <c r="AL29" s="158"/>
+      <c r="AM29" s="159"/>
+      <c r="AN29" s="143"/>
+      <c r="AO29" s="144"/>
+      <c r="AP29" s="144"/>
+      <c r="AQ29" s="144"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="144"/>
+      <c r="AU29" s="144"/>
+      <c r="AV29" s="144"/>
+      <c r="AW29" s="145"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="169"/>
-      <c r="AA30" s="169"/>
-      <c r="AB30" s="169"/>
-      <c r="AC30" s="169"/>
-      <c r="AD30" s="169"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="169"/>
-      <c r="AJ30" s="169"/>
-      <c r="AK30" s="169"/>
-      <c r="AL30" s="169"/>
-      <c r="AM30" s="170"/>
-      <c r="AN30" s="171"/>
-      <c r="AO30" s="172"/>
-      <c r="AP30" s="172"/>
-      <c r="AQ30" s="172"/>
-      <c r="AR30" s="173"/>
-      <c r="AS30" s="171"/>
-      <c r="AT30" s="172"/>
-      <c r="AU30" s="172"/>
-      <c r="AV30" s="172"/>
-      <c r="AW30" s="173"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="158"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="158"/>
+      <c r="AJ30" s="158"/>
+      <c r="AK30" s="158"/>
+      <c r="AL30" s="158"/>
+      <c r="AM30" s="159"/>
+      <c r="AN30" s="143"/>
+      <c r="AO30" s="144"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="144"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="144"/>
+      <c r="AV30" s="144"/>
+      <c r="AW30" s="145"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="152"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="169"/>
-      <c r="AB31" s="169"/>
-      <c r="AC31" s="169"/>
-      <c r="AD31" s="169"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="169"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="169"/>
-      <c r="AJ31" s="169"/>
-      <c r="AK31" s="169"/>
-      <c r="AL31" s="169"/>
-      <c r="AM31" s="170"/>
-      <c r="AN31" s="171"/>
-      <c r="AO31" s="172"/>
-      <c r="AP31" s="172"/>
-      <c r="AQ31" s="172"/>
-      <c r="AR31" s="173"/>
-      <c r="AS31" s="171"/>
-      <c r="AT31" s="172"/>
-      <c r="AU31" s="172"/>
-      <c r="AV31" s="172"/>
-      <c r="AW31" s="173"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="158"/>
+      <c r="AC31" s="158"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="158"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="158"/>
+      <c r="AJ31" s="158"/>
+      <c r="AK31" s="158"/>
+      <c r="AL31" s="158"/>
+      <c r="AM31" s="159"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="144"/>
+      <c r="AP31" s="144"/>
+      <c r="AQ31" s="144"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="144"/>
+      <c r="AU31" s="144"/>
+      <c r="AV31" s="144"/>
+      <c r="AW31" s="145"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="167"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="169"/>
-      <c r="AA32" s="169"/>
-      <c r="AB32" s="169"/>
-      <c r="AC32" s="169"/>
-      <c r="AD32" s="169"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169"/>
-      <c r="AI32" s="169"/>
-      <c r="AJ32" s="169"/>
-      <c r="AK32" s="169"/>
-      <c r="AL32" s="169"/>
-      <c r="AM32" s="170"/>
-      <c r="AN32" s="171"/>
-      <c r="AO32" s="172"/>
-      <c r="AP32" s="172"/>
-      <c r="AQ32" s="172"/>
-      <c r="AR32" s="173"/>
-      <c r="AS32" s="171"/>
-      <c r="AT32" s="172"/>
-      <c r="AU32" s="172"/>
-      <c r="AV32" s="172"/>
-      <c r="AW32" s="173"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="158"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="158"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="158"/>
+      <c r="AJ32" s="158"/>
+      <c r="AK32" s="158"/>
+      <c r="AL32" s="158"/>
+      <c r="AM32" s="159"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="144"/>
+      <c r="AQ32" s="144"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="144"/>
+      <c r="AU32" s="144"/>
+      <c r="AV32" s="144"/>
+      <c r="AW32" s="145"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="152"/>
-      <c r="U33" s="152"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="169"/>
-      <c r="X33" s="169"/>
-      <c r="Y33" s="169"/>
-      <c r="Z33" s="169"/>
-      <c r="AA33" s="169"/>
-      <c r="AB33" s="169"/>
-      <c r="AC33" s="169"/>
-      <c r="AD33" s="169"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="169"/>
-      <c r="AJ33" s="169"/>
-      <c r="AK33" s="169"/>
-      <c r="AL33" s="169"/>
-      <c r="AM33" s="170"/>
-      <c r="AN33" s="171"/>
-      <c r="AO33" s="172"/>
-      <c r="AP33" s="172"/>
-      <c r="AQ33" s="172"/>
-      <c r="AR33" s="173"/>
-      <c r="AS33" s="171"/>
-      <c r="AT33" s="172"/>
-      <c r="AU33" s="172"/>
-      <c r="AV33" s="172"/>
-      <c r="AW33" s="173"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="158"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="158"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="158"/>
+      <c r="AJ33" s="158"/>
+      <c r="AK33" s="158"/>
+      <c r="AL33" s="158"/>
+      <c r="AM33" s="159"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="145"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="182"/>
-      <c r="S34" s="152"/>
-      <c r="T34" s="152"/>
-      <c r="U34" s="152"/>
-      <c r="V34" s="168"/>
-      <c r="W34" s="169"/>
-      <c r="X34" s="169"/>
-      <c r="Y34" s="169"/>
-      <c r="Z34" s="169"/>
-      <c r="AA34" s="169"/>
-      <c r="AB34" s="169"/>
-      <c r="AC34" s="169"/>
-      <c r="AD34" s="169"/>
-      <c r="AE34" s="169"/>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="169"/>
-      <c r="AI34" s="169"/>
-      <c r="AJ34" s="169"/>
-      <c r="AK34" s="169"/>
-      <c r="AL34" s="169"/>
-      <c r="AM34" s="170"/>
-      <c r="AN34" s="171"/>
-      <c r="AO34" s="172"/>
-      <c r="AP34" s="172"/>
-      <c r="AQ34" s="172"/>
-      <c r="AR34" s="173"/>
-      <c r="AS34" s="171"/>
-      <c r="AT34" s="172"/>
-      <c r="AU34" s="172"/>
-      <c r="AV34" s="172"/>
-      <c r="AW34" s="173"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="158"/>
+      <c r="AC34" s="158"/>
+      <c r="AD34" s="158"/>
+      <c r="AE34" s="158"/>
+      <c r="AF34" s="158"/>
+      <c r="AG34" s="158"/>
+      <c r="AH34" s="158"/>
+      <c r="AI34" s="158"/>
+      <c r="AJ34" s="158"/>
+      <c r="AK34" s="158"/>
+      <c r="AL34" s="158"/>
+      <c r="AM34" s="159"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="144"/>
+      <c r="AP34" s="144"/>
+      <c r="AQ34" s="144"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="144"/>
+      <c r="AU34" s="144"/>
+      <c r="AV34" s="144"/>
+      <c r="AW34" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7666,239 +7900,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8058,11 +8059,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="187"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="189"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="185"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8071,14 +8072,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="190"/>
-      <c r="BA2" s="191"/>
-      <c r="BB2" s="191"/>
-      <c r="BC2" s="191"/>
-      <c r="BD2" s="191"/>
-      <c r="BE2" s="191"/>
-      <c r="BF2" s="191"/>
-      <c r="BG2" s="192"/>
+      <c r="AZ2" s="186"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="187"/>
+      <c r="BF2" s="187"/>
+      <c r="BG2" s="188"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -9894,10 +9895,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="194"/>
+      <c r="C50" s="192"/>
       <c r="D50" s="82" t="s">
         <v>78</v>
       </c>
@@ -9980,10 +9981,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="183">
+      <c r="B51" s="193">
         <v>1</v>
       </c>
-      <c r="C51" s="184"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="76" t="s">
         <v>106</v>
       </c>
@@ -10015,16 +10016,16 @@
       <c r="AB51" s="80"/>
       <c r="AC51" s="80"/>
       <c r="AD51" s="81"/>
-      <c r="AE51" s="185" t="s">
+      <c r="AE51" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AF51" s="186"/>
-      <c r="AG51" s="185"/>
-      <c r="AH51" s="186"/>
-      <c r="AI51" s="185"/>
-      <c r="AJ51" s="186"/>
-      <c r="AK51" s="185"/>
-      <c r="AL51" s="186"/>
+      <c r="AF51" s="190"/>
+      <c r="AG51" s="189"/>
+      <c r="AH51" s="190"/>
+      <c r="AI51" s="189"/>
+      <c r="AJ51" s="190"/>
+      <c r="AK51" s="189"/>
+      <c r="AL51" s="190"/>
       <c r="AM51" s="77" t="s">
         <v>129</v>
       </c>
@@ -10058,10 +10059,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="183">
+      <c r="B52" s="193">
         <v>2</v>
       </c>
-      <c r="C52" s="184"/>
+      <c r="C52" s="194"/>
       <c r="D52" s="111" t="s">
         <v>106</v>
       </c>
@@ -10093,16 +10094,16 @@
       <c r="AB52" s="80"/>
       <c r="AC52" s="80"/>
       <c r="AD52" s="112"/>
-      <c r="AE52" s="185" t="s">
+      <c r="AE52" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AF52" s="186"/>
-      <c r="AG52" s="185"/>
-      <c r="AH52" s="186"/>
-      <c r="AI52" s="185"/>
-      <c r="AJ52" s="186"/>
-      <c r="AK52" s="185"/>
-      <c r="AL52" s="186"/>
+      <c r="AF52" s="190"/>
+      <c r="AG52" s="189"/>
+      <c r="AH52" s="190"/>
+      <c r="AI52" s="189"/>
+      <c r="AJ52" s="190"/>
+      <c r="AK52" s="189"/>
+      <c r="AL52" s="190"/>
       <c r="AM52" s="77" t="s">
         <v>130</v>
       </c>
@@ -10136,10 +10137,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="183">
+      <c r="B53" s="193">
         <v>3</v>
       </c>
-      <c r="C53" s="184"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="111" t="s">
         <v>107</v>
       </c>
@@ -10171,18 +10172,18 @@
       <c r="AB53" s="80"/>
       <c r="AC53" s="80"/>
       <c r="AD53" s="112"/>
-      <c r="AE53" s="185" t="s">
+      <c r="AE53" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AF53" s="186"/>
-      <c r="AG53" s="185"/>
-      <c r="AH53" s="186"/>
-      <c r="AI53" s="185" t="s">
+      <c r="AF53" s="190"/>
+      <c r="AG53" s="189"/>
+      <c r="AH53" s="190"/>
+      <c r="AI53" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AJ53" s="186"/>
-      <c r="AK53" s="185"/>
-      <c r="AL53" s="186"/>
+      <c r="AJ53" s="190"/>
+      <c r="AK53" s="189"/>
+      <c r="AL53" s="190"/>
       <c r="AM53" s="77" t="s">
         <v>131</v>
       </c>
@@ -10216,10 +10217,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="183">
+      <c r="B54" s="193">
         <v>4</v>
       </c>
-      <c r="C54" s="184"/>
+      <c r="C54" s="194"/>
       <c r="D54" s="111" t="s">
         <v>107</v>
       </c>
@@ -10251,18 +10252,18 @@
       <c r="AB54" s="80"/>
       <c r="AC54" s="80"/>
       <c r="AD54" s="112"/>
-      <c r="AE54" s="185" t="s">
+      <c r="AE54" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AF54" s="186"/>
-      <c r="AG54" s="185" t="s">
+      <c r="AF54" s="190"/>
+      <c r="AG54" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="AH54" s="186"/>
-      <c r="AI54" s="185"/>
-      <c r="AJ54" s="186"/>
-      <c r="AK54" s="185"/>
-      <c r="AL54" s="186"/>
+      <c r="AH54" s="190"/>
+      <c r="AI54" s="189"/>
+      <c r="AJ54" s="190"/>
+      <c r="AK54" s="189"/>
+      <c r="AL54" s="190"/>
       <c r="AM54" s="77" t="s">
         <v>132</v>
       </c>
@@ -10296,6 +10297,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10304,21 +10320,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10464,7 +10465,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="190" t="str">
+      <c r="CU1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10595,7 +10596,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="190"/>
+      <c r="CU2" s="186"/>
       <c r="CV2" s="195"/>
       <c r="CW2" s="195"/>
       <c r="CX2" s="195"/>
@@ -10811,22 +10812,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="176" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="204" t="s">
@@ -10835,13 +10836,13 @@
       <c r="J6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="145" t="s">
+      <c r="L6" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -10856,17 +10857,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
       <c r="I7" s="204"/>
       <c r="J7" s="204"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
       <c r="N7" s="42" t="s">
         <v>60</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>88</v>
@@ -11332,22 +11333,22 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="176" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="205" t="s">
@@ -11356,13 +11357,13 @@
       <c r="J19" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="145" t="s">
+      <c r="K19" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="145" t="s">
+      <c r="L19" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="145" t="s">
+      <c r="M19" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -11377,17 +11378,17 @@
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
       <c r="I20" s="206"/>
       <c r="J20" s="204"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
       <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>99</v>
       </c>
       <c r="F22" s="133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>89</v>
@@ -11525,22 +11526,22 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="145" t="s">
+      <c r="C25" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="145" t="s">
+      <c r="F25" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="G25" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="145" t="s">
+      <c r="H25" s="176" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="204" t="s">
@@ -11549,13 +11550,13 @@
       <c r="J25" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="145" t="s">
+      <c r="K25" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="145" t="s">
+      <c r="L25" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="145" t="s">
+      <c r="M25" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -11570,17 +11571,17 @@
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
       <c r="I26" s="204"/>
       <c r="J26" s="204"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
       <c r="N26" s="87" t="s">
         <v>60</v>
       </c>
@@ -11671,10 +11672,10 @@
         <v>263</v>
       </c>
       <c r="E29" s="134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F29" s="132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>145</v>
@@ -11900,7 +11901,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11919,7 +11920,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>145</v>
@@ -11952,7 +11953,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12006,30 +12007,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12042,6 +12019,30 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12117,7 +12118,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -12133,7 +12134,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12204,7 +12205,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
+      <c r="AT2" s="186"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -12732,10 +12733,10 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="L15" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M15" s="120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N15" s="120"/>
       <c r="O15" s="120"/>
@@ -12815,7 +12816,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="120"/>
       <c r="N17" s="120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL17" s="120"/>
       <c r="AM17" s="120"/>
@@ -12831,7 +12832,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL18" s="120"/>
       <c r="AM18" s="120"/>
@@ -12883,7 +12884,7 @@
       <c r="G20" s="67"/>
       <c r="L20" s="67"/>
       <c r="M20" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N20" s="120"/>
       <c r="O20" s="120"/>
@@ -12922,7 +12923,7 @@
       <c r="G21" s="67"/>
       <c r="L21" s="67"/>
       <c r="N21" s="120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
@@ -13000,7 +13001,7 @@
       <c r="G23" s="67"/>
       <c r="K23" s="68"/>
       <c r="L23" s="122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M23" s="131"/>
       <c r="N23" s="131"/>
@@ -13500,7 +13501,7 @@
       <c r="L41" s="124"/>
       <c r="N41" s="120"/>
       <c r="O41" s="120" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="P41" s="120"/>
       <c r="Q41" s="120"/>
@@ -13515,7 +13516,7 @@
         <v>153</v>
       </c>
       <c r="Z41" s="130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA41" s="120"/>
       <c r="AB41" s="120"/>
@@ -13541,7 +13542,7 @@
       <c r="L42" s="124"/>
       <c r="N42" s="120"/>
       <c r="O42" s="120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P42" s="120"/>
       <c r="Q42" s="120"/>
@@ -13556,7 +13557,7 @@
         <v>153</v>
       </c>
       <c r="Z42" s="120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA42" s="120"/>
       <c r="AB42" s="120"/>
@@ -13594,13 +13595,13 @@
       <c r="K44" s="68"/>
       <c r="L44" s="124"/>
       <c r="O44" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y44" s="120" t="s">
         <v>153</v>
       </c>
       <c r="Z44" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AV44" s="68"/>
     </row>
@@ -13671,7 +13672,7 @@
         <v>153</v>
       </c>
       <c r="Z47" s="120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA47" s="120"/>
       <c r="AB47" s="120"/>
@@ -13705,7 +13706,7 @@
         <v>153</v>
       </c>
       <c r="Z48" s="130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA48" s="120"/>
       <c r="AB48" s="120"/>
@@ -13739,13 +13740,13 @@
         <v>153</v>
       </c>
       <c r="Z49" s="120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA49" s="120"/>
       <c r="AB49" s="120"/>
       <c r="AC49" s="120"/>
       <c r="AF49" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG49" s="120"/>
       <c r="AH49" s="120"/>
@@ -13761,7 +13762,7 @@
       <c r="K50" s="68"/>
       <c r="L50" s="124"/>
       <c r="N50" s="120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O50" s="120"/>
       <c r="P50" s="120"/>
@@ -13776,13 +13777,13 @@
         <v>153</v>
       </c>
       <c r="Z50" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA50" s="120"/>
       <c r="AB50" s="120"/>
       <c r="AC50" s="120"/>
       <c r="AF50" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG50" s="120"/>
       <c r="AH50" s="120"/>
@@ -13807,7 +13808,7 @@
       <c r="K52" s="68"/>
       <c r="L52" s="124"/>
       <c r="M52" s="120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N52" s="120"/>
       <c r="O52" s="120"/>
@@ -14160,7 +14161,7 @@
       <c r="K67" s="68"/>
       <c r="L67" s="124"/>
       <c r="N67" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK67" s="120"/>
       <c r="AL67" s="120"/>
@@ -14376,7 +14377,7 @@
       <c r="J72" s="23"/>
       <c r="K72" s="68"/>
       <c r="L72" s="67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -14427,7 +14428,7 @@
       <c r="K73" s="68"/>
       <c r="L73" s="67"/>
       <c r="M73" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
@@ -14636,7 +14637,7 @@
       <c r="J77" s="23"/>
       <c r="K77" s="68"/>
       <c r="L77" s="67" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
@@ -14687,7 +14688,7 @@
       <c r="K78" s="68"/>
       <c r="L78" s="67"/>
       <c r="M78" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
@@ -14896,7 +14897,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="68"/>
       <c r="L82" s="67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
@@ -14947,7 +14948,7 @@
       <c r="K83" s="68"/>
       <c r="L83" s="67"/>
       <c r="M83" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -15235,7 +15236,7 @@
         <v>167</v>
       </c>
       <c r="M89" s="123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N89" s="123"/>
       <c r="O89" s="123"/>
@@ -15467,7 +15468,7 @@
       <c r="R94" s="109"/>
       <c r="S94" s="109"/>
       <c r="T94" s="127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U94" s="109"/>
       <c r="V94" s="123"/>
@@ -15515,7 +15516,7 @@
       <c r="R95" s="109"/>
       <c r="S95" s="109"/>
       <c r="T95" s="109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U95" s="109"/>
       <c r="V95" s="109"/>
@@ -15562,7 +15563,7 @@
       <c r="R96" s="109"/>
       <c r="S96" s="109"/>
       <c r="T96" s="109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U96" s="109"/>
       <c r="V96" s="123"/>
@@ -15609,7 +15610,7 @@
       <c r="R97" s="109"/>
       <c r="S97" s="109"/>
       <c r="T97" s="109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U97" s="109"/>
       <c r="V97" s="123"/>
@@ -15656,7 +15657,7 @@
       <c r="R98" s="109"/>
       <c r="S98" s="109"/>
       <c r="T98" s="109" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U98" s="109"/>
       <c r="V98" s="123"/>
@@ -15703,7 +15704,7 @@
       <c r="R99" s="109"/>
       <c r="S99" s="109"/>
       <c r="T99" s="109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U99" s="109"/>
       <c r="V99" s="123"/>
@@ -15750,7 +15751,7 @@
       <c r="R100" s="109"/>
       <c r="S100" s="109"/>
       <c r="T100" s="109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U100" s="109"/>
       <c r="V100" s="123"/>
@@ -15797,7 +15798,7 @@
       <c r="R101" s="136"/>
       <c r="S101" s="136"/>
       <c r="T101" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U101" s="136"/>
       <c r="V101" s="136"/>
@@ -15837,7 +15838,7 @@
       <c r="L102" s="126"/>
       <c r="M102" s="136"/>
       <c r="N102" s="136" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O102" s="136"/>
       <c r="P102" s="136"/>
@@ -15845,7 +15846,7 @@
       <c r="R102" s="136"/>
       <c r="S102" s="136"/>
       <c r="T102" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U102" s="136"/>
       <c r="V102" s="136"/>
@@ -15893,7 +15894,7 @@
       <c r="R103" s="136"/>
       <c r="S103" s="136"/>
       <c r="T103" s="136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U103" s="136"/>
       <c r="V103" s="136"/>
@@ -15941,7 +15942,7 @@
       <c r="R104" s="136"/>
       <c r="S104" s="136"/>
       <c r="T104" s="138" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U104" s="136"/>
       <c r="V104" s="136"/>
@@ -15981,7 +15982,7 @@
       <c r="L105" s="126"/>
       <c r="M105" s="136"/>
       <c r="N105" s="136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O105" s="136"/>
       <c r="P105" s="136"/>
@@ -15989,7 +15990,7 @@
       <c r="R105" s="136"/>
       <c r="S105" s="136"/>
       <c r="T105" s="136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U105" s="136"/>
       <c r="V105" s="136"/>
@@ -16037,7 +16038,7 @@
       <c r="R106" s="136"/>
       <c r="S106" s="136"/>
       <c r="T106" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U106" s="136"/>
       <c r="V106" s="136"/>
@@ -16085,7 +16086,7 @@
       <c r="R107" s="136"/>
       <c r="S107" s="136"/>
       <c r="T107" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U107" s="136"/>
       <c r="V107" s="136"/>
@@ -16441,7 +16442,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="109"/>
       <c r="O115" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
@@ -16451,7 +16452,7 @@
         <v>211</v>
       </c>
       <c r="V115" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W115" s="23"/>
       <c r="X115" s="23"/>
@@ -16499,7 +16500,7 @@
         <v>211</v>
       </c>
       <c r="V116" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W116" s="23"/>
       <c r="X116" s="23"/>
@@ -16547,7 +16548,7 @@
         <v>211</v>
       </c>
       <c r="V117" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W117" s="23"/>
       <c r="X117" s="23"/>
@@ -16629,7 +16630,7 @@
       <c r="M119" s="135"/>
       <c r="N119" s="136"/>
       <c r="O119" s="136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P119" s="136"/>
       <c r="Q119" s="136"/>
@@ -16640,7 +16641,7 @@
         <v>211</v>
       </c>
       <c r="V119" s="127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W119" s="136"/>
       <c r="X119" s="136"/>
@@ -16689,7 +16690,7 @@
         <v>211</v>
       </c>
       <c r="V120" s="136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W120" s="136"/>
       <c r="X120" s="136"/>
@@ -16738,7 +16739,7 @@
         <v>211</v>
       </c>
       <c r="V121" s="136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W121" s="136"/>
       <c r="X121" s="136"/>
@@ -16787,7 +16788,7 @@
         <v>211</v>
       </c>
       <c r="V122" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W122" s="136"/>
       <c r="X122" s="136"/>
@@ -16836,7 +16837,7 @@
         <v>211</v>
       </c>
       <c r="V123" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W123" s="136"/>
       <c r="X123" s="136"/>
@@ -16885,7 +16886,7 @@
         <v>211</v>
       </c>
       <c r="V124" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W124" s="136"/>
       <c r="X124" s="136"/>
@@ -17125,7 +17126,7 @@
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M129" s="23"/>
       <c r="N129" s="23"/>
@@ -17284,7 +17285,7 @@
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M132" s="23"/>
       <c r="N132" s="23"/>
@@ -24988,7 +24989,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -25004,7 +25005,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -25075,7 +25076,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
+      <c r="AT2" s="186"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -31003,7 +31004,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -31019,7 +31020,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -31090,7 +31091,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
+      <c r="AT2" s="186"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -31376,7 +31377,7 @@
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -42192,6 +42193,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -42349,22 +42365,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42380,21 +42398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886BFCAD-83E8-4115-B5AE-DA743E2944C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF25C04-C355-4121-BFD9-C12EAB5966A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="75" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2912,7 +2912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -3322,91 +3322,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3434,6 +3349,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3452,22 +3464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,6 +3505,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5887,1779 +5896,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="143"/>
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="143"/>
+      <c r="AW1" s="143"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="144"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176" t="s">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="177" t="s">
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="176" t="s">
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176" t="s">
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176" t="s">
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="145"/>
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="145"/>
+      <c r="AN3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176" t="s">
+      <c r="AO3" s="145"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="145"/>
+      <c r="AV3" s="145"/>
+      <c r="AW3" s="145"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="168">
+      <c r="B5" s="153">
         <v>1</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="149">
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154">
         <v>43720</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150" t="s">
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="150" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="156" t="s">
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="167" t="s">
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="156" t="s">
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="161"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="156"/>
-      <c r="AW5" s="156"/>
+      <c r="AO5" s="152"/>
+      <c r="AP5" s="152"/>
+      <c r="AQ5" s="152"/>
+      <c r="AR5" s="152"/>
+      <c r="AS5" s="152"/>
+      <c r="AT5" s="152"/>
+      <c r="AU5" s="152"/>
+      <c r="AV5" s="152"/>
+      <c r="AW5" s="152"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="156"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="156"/>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="156"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="161"/>
+      <c r="AJ6" s="161"/>
+      <c r="AK6" s="161"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="161"/>
+      <c r="AN6" s="152"/>
+      <c r="AO6" s="152"/>
+      <c r="AP6" s="152"/>
+      <c r="AQ6" s="152"/>
+      <c r="AR6" s="152"/>
+      <c r="AS6" s="152"/>
+      <c r="AT6" s="152"/>
+      <c r="AU6" s="152"/>
+      <c r="AV6" s="152"/>
+      <c r="AW6" s="152"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="167"/>
-      <c r="AK7" s="167"/>
-      <c r="AL7" s="167"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="156"/>
-      <c r="AR7" s="156"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="156"/>
-      <c r="AV7" s="156"/>
-      <c r="AW7" s="156"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="152"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="152"/>
+      <c r="AS7" s="152"/>
+      <c r="AT7" s="152"/>
+      <c r="AU7" s="152"/>
+      <c r="AV7" s="152"/>
+      <c r="AW7" s="152"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167"/>
-      <c r="AM8" s="167"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="161"/>
+      <c r="AJ8" s="161"/>
+      <c r="AK8" s="161"/>
+      <c r="AL8" s="161"/>
+      <c r="AM8" s="161"/>
+      <c r="AN8" s="152"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="152"/>
+      <c r="AU8" s="152"/>
+      <c r="AV8" s="152"/>
+      <c r="AW8" s="152"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="161"/>
+      <c r="AK9" s="161"/>
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="167"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="161"/>
+      <c r="AJ10" s="161"/>
+      <c r="AK10" s="161"/>
+      <c r="AL10" s="161"/>
+      <c r="AM10" s="161"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="169"/>
-      <c r="AJ11" s="169"/>
-      <c r="AK11" s="169"/>
-      <c r="AL11" s="169"/>
-      <c r="AM11" s="170"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="174"/>
+      <c r="AL11" s="174"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="158"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="158"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="144"/>
-      <c r="AP12" s="144"/>
-      <c r="AQ12" s="144"/>
-      <c r="AR12" s="145"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="144"/>
-      <c r="AU12" s="144"/>
-      <c r="AV12" s="144"/>
-      <c r="AW12" s="145"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="167"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="169"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="171"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="173"/>
+      <c r="AS12" s="171"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="173"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="158"/>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="158"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="144"/>
-      <c r="AP13" s="144"/>
-      <c r="AQ13" s="144"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-      <c r="AW13" s="145"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="169"/>
+      <c r="AB13" s="169"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="169"/>
+      <c r="AJ13" s="169"/>
+      <c r="AK13" s="169"/>
+      <c r="AL13" s="169"/>
+      <c r="AM13" s="170"/>
+      <c r="AN13" s="171"/>
+      <c r="AO13" s="172"/>
+      <c r="AP13" s="172"/>
+      <c r="AQ13" s="172"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="171"/>
+      <c r="AT13" s="172"/>
+      <c r="AU13" s="172"/>
+      <c r="AV13" s="172"/>
+      <c r="AW13" s="173"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="167"/>
-      <c r="AM14" s="167"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="143"/>
-      <c r="AT14" s="144"/>
-      <c r="AU14" s="144"/>
-      <c r="AV14" s="144"/>
-      <c r="AW14" s="145"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="161"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="152"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="152"/>
+      <c r="AR14" s="152"/>
+      <c r="AS14" s="171"/>
+      <c r="AT14" s="172"/>
+      <c r="AU14" s="172"/>
+      <c r="AV14" s="172"/>
+      <c r="AW14" s="173"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="158"/>
-      <c r="AJ15" s="158"/>
-      <c r="AK15" s="158"/>
-      <c r="AL15" s="158"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="143"/>
-      <c r="AO15" s="144"/>
-      <c r="AP15" s="144"/>
-      <c r="AQ15" s="144"/>
-      <c r="AR15" s="145"/>
-      <c r="AS15" s="143"/>
-      <c r="AT15" s="144"/>
-      <c r="AU15" s="144"/>
-      <c r="AV15" s="144"/>
-      <c r="AW15" s="145"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="169"/>
+      <c r="AA15" s="169"/>
+      <c r="AB15" s="169"/>
+      <c r="AC15" s="169"/>
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="169"/>
+      <c r="AI15" s="169"/>
+      <c r="AJ15" s="169"/>
+      <c r="AK15" s="169"/>
+      <c r="AL15" s="169"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="172"/>
+      <c r="AQ15" s="172"/>
+      <c r="AR15" s="173"/>
+      <c r="AS15" s="171"/>
+      <c r="AT15" s="172"/>
+      <c r="AU15" s="172"/>
+      <c r="AV15" s="172"/>
+      <c r="AW15" s="173"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="143"/>
-      <c r="AO16" s="144"/>
-      <c r="AP16" s="144"/>
-      <c r="AQ16" s="144"/>
-      <c r="AR16" s="145"/>
-      <c r="AS16" s="143"/>
-      <c r="AT16" s="144"/>
-      <c r="AU16" s="144"/>
-      <c r="AV16" s="144"/>
-      <c r="AW16" s="145"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="169"/>
+      <c r="X16" s="169"/>
+      <c r="Y16" s="169"/>
+      <c r="Z16" s="169"/>
+      <c r="AA16" s="169"/>
+      <c r="AB16" s="169"/>
+      <c r="AC16" s="169"/>
+      <c r="AD16" s="169"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="169"/>
+      <c r="AI16" s="169"/>
+      <c r="AJ16" s="169"/>
+      <c r="AK16" s="169"/>
+      <c r="AL16" s="169"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="171"/>
+      <c r="AO16" s="172"/>
+      <c r="AP16" s="172"/>
+      <c r="AQ16" s="172"/>
+      <c r="AR16" s="173"/>
+      <c r="AS16" s="171"/>
+      <c r="AT16" s="172"/>
+      <c r="AU16" s="172"/>
+      <c r="AV16" s="172"/>
+      <c r="AW16" s="173"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="158"/>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="143"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="145"/>
-      <c r="AS17" s="143"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-      <c r="AW17" s="145"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="169"/>
+      <c r="AJ17" s="169"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="169"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="171"/>
+      <c r="AO17" s="172"/>
+      <c r="AP17" s="172"/>
+      <c r="AQ17" s="172"/>
+      <c r="AR17" s="173"/>
+      <c r="AS17" s="171"/>
+      <c r="AT17" s="172"/>
+      <c r="AU17" s="172"/>
+      <c r="AV17" s="172"/>
+      <c r="AW17" s="173"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="158"/>
-      <c r="AL18" s="158"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="143"/>
-      <c r="AO18" s="144"/>
-      <c r="AP18" s="144"/>
-      <c r="AQ18" s="144"/>
-      <c r="AR18" s="145"/>
-      <c r="AS18" s="143"/>
-      <c r="AT18" s="144"/>
-      <c r="AU18" s="144"/>
-      <c r="AV18" s="144"/>
-      <c r="AW18" s="145"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="169"/>
+      <c r="AJ18" s="169"/>
+      <c r="AK18" s="169"/>
+      <c r="AL18" s="169"/>
+      <c r="AM18" s="170"/>
+      <c r="AN18" s="171"/>
+      <c r="AO18" s="172"/>
+      <c r="AP18" s="172"/>
+      <c r="AQ18" s="172"/>
+      <c r="AR18" s="173"/>
+      <c r="AS18" s="171"/>
+      <c r="AT18" s="172"/>
+      <c r="AU18" s="172"/>
+      <c r="AV18" s="172"/>
+      <c r="AW18" s="173"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="143"/>
-      <c r="AT19" s="144"/>
-      <c r="AU19" s="144"/>
-      <c r="AV19" s="144"/>
-      <c r="AW19" s="145"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="169"/>
+      <c r="Y19" s="169"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="169"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="169"/>
+      <c r="AJ19" s="169"/>
+      <c r="AK19" s="169"/>
+      <c r="AL19" s="169"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="152"/>
+      <c r="AO19" s="152"/>
+      <c r="AP19" s="152"/>
+      <c r="AQ19" s="152"/>
+      <c r="AR19" s="152"/>
+      <c r="AS19" s="171"/>
+      <c r="AT19" s="172"/>
+      <c r="AU19" s="172"/>
+      <c r="AV19" s="172"/>
+      <c r="AW19" s="173"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="158"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="143"/>
-      <c r="AO20" s="144"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="145"/>
-      <c r="AS20" s="143"/>
-      <c r="AT20" s="144"/>
-      <c r="AU20" s="144"/>
-      <c r="AV20" s="144"/>
-      <c r="AW20" s="145"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="169"/>
+      <c r="Y20" s="169"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="169"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="169"/>
+      <c r="AJ20" s="169"/>
+      <c r="AK20" s="169"/>
+      <c r="AL20" s="169"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="171"/>
+      <c r="AO20" s="172"/>
+      <c r="AP20" s="172"/>
+      <c r="AQ20" s="172"/>
+      <c r="AR20" s="173"/>
+      <c r="AS20" s="171"/>
+      <c r="AT20" s="172"/>
+      <c r="AU20" s="172"/>
+      <c r="AV20" s="172"/>
+      <c r="AW20" s="173"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="158"/>
-      <c r="AK21" s="158"/>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="143"/>
-      <c r="AO21" s="144"/>
-      <c r="AP21" s="144"/>
-      <c r="AQ21" s="144"/>
-      <c r="AR21" s="145"/>
-      <c r="AS21" s="143"/>
-      <c r="AT21" s="144"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-      <c r="AW21" s="145"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="169"/>
+      <c r="Y21" s="169"/>
+      <c r="Z21" s="169"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="169"/>
+      <c r="AC21" s="169"/>
+      <c r="AD21" s="169"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="169"/>
+      <c r="AJ21" s="169"/>
+      <c r="AK21" s="169"/>
+      <c r="AL21" s="169"/>
+      <c r="AM21" s="170"/>
+      <c r="AN21" s="171"/>
+      <c r="AO21" s="172"/>
+      <c r="AP21" s="172"/>
+      <c r="AQ21" s="172"/>
+      <c r="AR21" s="173"/>
+      <c r="AS21" s="171"/>
+      <c r="AT21" s="172"/>
+      <c r="AU21" s="172"/>
+      <c r="AV21" s="172"/>
+      <c r="AW21" s="173"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="158"/>
-      <c r="AL22" s="158"/>
-      <c r="AM22" s="159"/>
-      <c r="AN22" s="143"/>
-      <c r="AO22" s="144"/>
-      <c r="AP22" s="144"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="145"/>
-      <c r="AS22" s="143"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-      <c r="AW22" s="145"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="169"/>
+      <c r="X22" s="169"/>
+      <c r="Y22" s="169"/>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="169"/>
+      <c r="AJ22" s="169"/>
+      <c r="AK22" s="169"/>
+      <c r="AL22" s="169"/>
+      <c r="AM22" s="170"/>
+      <c r="AN22" s="171"/>
+      <c r="AO22" s="172"/>
+      <c r="AP22" s="172"/>
+      <c r="AQ22" s="172"/>
+      <c r="AR22" s="173"/>
+      <c r="AS22" s="171"/>
+      <c r="AT22" s="172"/>
+      <c r="AU22" s="172"/>
+      <c r="AV22" s="172"/>
+      <c r="AW22" s="173"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="158"/>
-      <c r="AJ23" s="158"/>
-      <c r="AK23" s="158"/>
-      <c r="AL23" s="158"/>
-      <c r="AM23" s="159"/>
-      <c r="AN23" s="143"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="145"/>
-      <c r="AS23" s="143"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="145"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="169"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="169"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="169"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="169"/>
+      <c r="AJ23" s="169"/>
+      <c r="AK23" s="169"/>
+      <c r="AL23" s="169"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="171"/>
+      <c r="AO23" s="172"/>
+      <c r="AP23" s="172"/>
+      <c r="AQ23" s="172"/>
+      <c r="AR23" s="173"/>
+      <c r="AS23" s="171"/>
+      <c r="AT23" s="172"/>
+      <c r="AU23" s="172"/>
+      <c r="AV23" s="172"/>
+      <c r="AW23" s="173"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="158"/>
-      <c r="AM24" s="159"/>
-      <c r="AN24" s="143"/>
-      <c r="AO24" s="144"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="145"/>
-      <c r="AS24" s="143"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="144"/>
-      <c r="AV24" s="144"/>
-      <c r="AW24" s="145"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="169"/>
+      <c r="X24" s="169"/>
+      <c r="Y24" s="169"/>
+      <c r="Z24" s="169"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="169"/>
+      <c r="AD24" s="169"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="169"/>
+      <c r="AJ24" s="169"/>
+      <c r="AK24" s="169"/>
+      <c r="AL24" s="169"/>
+      <c r="AM24" s="170"/>
+      <c r="AN24" s="171"/>
+      <c r="AO24" s="172"/>
+      <c r="AP24" s="172"/>
+      <c r="AQ24" s="172"/>
+      <c r="AR24" s="173"/>
+      <c r="AS24" s="171"/>
+      <c r="AT24" s="172"/>
+      <c r="AU24" s="172"/>
+      <c r="AV24" s="172"/>
+      <c r="AW24" s="173"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="158"/>
-      <c r="AK25" s="158"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="143"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="145"/>
-      <c r="AS25" s="143"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="145"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="169"/>
+      <c r="Y25" s="169"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="169"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="169"/>
+      <c r="AJ25" s="169"/>
+      <c r="AK25" s="169"/>
+      <c r="AL25" s="169"/>
+      <c r="AM25" s="170"/>
+      <c r="AN25" s="171"/>
+      <c r="AO25" s="172"/>
+      <c r="AP25" s="172"/>
+      <c r="AQ25" s="172"/>
+      <c r="AR25" s="173"/>
+      <c r="AS25" s="171"/>
+      <c r="AT25" s="172"/>
+      <c r="AU25" s="172"/>
+      <c r="AV25" s="172"/>
+      <c r="AW25" s="173"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="158"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="144"/>
-      <c r="AQ26" s="144"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="143"/>
-      <c r="AT26" s="144"/>
-      <c r="AU26" s="144"/>
-      <c r="AV26" s="144"/>
-      <c r="AW26" s="145"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="169"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="169"/>
+      <c r="AJ26" s="169"/>
+      <c r="AK26" s="169"/>
+      <c r="AL26" s="169"/>
+      <c r="AM26" s="170"/>
+      <c r="AN26" s="171"/>
+      <c r="AO26" s="172"/>
+      <c r="AP26" s="172"/>
+      <c r="AQ26" s="172"/>
+      <c r="AR26" s="173"/>
+      <c r="AS26" s="171"/>
+      <c r="AT26" s="172"/>
+      <c r="AU26" s="172"/>
+      <c r="AV26" s="172"/>
+      <c r="AW26" s="173"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="143"/>
-      <c r="AO27" s="144"/>
-      <c r="AP27" s="144"/>
-      <c r="AQ27" s="144"/>
-      <c r="AR27" s="145"/>
-      <c r="AS27" s="143"/>
-      <c r="AT27" s="144"/>
-      <c r="AU27" s="144"/>
-      <c r="AV27" s="144"/>
-      <c r="AW27" s="145"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="169"/>
+      <c r="X27" s="169"/>
+      <c r="Y27" s="169"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="169"/>
+      <c r="AC27" s="169"/>
+      <c r="AD27" s="169"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="169"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="169"/>
+      <c r="AJ27" s="169"/>
+      <c r="AK27" s="169"/>
+      <c r="AL27" s="169"/>
+      <c r="AM27" s="170"/>
+      <c r="AN27" s="171"/>
+      <c r="AO27" s="172"/>
+      <c r="AP27" s="172"/>
+      <c r="AQ27" s="172"/>
+      <c r="AR27" s="173"/>
+      <c r="AS27" s="171"/>
+      <c r="AT27" s="172"/>
+      <c r="AU27" s="172"/>
+      <c r="AV27" s="172"/>
+      <c r="AW27" s="173"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
-      <c r="AW28" s="145"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="169"/>
+      <c r="Z28" s="169"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="169"/>
+      <c r="AD28" s="169"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="169"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="169"/>
+      <c r="AJ28" s="169"/>
+      <c r="AK28" s="169"/>
+      <c r="AL28" s="169"/>
+      <c r="AM28" s="170"/>
+      <c r="AN28" s="171"/>
+      <c r="AO28" s="172"/>
+      <c r="AP28" s="172"/>
+      <c r="AQ28" s="172"/>
+      <c r="AR28" s="173"/>
+      <c r="AS28" s="171"/>
+      <c r="AT28" s="172"/>
+      <c r="AU28" s="172"/>
+      <c r="AV28" s="172"/>
+      <c r="AW28" s="173"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="158"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="143"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="144"/>
-      <c r="AQ29" s="144"/>
-      <c r="AR29" s="145"/>
-      <c r="AS29" s="143"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="144"/>
-      <c r="AV29" s="144"/>
-      <c r="AW29" s="145"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="169"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="169"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="169"/>
+      <c r="AJ29" s="169"/>
+      <c r="AK29" s="169"/>
+      <c r="AL29" s="169"/>
+      <c r="AM29" s="170"/>
+      <c r="AN29" s="171"/>
+      <c r="AO29" s="172"/>
+      <c r="AP29" s="172"/>
+      <c r="AQ29" s="172"/>
+      <c r="AR29" s="173"/>
+      <c r="AS29" s="171"/>
+      <c r="AT29" s="172"/>
+      <c r="AU29" s="172"/>
+      <c r="AV29" s="172"/>
+      <c r="AW29" s="173"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="143"/>
-      <c r="AO30" s="144"/>
-      <c r="AP30" s="144"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="145"/>
-      <c r="AS30" s="143"/>
-      <c r="AT30" s="144"/>
-      <c r="AU30" s="144"/>
-      <c r="AV30" s="144"/>
-      <c r="AW30" s="145"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="169"/>
+      <c r="AC30" s="169"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="169"/>
+      <c r="AK30" s="169"/>
+      <c r="AL30" s="169"/>
+      <c r="AM30" s="170"/>
+      <c r="AN30" s="171"/>
+      <c r="AO30" s="172"/>
+      <c r="AP30" s="172"/>
+      <c r="AQ30" s="172"/>
+      <c r="AR30" s="173"/>
+      <c r="AS30" s="171"/>
+      <c r="AT30" s="172"/>
+      <c r="AU30" s="172"/>
+      <c r="AV30" s="172"/>
+      <c r="AW30" s="173"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="158"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="159"/>
-      <c r="AN31" s="143"/>
-      <c r="AO31" s="144"/>
-      <c r="AP31" s="144"/>
-      <c r="AQ31" s="144"/>
-      <c r="AR31" s="145"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="144"/>
-      <c r="AU31" s="144"/>
-      <c r="AV31" s="144"/>
-      <c r="AW31" s="145"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="169"/>
+      <c r="AC31" s="169"/>
+      <c r="AD31" s="169"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="169"/>
+      <c r="AJ31" s="169"/>
+      <c r="AK31" s="169"/>
+      <c r="AL31" s="169"/>
+      <c r="AM31" s="170"/>
+      <c r="AN31" s="171"/>
+      <c r="AO31" s="172"/>
+      <c r="AP31" s="172"/>
+      <c r="AQ31" s="172"/>
+      <c r="AR31" s="173"/>
+      <c r="AS31" s="171"/>
+      <c r="AT31" s="172"/>
+      <c r="AU31" s="172"/>
+      <c r="AV31" s="172"/>
+      <c r="AW31" s="173"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
-      <c r="AK32" s="158"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="143"/>
-      <c r="AO32" s="144"/>
-      <c r="AP32" s="144"/>
-      <c r="AQ32" s="144"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="143"/>
-      <c r="AT32" s="144"/>
-      <c r="AU32" s="144"/>
-      <c r="AV32" s="144"/>
-      <c r="AW32" s="145"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="169"/>
+      <c r="AC32" s="169"/>
+      <c r="AD32" s="169"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="169"/>
+      <c r="AJ32" s="169"/>
+      <c r="AK32" s="169"/>
+      <c r="AL32" s="169"/>
+      <c r="AM32" s="170"/>
+      <c r="AN32" s="171"/>
+      <c r="AO32" s="172"/>
+      <c r="AP32" s="172"/>
+      <c r="AQ32" s="172"/>
+      <c r="AR32" s="173"/>
+      <c r="AS32" s="171"/>
+      <c r="AT32" s="172"/>
+      <c r="AU32" s="172"/>
+      <c r="AV32" s="172"/>
+      <c r="AW32" s="173"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="159"/>
-      <c r="AN33" s="143"/>
-      <c r="AO33" s="144"/>
-      <c r="AP33" s="144"/>
-      <c r="AQ33" s="144"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="143"/>
-      <c r="AT33" s="144"/>
-      <c r="AU33" s="144"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="145"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="169"/>
+      <c r="Y33" s="169"/>
+      <c r="Z33" s="169"/>
+      <c r="AA33" s="169"/>
+      <c r="AB33" s="169"/>
+      <c r="AC33" s="169"/>
+      <c r="AD33" s="169"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="169"/>
+      <c r="AJ33" s="169"/>
+      <c r="AK33" s="169"/>
+      <c r="AL33" s="169"/>
+      <c r="AM33" s="170"/>
+      <c r="AN33" s="171"/>
+      <c r="AO33" s="172"/>
+      <c r="AP33" s="172"/>
+      <c r="AQ33" s="172"/>
+      <c r="AR33" s="173"/>
+      <c r="AS33" s="171"/>
+      <c r="AT33" s="172"/>
+      <c r="AU33" s="172"/>
+      <c r="AV33" s="172"/>
+      <c r="AW33" s="173"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="158"/>
-      <c r="AK34" s="158"/>
-      <c r="AL34" s="158"/>
-      <c r="AM34" s="159"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="144"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="144"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="144"/>
-      <c r="AU34" s="144"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="145"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="169"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="169"/>
+      <c r="AB34" s="169"/>
+      <c r="AC34" s="169"/>
+      <c r="AD34" s="169"/>
+      <c r="AE34" s="169"/>
+      <c r="AF34" s="169"/>
+      <c r="AG34" s="169"/>
+      <c r="AH34" s="169"/>
+      <c r="AI34" s="169"/>
+      <c r="AJ34" s="169"/>
+      <c r="AK34" s="169"/>
+      <c r="AL34" s="169"/>
+      <c r="AM34" s="170"/>
+      <c r="AN34" s="171"/>
+      <c r="AO34" s="172"/>
+      <c r="AP34" s="172"/>
+      <c r="AQ34" s="172"/>
+      <c r="AR34" s="173"/>
+      <c r="AS34" s="171"/>
+      <c r="AT34" s="172"/>
+      <c r="AU34" s="172"/>
+      <c r="AV34" s="172"/>
+      <c r="AW34" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7676,230 +7900,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8059,11 +8068,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="184"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="184"/>
-      <c r="AS2" s="185"/>
+      <c r="AO2" s="187"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="189"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8072,14 +8081,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="188"/>
+      <c r="AZ2" s="190"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="191"/>
+      <c r="BC2" s="191"/>
+      <c r="BD2" s="191"/>
+      <c r="BE2" s="191"/>
+      <c r="BF2" s="191"/>
+      <c r="BG2" s="192"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -9895,10 +9904,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="191" t="s">
+      <c r="B50" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="192"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="82" t="s">
         <v>78</v>
       </c>
@@ -9981,10 +9990,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="193">
+      <c r="B51" s="183">
         <v>1</v>
       </c>
-      <c r="C51" s="194"/>
+      <c r="C51" s="184"/>
       <c r="D51" s="76" t="s">
         <v>106</v>
       </c>
@@ -10016,16 +10025,16 @@
       <c r="AB51" s="80"/>
       <c r="AC51" s="80"/>
       <c r="AD51" s="81"/>
-      <c r="AE51" s="189" t="s">
+      <c r="AE51" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AF51" s="190"/>
-      <c r="AG51" s="189"/>
-      <c r="AH51" s="190"/>
-      <c r="AI51" s="189"/>
-      <c r="AJ51" s="190"/>
-      <c r="AK51" s="189"/>
-      <c r="AL51" s="190"/>
+      <c r="AF51" s="186"/>
+      <c r="AG51" s="185"/>
+      <c r="AH51" s="186"/>
+      <c r="AI51" s="185"/>
+      <c r="AJ51" s="186"/>
+      <c r="AK51" s="185"/>
+      <c r="AL51" s="186"/>
       <c r="AM51" s="77" t="s">
         <v>129</v>
       </c>
@@ -10059,10 +10068,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="193">
+      <c r="B52" s="183">
         <v>2</v>
       </c>
-      <c r="C52" s="194"/>
+      <c r="C52" s="184"/>
       <c r="D52" s="111" t="s">
         <v>106</v>
       </c>
@@ -10094,16 +10103,16 @@
       <c r="AB52" s="80"/>
       <c r="AC52" s="80"/>
       <c r="AD52" s="112"/>
-      <c r="AE52" s="189" t="s">
+      <c r="AE52" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AF52" s="190"/>
-      <c r="AG52" s="189"/>
-      <c r="AH52" s="190"/>
-      <c r="AI52" s="189"/>
-      <c r="AJ52" s="190"/>
-      <c r="AK52" s="189"/>
-      <c r="AL52" s="190"/>
+      <c r="AF52" s="186"/>
+      <c r="AG52" s="185"/>
+      <c r="AH52" s="186"/>
+      <c r="AI52" s="185"/>
+      <c r="AJ52" s="186"/>
+      <c r="AK52" s="185"/>
+      <c r="AL52" s="186"/>
       <c r="AM52" s="77" t="s">
         <v>130</v>
       </c>
@@ -10137,10 +10146,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="193">
+      <c r="B53" s="183">
         <v>3</v>
       </c>
-      <c r="C53" s="194"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="111" t="s">
         <v>107</v>
       </c>
@@ -10172,18 +10181,18 @@
       <c r="AB53" s="80"/>
       <c r="AC53" s="80"/>
       <c r="AD53" s="112"/>
-      <c r="AE53" s="189" t="s">
+      <c r="AE53" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AF53" s="190"/>
-      <c r="AG53" s="189"/>
-      <c r="AH53" s="190"/>
-      <c r="AI53" s="189" t="s">
+      <c r="AF53" s="186"/>
+      <c r="AG53" s="185"/>
+      <c r="AH53" s="186"/>
+      <c r="AI53" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AJ53" s="190"/>
-      <c r="AK53" s="189"/>
-      <c r="AL53" s="190"/>
+      <c r="AJ53" s="186"/>
+      <c r="AK53" s="185"/>
+      <c r="AL53" s="186"/>
       <c r="AM53" s="77" t="s">
         <v>131</v>
       </c>
@@ -10217,10 +10226,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="193">
+      <c r="B54" s="183">
         <v>4</v>
       </c>
-      <c r="C54" s="194"/>
+      <c r="C54" s="184"/>
       <c r="D54" s="111" t="s">
         <v>107</v>
       </c>
@@ -10252,18 +10261,18 @@
       <c r="AB54" s="80"/>
       <c r="AC54" s="80"/>
       <c r="AD54" s="112"/>
-      <c r="AE54" s="189" t="s">
+      <c r="AE54" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AF54" s="190"/>
-      <c r="AG54" s="189" t="s">
+      <c r="AF54" s="186"/>
+      <c r="AG54" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="AH54" s="190"/>
-      <c r="AI54" s="189"/>
-      <c r="AJ54" s="190"/>
-      <c r="AK54" s="189"/>
-      <c r="AL54" s="190"/>
+      <c r="AH54" s="186"/>
+      <c r="AI54" s="185"/>
+      <c r="AJ54" s="186"/>
+      <c r="AK54" s="185"/>
+      <c r="AL54" s="186"/>
       <c r="AM54" s="77" t="s">
         <v>132</v>
       </c>
@@ -10297,21 +10306,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10320,6 +10314,21 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10465,7 +10474,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="186" t="str">
+      <c r="CU1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10596,7 +10605,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="186"/>
+      <c r="CU2" s="190"/>
       <c r="CV2" s="195"/>
       <c r="CW2" s="195"/>
       <c r="CX2" s="195"/>
@@ -10812,22 +10821,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="176" t="s">
+      <c r="H6" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="204" t="s">
@@ -10836,13 +10845,13 @@
       <c r="J6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="176" t="s">
+      <c r="K6" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="176" t="s">
+      <c r="L6" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="176" t="s">
+      <c r="M6" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -10857,17 +10866,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="204"/>
       <c r="J7" s="204"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="42" t="s">
         <v>60</v>
       </c>
@@ -11333,22 +11342,22 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="176" t="s">
+      <c r="F19" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="G19" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="176" t="s">
+      <c r="H19" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="205" t="s">
@@ -11357,13 +11366,13 @@
       <c r="J19" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="176" t="s">
+      <c r="K19" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="176" t="s">
+      <c r="L19" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="176" t="s">
+      <c r="M19" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -11378,17 +11387,17 @@
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
       <c r="I20" s="206"/>
       <c r="J20" s="204"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
@@ -11458,10 +11467,10 @@
       <c r="D22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="133" t="s">
+      <c r="F22" s="207" t="s">
         <v>292</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -11526,22 +11535,22 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="176" t="s">
+      <c r="F25" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="176" t="s">
+      <c r="G25" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="176" t="s">
+      <c r="H25" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="204" t="s">
@@ -11550,13 +11559,13 @@
       <c r="J25" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="176" t="s">
+      <c r="K25" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="176" t="s">
+      <c r="L25" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="176" t="s">
+      <c r="M25" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -11571,17 +11580,17 @@
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
       <c r="I26" s="204"/>
       <c r="J26" s="204"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
       <c r="N26" s="87" t="s">
         <v>60</v>
       </c>
@@ -11671,10 +11680,10 @@
       <c r="D29" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="134" t="s">
+      <c r="E29" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="132" t="s">
+      <c r="F29" s="209" t="s">
         <v>289</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -11916,10 +11925,10 @@
       <c r="D34" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="134" t="s">
+      <c r="E34" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="132" t="s">
+      <c r="F34" s="209" t="s">
         <v>291</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -12007,6 +12016,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12019,30 +12052,6 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12118,7 +12127,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -12134,7 +12143,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12205,7 +12214,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -24989,7 +24998,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -25005,7 +25014,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -25076,7 +25085,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -31004,7 +31013,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -31020,7 +31029,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -31091,7 +31100,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -42193,18 +42202,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42366,18 +42375,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_全工程で試作の在庫払出可能化_伝票出力&取消.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF25C04-C355-4121-BFD9-C12EAB5966A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0641DEFA-B02B-46F7-B405-E81C9A5A7504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="75" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="336">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1321,10 +1321,6 @@
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>生産管理システム</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3313,6 +3309,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,6 +3327,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3349,103 +3439,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3464,10 +3457,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,15 +3510,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5674,108 +5670,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="140"/>
-      <c r="W32" s="140"/>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="140"/>
-      <c r="AN32" s="140"/>
-      <c r="AO32" s="140"/>
-      <c r="AP32" s="140"/>
-      <c r="AQ32" s="140"/>
-      <c r="AR32" s="140"/>
-      <c r="AS32" s="140"/>
-      <c r="AT32" s="140"/>
-      <c r="AU32" s="140"/>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="143"/>
+      <c r="AL32" s="143"/>
+      <c r="AM32" s="143"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="143"/>
+      <c r="AP32" s="143"/>
+      <c r="AQ32" s="143"/>
+      <c r="AR32" s="143"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="143"/>
+      <c r="AU32" s="143"/>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="141"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="141"/>
-      <c r="AJ33" s="141"/>
-      <c r="AK33" s="141"/>
-      <c r="AL33" s="141"/>
-      <c r="AM33" s="141"/>
-      <c r="AN33" s="141"/>
-      <c r="AO33" s="141"/>
-      <c r="AP33" s="141"/>
-      <c r="AQ33" s="141"/>
-      <c r="AR33" s="141"/>
-      <c r="AS33" s="141"/>
-      <c r="AT33" s="141"/>
-      <c r="AU33" s="141"/>
-      <c r="AV33" s="141"/>
-      <c r="AW33" s="141"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="144"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="144"/>
+      <c r="X33" s="144"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="144"/>
+      <c r="AL33" s="144"/>
+      <c r="AM33" s="144"/>
+      <c r="AN33" s="144"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="144"/>
+      <c r="AS33" s="144"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="144"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5813,55 +5809,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="142"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="142"/>
-      <c r="S35" s="142"/>
-      <c r="T35" s="142"/>
-      <c r="U35" s="142"/>
-      <c r="V35" s="142"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="142"/>
-      <c r="Y35" s="142"/>
-      <c r="Z35" s="142"/>
-      <c r="AA35" s="142"/>
-      <c r="AB35" s="142"/>
-      <c r="AC35" s="142"/>
-      <c r="AD35" s="142"/>
-      <c r="AE35" s="142"/>
-      <c r="AF35" s="142"/>
-      <c r="AG35" s="142"/>
-      <c r="AH35" s="142"/>
-      <c r="AI35" s="142"/>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="142"/>
-      <c r="AL35" s="142"/>
-      <c r="AM35" s="142"/>
-      <c r="AN35" s="142"/>
-      <c r="AO35" s="142"/>
-      <c r="AP35" s="142"/>
-      <c r="AQ35" s="142"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="142"/>
-      <c r="AT35" s="142"/>
-      <c r="AU35" s="142"/>
-      <c r="AV35" s="142"/>
-      <c r="AW35" s="142"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="145"/>
+      <c r="AK35" s="145"/>
+      <c r="AL35" s="145"/>
+      <c r="AM35" s="145"/>
+      <c r="AN35" s="145"/>
+      <c r="AO35" s="145"/>
+      <c r="AP35" s="145"/>
+      <c r="AQ35" s="145"/>
+      <c r="AR35" s="145"/>
+      <c r="AS35" s="145"/>
+      <c r="AT35" s="145"/>
+      <c r="AU35" s="145"/>
+      <c r="AV35" s="145"/>
+      <c r="AW35" s="145"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5896,1770 +5892,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="144"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="144"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="144"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="178"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="178"/>
+      <c r="AU2" s="178"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="178"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146" t="s">
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="145" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145" t="s">
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="145"/>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="145"/>
-      <c r="AN3" s="145" t="s">
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="179"/>
+      <c r="AK3" s="179"/>
+      <c r="AL3" s="179"/>
+      <c r="AM3" s="179"/>
+      <c r="AN3" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AO3" s="179"/>
+      <c r="AP3" s="179"/>
+      <c r="AQ3" s="179"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="145"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="145"/>
+      <c r="AT3" s="179"/>
+      <c r="AU3" s="179"/>
+      <c r="AV3" s="179"/>
+      <c r="AW3" s="179"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="145"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="145"/>
-      <c r="AP4" s="145"/>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="145"/>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="145"/>
-      <c r="AW4" s="145"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="179"/>
+      <c r="AD4" s="179"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="179"/>
+      <c r="AG4" s="179"/>
+      <c r="AH4" s="179"/>
+      <c r="AI4" s="179"/>
+      <c r="AJ4" s="179"/>
+      <c r="AK4" s="179"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="179"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="179"/>
+      <c r="AP4" s="179"/>
+      <c r="AQ4" s="179"/>
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="179"/>
+      <c r="AU4" s="179"/>
+      <c r="AV4" s="179"/>
+      <c r="AW4" s="179"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="153">
+      <c r="B5" s="171">
         <v>1</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="152">
         <v>43720</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155" t="s">
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="155" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="152" t="s">
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="161" t="s">
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="161"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="152" t="s">
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="152"/>
-      <c r="AP5" s="152"/>
-      <c r="AQ5" s="152"/>
-      <c r="AR5" s="152"/>
-      <c r="AS5" s="152"/>
-      <c r="AT5" s="152"/>
-      <c r="AU5" s="152"/>
-      <c r="AV5" s="152"/>
-      <c r="AW5" s="152"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="159"/>
+      <c r="AT5" s="159"/>
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="159"/>
+      <c r="AW5" s="159"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="161"/>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="161"/>
-      <c r="AN6" s="152"/>
-      <c r="AO6" s="152"/>
-      <c r="AP6" s="152"/>
-      <c r="AQ6" s="152"/>
-      <c r="AR6" s="152"/>
-      <c r="AS6" s="152"/>
-      <c r="AT6" s="152"/>
-      <c r="AU6" s="152"/>
-      <c r="AV6" s="152"/>
-      <c r="AW6" s="152"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="170"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="170"/>
+      <c r="AA6" s="170"/>
+      <c r="AB6" s="170"/>
+      <c r="AC6" s="170"/>
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="170"/>
+      <c r="AF6" s="170"/>
+      <c r="AG6" s="170"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="170"/>
+      <c r="AJ6" s="170"/>
+      <c r="AK6" s="170"/>
+      <c r="AL6" s="170"/>
+      <c r="AM6" s="170"/>
+      <c r="AN6" s="159"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
+      <c r="AV6" s="159"/>
+      <c r="AW6" s="159"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="152"/>
-      <c r="AR7" s="152"/>
-      <c r="AS7" s="152"/>
-      <c r="AT7" s="152"/>
-      <c r="AU7" s="152"/>
-      <c r="AV7" s="152"/>
-      <c r="AW7" s="152"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="170"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="159"/>
+      <c r="AO7" s="159"/>
+      <c r="AP7" s="159"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="159"/>
+      <c r="AS7" s="159"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="159"/>
+      <c r="AV7" s="159"/>
+      <c r="AW7" s="159"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="161"/>
-      <c r="AJ8" s="161"/>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="152"/>
-      <c r="AO8" s="152"/>
-      <c r="AP8" s="152"/>
-      <c r="AQ8" s="152"/>
-      <c r="AR8" s="152"/>
-      <c r="AS8" s="152"/>
-      <c r="AT8" s="152"/>
-      <c r="AU8" s="152"/>
-      <c r="AV8" s="152"/>
-      <c r="AW8" s="152"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="170"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="159"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="159"/>
+      <c r="AT8" s="159"/>
+      <c r="AU8" s="159"/>
+      <c r="AV8" s="159"/>
+      <c r="AW8" s="159"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="161"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="161"/>
-      <c r="AK9" s="161"/>
-      <c r="AL9" s="161"/>
-      <c r="AM9" s="161"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
-      <c r="AQ9" s="152"/>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="152"/>
-      <c r="AT9" s="152"/>
-      <c r="AU9" s="152"/>
-      <c r="AV9" s="152"/>
-      <c r="AW9" s="152"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="170"/>
+      <c r="AL9" s="170"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="159"/>
+      <c r="AO9" s="159"/>
+      <c r="AP9" s="159"/>
+      <c r="AQ9" s="159"/>
+      <c r="AR9" s="159"/>
+      <c r="AS9" s="159"/>
+      <c r="AT9" s="159"/>
+      <c r="AU9" s="159"/>
+      <c r="AV9" s="159"/>
+      <c r="AW9" s="159"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="161"/>
-      <c r="AJ10" s="161"/>
-      <c r="AK10" s="161"/>
-      <c r="AL10" s="161"/>
-      <c r="AM10" s="161"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="152"/>
-      <c r="AQ10" s="152"/>
-      <c r="AR10" s="152"/>
-      <c r="AS10" s="152"/>
-      <c r="AT10" s="152"/>
-      <c r="AU10" s="152"/>
-      <c r="AV10" s="152"/>
-      <c r="AW10" s="152"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="170"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="170"/>
+      <c r="AL10" s="170"/>
+      <c r="AM10" s="170"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="159"/>
+      <c r="AQ10" s="159"/>
+      <c r="AR10" s="159"/>
+      <c r="AS10" s="159"/>
+      <c r="AT10" s="159"/>
+      <c r="AU10" s="159"/>
+      <c r="AV10" s="159"/>
+      <c r="AW10" s="159"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="174"/>
-      <c r="AH11" s="174"/>
-      <c r="AI11" s="174"/>
-      <c r="AJ11" s="174"/>
-      <c r="AK11" s="174"/>
-      <c r="AL11" s="174"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="152"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="152"/>
-      <c r="AQ11" s="152"/>
-      <c r="AR11" s="152"/>
-      <c r="AS11" s="152"/>
-      <c r="AT11" s="152"/>
-      <c r="AU11" s="152"/>
-      <c r="AV11" s="152"/>
-      <c r="AW11" s="152"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="172"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="173"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="159"/>
+      <c r="AQ11" s="159"/>
+      <c r="AR11" s="159"/>
+      <c r="AS11" s="159"/>
+      <c r="AT11" s="159"/>
+      <c r="AU11" s="159"/>
+      <c r="AV11" s="159"/>
+      <c r="AW11" s="159"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="167"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="169"/>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="170"/>
-      <c r="AN12" s="171"/>
-      <c r="AO12" s="172"/>
-      <c r="AP12" s="172"/>
-      <c r="AQ12" s="172"/>
-      <c r="AR12" s="173"/>
-      <c r="AS12" s="171"/>
-      <c r="AT12" s="172"/>
-      <c r="AU12" s="172"/>
-      <c r="AV12" s="172"/>
-      <c r="AW12" s="173"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="161"/>
+      <c r="AB12" s="161"/>
+      <c r="AC12" s="161"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="161"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="161"/>
+      <c r="AI12" s="161"/>
+      <c r="AJ12" s="161"/>
+      <c r="AK12" s="161"/>
+      <c r="AL12" s="161"/>
+      <c r="AM12" s="162"/>
+      <c r="AN12" s="146"/>
+      <c r="AO12" s="147"/>
+      <c r="AP12" s="147"/>
+      <c r="AQ12" s="147"/>
+      <c r="AR12" s="148"/>
+      <c r="AS12" s="146"/>
+      <c r="AT12" s="147"/>
+      <c r="AU12" s="147"/>
+      <c r="AV12" s="147"/>
+      <c r="AW12" s="148"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="169"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="169"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="169"/>
-      <c r="AI13" s="169"/>
-      <c r="AJ13" s="169"/>
-      <c r="AK13" s="169"/>
-      <c r="AL13" s="169"/>
-      <c r="AM13" s="170"/>
-      <c r="AN13" s="171"/>
-      <c r="AO13" s="172"/>
-      <c r="AP13" s="172"/>
-      <c r="AQ13" s="172"/>
-      <c r="AR13" s="173"/>
-      <c r="AS13" s="171"/>
-      <c r="AT13" s="172"/>
-      <c r="AU13" s="172"/>
-      <c r="AV13" s="172"/>
-      <c r="AW13" s="173"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
+      <c r="AL13" s="161"/>
+      <c r="AM13" s="162"/>
+      <c r="AN13" s="146"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="146"/>
+      <c r="AT13" s="147"/>
+      <c r="AU13" s="147"/>
+      <c r="AV13" s="147"/>
+      <c r="AW13" s="148"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="167"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="161"/>
-      <c r="AI14" s="161"/>
-      <c r="AJ14" s="161"/>
-      <c r="AK14" s="161"/>
-      <c r="AL14" s="161"/>
-      <c r="AM14" s="161"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
-      <c r="AQ14" s="152"/>
-      <c r="AR14" s="152"/>
-      <c r="AS14" s="171"/>
-      <c r="AT14" s="172"/>
-      <c r="AU14" s="172"/>
-      <c r="AV14" s="172"/>
-      <c r="AW14" s="173"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="170"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="170"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="170"/>
+      <c r="AN14" s="159"/>
+      <c r="AO14" s="159"/>
+      <c r="AP14" s="159"/>
+      <c r="AQ14" s="159"/>
+      <c r="AR14" s="159"/>
+      <c r="AS14" s="146"/>
+      <c r="AT14" s="147"/>
+      <c r="AU14" s="147"/>
+      <c r="AV14" s="147"/>
+      <c r="AW14" s="148"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="169"/>
-      <c r="AB15" s="169"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="169"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="169"/>
-      <c r="AM15" s="170"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="172"/>
-      <c r="AP15" s="172"/>
-      <c r="AQ15" s="172"/>
-      <c r="AR15" s="173"/>
-      <c r="AS15" s="171"/>
-      <c r="AT15" s="172"/>
-      <c r="AU15" s="172"/>
-      <c r="AV15" s="172"/>
-      <c r="AW15" s="173"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="161"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="161"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="161"/>
+      <c r="AL15" s="161"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="146"/>
+      <c r="AO15" s="147"/>
+      <c r="AP15" s="147"/>
+      <c r="AQ15" s="147"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="146"/>
+      <c r="AT15" s="147"/>
+      <c r="AU15" s="147"/>
+      <c r="AV15" s="147"/>
+      <c r="AW15" s="148"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="169"/>
-      <c r="X16" s="169"/>
-      <c r="Y16" s="169"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="169"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="169"/>
-      <c r="AD16" s="169"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="169"/>
-      <c r="AI16" s="169"/>
-      <c r="AJ16" s="169"/>
-      <c r="AK16" s="169"/>
-      <c r="AL16" s="169"/>
-      <c r="AM16" s="170"/>
-      <c r="AN16" s="171"/>
-      <c r="AO16" s="172"/>
-      <c r="AP16" s="172"/>
-      <c r="AQ16" s="172"/>
-      <c r="AR16" s="173"/>
-      <c r="AS16" s="171"/>
-      <c r="AT16" s="172"/>
-      <c r="AU16" s="172"/>
-      <c r="AV16" s="172"/>
-      <c r="AW16" s="173"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="159"/>
+      <c r="T16" s="159"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="161"/>
+      <c r="AC16" s="161"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="161"/>
+      <c r="AI16" s="161"/>
+      <c r="AJ16" s="161"/>
+      <c r="AK16" s="161"/>
+      <c r="AL16" s="161"/>
+      <c r="AM16" s="162"/>
+      <c r="AN16" s="146"/>
+      <c r="AO16" s="147"/>
+      <c r="AP16" s="147"/>
+      <c r="AQ16" s="147"/>
+      <c r="AR16" s="148"/>
+      <c r="AS16" s="146"/>
+      <c r="AT16" s="147"/>
+      <c r="AU16" s="147"/>
+      <c r="AV16" s="147"/>
+      <c r="AW16" s="148"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="179"/>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="169"/>
-      <c r="AB17" s="169"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="169"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="169"/>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="169"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="171"/>
-      <c r="AO17" s="172"/>
-      <c r="AP17" s="172"/>
-      <c r="AQ17" s="172"/>
-      <c r="AR17" s="173"/>
-      <c r="AS17" s="171"/>
-      <c r="AT17" s="172"/>
-      <c r="AU17" s="172"/>
-      <c r="AV17" s="172"/>
-      <c r="AW17" s="173"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="167"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
+      <c r="AM17" s="162"/>
+      <c r="AN17" s="146"/>
+      <c r="AO17" s="147"/>
+      <c r="AP17" s="147"/>
+      <c r="AQ17" s="147"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="146"/>
+      <c r="AT17" s="147"/>
+      <c r="AU17" s="147"/>
+      <c r="AV17" s="147"/>
+      <c r="AW17" s="148"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="152"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="169"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="169"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="169"/>
-      <c r="AJ18" s="169"/>
-      <c r="AK18" s="169"/>
-      <c r="AL18" s="169"/>
-      <c r="AM18" s="170"/>
-      <c r="AN18" s="171"/>
-      <c r="AO18" s="172"/>
-      <c r="AP18" s="172"/>
-      <c r="AQ18" s="172"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="171"/>
-      <c r="AT18" s="172"/>
-      <c r="AU18" s="172"/>
-      <c r="AV18" s="172"/>
-      <c r="AW18" s="173"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="161"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="162"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="147"/>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="148"/>
+      <c r="AS18" s="146"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="147"/>
+      <c r="AV18" s="147"/>
+      <c r="AW18" s="148"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="169"/>
-      <c r="X19" s="169"/>
-      <c r="Y19" s="169"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="169"/>
-      <c r="AB19" s="169"/>
-      <c r="AC19" s="169"/>
-      <c r="AD19" s="169"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="169"/>
-      <c r="AG19" s="169"/>
-      <c r="AH19" s="169"/>
-      <c r="AI19" s="169"/>
-      <c r="AJ19" s="169"/>
-      <c r="AK19" s="169"/>
-      <c r="AL19" s="169"/>
-      <c r="AM19" s="170"/>
-      <c r="AN19" s="152"/>
-      <c r="AO19" s="152"/>
-      <c r="AP19" s="152"/>
-      <c r="AQ19" s="152"/>
-      <c r="AR19" s="152"/>
-      <c r="AS19" s="171"/>
-      <c r="AT19" s="172"/>
-      <c r="AU19" s="172"/>
-      <c r="AV19" s="172"/>
-      <c r="AW19" s="173"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="161"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="161"/>
+      <c r="AJ19" s="161"/>
+      <c r="AK19" s="161"/>
+      <c r="AL19" s="161"/>
+      <c r="AM19" s="162"/>
+      <c r="AN19" s="159"/>
+      <c r="AO19" s="159"/>
+      <c r="AP19" s="159"/>
+      <c r="AQ19" s="159"/>
+      <c r="AR19" s="159"/>
+      <c r="AS19" s="146"/>
+      <c r="AT19" s="147"/>
+      <c r="AU19" s="147"/>
+      <c r="AV19" s="147"/>
+      <c r="AW19" s="148"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="169"/>
-      <c r="X20" s="169"/>
-      <c r="Y20" s="169"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="169"/>
-      <c r="AB20" s="169"/>
-      <c r="AC20" s="169"/>
-      <c r="AD20" s="169"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="169"/>
-      <c r="AG20" s="169"/>
-      <c r="AH20" s="169"/>
-      <c r="AI20" s="169"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="169"/>
-      <c r="AL20" s="169"/>
-      <c r="AM20" s="170"/>
-      <c r="AN20" s="171"/>
-      <c r="AO20" s="172"/>
-      <c r="AP20" s="172"/>
-      <c r="AQ20" s="172"/>
-      <c r="AR20" s="173"/>
-      <c r="AS20" s="171"/>
-      <c r="AT20" s="172"/>
-      <c r="AU20" s="172"/>
-      <c r="AV20" s="172"/>
-      <c r="AW20" s="173"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="161"/>
+      <c r="AJ20" s="161"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="162"/>
+      <c r="AN20" s="146"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
+      <c r="AQ20" s="147"/>
+      <c r="AR20" s="148"/>
+      <c r="AS20" s="146"/>
+      <c r="AT20" s="147"/>
+      <c r="AU20" s="147"/>
+      <c r="AV20" s="147"/>
+      <c r="AW20" s="148"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="169"/>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="169"/>
-      <c r="AA21" s="169"/>
-      <c r="AB21" s="169"/>
-      <c r="AC21" s="169"/>
-      <c r="AD21" s="169"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="169"/>
-      <c r="AG21" s="169"/>
-      <c r="AH21" s="169"/>
-      <c r="AI21" s="169"/>
-      <c r="AJ21" s="169"/>
-      <c r="AK21" s="169"/>
-      <c r="AL21" s="169"/>
-      <c r="AM21" s="170"/>
-      <c r="AN21" s="171"/>
-      <c r="AO21" s="172"/>
-      <c r="AP21" s="172"/>
-      <c r="AQ21" s="172"/>
-      <c r="AR21" s="173"/>
-      <c r="AS21" s="171"/>
-      <c r="AT21" s="172"/>
-      <c r="AU21" s="172"/>
-      <c r="AV21" s="172"/>
-      <c r="AW21" s="173"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="160"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="161"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="161"/>
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="146"/>
+      <c r="AO21" s="147"/>
+      <c r="AP21" s="147"/>
+      <c r="AQ21" s="147"/>
+      <c r="AR21" s="148"/>
+      <c r="AS21" s="146"/>
+      <c r="AT21" s="147"/>
+      <c r="AU21" s="147"/>
+      <c r="AV21" s="147"/>
+      <c r="AW21" s="148"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="169"/>
-      <c r="X22" s="169"/>
-      <c r="Y22" s="169"/>
-      <c r="Z22" s="169"/>
-      <c r="AA22" s="169"/>
-      <c r="AB22" s="169"/>
-      <c r="AC22" s="169"/>
-      <c r="AD22" s="169"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="169"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="169"/>
-      <c r="AJ22" s="169"/>
-      <c r="AK22" s="169"/>
-      <c r="AL22" s="169"/>
-      <c r="AM22" s="170"/>
-      <c r="AN22" s="171"/>
-      <c r="AO22" s="172"/>
-      <c r="AP22" s="172"/>
-      <c r="AQ22" s="172"/>
-      <c r="AR22" s="173"/>
-      <c r="AS22" s="171"/>
-      <c r="AT22" s="172"/>
-      <c r="AU22" s="172"/>
-      <c r="AV22" s="172"/>
-      <c r="AW22" s="173"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="161"/>
+      <c r="AJ22" s="161"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
+      <c r="AM22" s="162"/>
+      <c r="AN22" s="146"/>
+      <c r="AO22" s="147"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="146"/>
+      <c r="AT22" s="147"/>
+      <c r="AU22" s="147"/>
+      <c r="AV22" s="147"/>
+      <c r="AW22" s="148"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="169"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="169"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="169"/>
-      <c r="AD23" s="169"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="169"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="169"/>
-      <c r="AJ23" s="169"/>
-      <c r="AK23" s="169"/>
-      <c r="AL23" s="169"/>
-      <c r="AM23" s="170"/>
-      <c r="AN23" s="171"/>
-      <c r="AO23" s="172"/>
-      <c r="AP23" s="172"/>
-      <c r="AQ23" s="172"/>
-      <c r="AR23" s="173"/>
-      <c r="AS23" s="171"/>
-      <c r="AT23" s="172"/>
-      <c r="AU23" s="172"/>
-      <c r="AV23" s="172"/>
-      <c r="AW23" s="173"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="161"/>
+      <c r="AK23" s="161"/>
+      <c r="AL23" s="161"/>
+      <c r="AM23" s="162"/>
+      <c r="AN23" s="146"/>
+      <c r="AO23" s="147"/>
+      <c r="AP23" s="147"/>
+      <c r="AQ23" s="147"/>
+      <c r="AR23" s="148"/>
+      <c r="AS23" s="146"/>
+      <c r="AT23" s="147"/>
+      <c r="AU23" s="147"/>
+      <c r="AV23" s="147"/>
+      <c r="AW23" s="148"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="169"/>
-      <c r="X24" s="169"/>
-      <c r="Y24" s="169"/>
-      <c r="Z24" s="169"/>
-      <c r="AA24" s="169"/>
-      <c r="AB24" s="169"/>
-      <c r="AC24" s="169"/>
-      <c r="AD24" s="169"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="169"/>
-      <c r="AJ24" s="169"/>
-      <c r="AK24" s="169"/>
-      <c r="AL24" s="169"/>
-      <c r="AM24" s="170"/>
-      <c r="AN24" s="171"/>
-      <c r="AO24" s="172"/>
-      <c r="AP24" s="172"/>
-      <c r="AQ24" s="172"/>
-      <c r="AR24" s="173"/>
-      <c r="AS24" s="171"/>
-      <c r="AT24" s="172"/>
-      <c r="AU24" s="172"/>
-      <c r="AV24" s="172"/>
-      <c r="AW24" s="173"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="159"/>
+      <c r="T24" s="159"/>
+      <c r="U24" s="159"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="161"/>
+      <c r="AC24" s="161"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="161"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
+      <c r="AM24" s="162"/>
+      <c r="AN24" s="146"/>
+      <c r="AO24" s="147"/>
+      <c r="AP24" s="147"/>
+      <c r="AQ24" s="147"/>
+      <c r="AR24" s="148"/>
+      <c r="AS24" s="146"/>
+      <c r="AT24" s="147"/>
+      <c r="AU24" s="147"/>
+      <c r="AV24" s="147"/>
+      <c r="AW24" s="148"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="167"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="169"/>
-      <c r="X25" s="169"/>
-      <c r="Y25" s="169"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="169"/>
-      <c r="AB25" s="169"/>
-      <c r="AC25" s="169"/>
-      <c r="AD25" s="169"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="169"/>
-      <c r="AI25" s="169"/>
-      <c r="AJ25" s="169"/>
-      <c r="AK25" s="169"/>
-      <c r="AL25" s="169"/>
-      <c r="AM25" s="170"/>
-      <c r="AN25" s="171"/>
-      <c r="AO25" s="172"/>
-      <c r="AP25" s="172"/>
-      <c r="AQ25" s="172"/>
-      <c r="AR25" s="173"/>
-      <c r="AS25" s="171"/>
-      <c r="AT25" s="172"/>
-      <c r="AU25" s="172"/>
-      <c r="AV25" s="172"/>
-      <c r="AW25" s="173"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="159"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="161"/>
+      <c r="AB25" s="161"/>
+      <c r="AC25" s="161"/>
+      <c r="AD25" s="161"/>
+      <c r="AE25" s="161"/>
+      <c r="AF25" s="161"/>
+      <c r="AG25" s="161"/>
+      <c r="AH25" s="161"/>
+      <c r="AI25" s="161"/>
+      <c r="AJ25" s="161"/>
+      <c r="AK25" s="161"/>
+      <c r="AL25" s="161"/>
+      <c r="AM25" s="162"/>
+      <c r="AN25" s="146"/>
+      <c r="AO25" s="147"/>
+      <c r="AP25" s="147"/>
+      <c r="AQ25" s="147"/>
+      <c r="AR25" s="148"/>
+      <c r="AS25" s="146"/>
+      <c r="AT25" s="147"/>
+      <c r="AU25" s="147"/>
+      <c r="AV25" s="147"/>
+      <c r="AW25" s="148"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169"/>
-      <c r="AM26" s="170"/>
-      <c r="AN26" s="171"/>
-      <c r="AO26" s="172"/>
-      <c r="AP26" s="172"/>
-      <c r="AQ26" s="172"/>
-      <c r="AR26" s="173"/>
-      <c r="AS26" s="171"/>
-      <c r="AT26" s="172"/>
-      <c r="AU26" s="172"/>
-      <c r="AV26" s="172"/>
-      <c r="AW26" s="173"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="161"/>
+      <c r="AB26" s="161"/>
+      <c r="AC26" s="161"/>
+      <c r="AD26" s="161"/>
+      <c r="AE26" s="161"/>
+      <c r="AF26" s="161"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="161"/>
+      <c r="AI26" s="161"/>
+      <c r="AJ26" s="161"/>
+      <c r="AK26" s="161"/>
+      <c r="AL26" s="161"/>
+      <c r="AM26" s="162"/>
+      <c r="AN26" s="146"/>
+      <c r="AO26" s="147"/>
+      <c r="AP26" s="147"/>
+      <c r="AQ26" s="147"/>
+      <c r="AR26" s="148"/>
+      <c r="AS26" s="146"/>
+      <c r="AT26" s="147"/>
+      <c r="AU26" s="147"/>
+      <c r="AV26" s="147"/>
+      <c r="AW26" s="148"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="169"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="169"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="169"/>
-      <c r="AC27" s="169"/>
-      <c r="AD27" s="169"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="169"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="169"/>
-      <c r="AJ27" s="169"/>
-      <c r="AK27" s="169"/>
-      <c r="AL27" s="169"/>
-      <c r="AM27" s="170"/>
-      <c r="AN27" s="171"/>
-      <c r="AO27" s="172"/>
-      <c r="AP27" s="172"/>
-      <c r="AQ27" s="172"/>
-      <c r="AR27" s="173"/>
-      <c r="AS27" s="171"/>
-      <c r="AT27" s="172"/>
-      <c r="AU27" s="172"/>
-      <c r="AV27" s="172"/>
-      <c r="AW27" s="173"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="161"/>
+      <c r="AJ27" s="161"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="161"/>
+      <c r="AM27" s="162"/>
+      <c r="AN27" s="146"/>
+      <c r="AO27" s="147"/>
+      <c r="AP27" s="147"/>
+      <c r="AQ27" s="147"/>
+      <c r="AR27" s="148"/>
+      <c r="AS27" s="146"/>
+      <c r="AT27" s="147"/>
+      <c r="AU27" s="147"/>
+      <c r="AV27" s="147"/>
+      <c r="AW27" s="148"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="169"/>
-      <c r="X28" s="169"/>
-      <c r="Y28" s="169"/>
-      <c r="Z28" s="169"/>
-      <c r="AA28" s="169"/>
-      <c r="AB28" s="169"/>
-      <c r="AC28" s="169"/>
-      <c r="AD28" s="169"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="169"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="169"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="169"/>
-      <c r="AL28" s="169"/>
-      <c r="AM28" s="170"/>
-      <c r="AN28" s="171"/>
-      <c r="AO28" s="172"/>
-      <c r="AP28" s="172"/>
-      <c r="AQ28" s="172"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="171"/>
-      <c r="AT28" s="172"/>
-      <c r="AU28" s="172"/>
-      <c r="AV28" s="172"/>
-      <c r="AW28" s="173"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161"/>
+      <c r="AD28" s="161"/>
+      <c r="AE28" s="161"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="161"/>
+      <c r="AH28" s="161"/>
+      <c r="AI28" s="161"/>
+      <c r="AJ28" s="161"/>
+      <c r="AK28" s="161"/>
+      <c r="AL28" s="161"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="146"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147"/>
+      <c r="AQ28" s="147"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="146"/>
+      <c r="AT28" s="147"/>
+      <c r="AU28" s="147"/>
+      <c r="AV28" s="147"/>
+      <c r="AW28" s="148"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="152"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="169"/>
-      <c r="X29" s="169"/>
-      <c r="Y29" s="169"/>
-      <c r="Z29" s="169"/>
-      <c r="AA29" s="169"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="169"/>
-      <c r="AD29" s="169"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="169"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="169"/>
-      <c r="AJ29" s="169"/>
-      <c r="AK29" s="169"/>
-      <c r="AL29" s="169"/>
-      <c r="AM29" s="170"/>
-      <c r="AN29" s="171"/>
-      <c r="AO29" s="172"/>
-      <c r="AP29" s="172"/>
-      <c r="AQ29" s="172"/>
-      <c r="AR29" s="173"/>
-      <c r="AS29" s="171"/>
-      <c r="AT29" s="172"/>
-      <c r="AU29" s="172"/>
-      <c r="AV29" s="172"/>
-      <c r="AW29" s="173"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="160"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="161"/>
+      <c r="AJ29" s="161"/>
+      <c r="AK29" s="161"/>
+      <c r="AL29" s="161"/>
+      <c r="AM29" s="162"/>
+      <c r="AN29" s="146"/>
+      <c r="AO29" s="147"/>
+      <c r="AP29" s="147"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="148"/>
+      <c r="AS29" s="146"/>
+      <c r="AT29" s="147"/>
+      <c r="AU29" s="147"/>
+      <c r="AV29" s="147"/>
+      <c r="AW29" s="148"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="169"/>
-      <c r="AA30" s="169"/>
-      <c r="AB30" s="169"/>
-      <c r="AC30" s="169"/>
-      <c r="AD30" s="169"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="169"/>
-      <c r="AJ30" s="169"/>
-      <c r="AK30" s="169"/>
-      <c r="AL30" s="169"/>
-      <c r="AM30" s="170"/>
-      <c r="AN30" s="171"/>
-      <c r="AO30" s="172"/>
-      <c r="AP30" s="172"/>
-      <c r="AQ30" s="172"/>
-      <c r="AR30" s="173"/>
-      <c r="AS30" s="171"/>
-      <c r="AT30" s="172"/>
-      <c r="AU30" s="172"/>
-      <c r="AV30" s="172"/>
-      <c r="AW30" s="173"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="160"/>
+      <c r="W30" s="161"/>
+      <c r="X30" s="161"/>
+      <c r="Y30" s="161"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="161"/>
+      <c r="AE30" s="161"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="161"/>
+      <c r="AJ30" s="161"/>
+      <c r="AK30" s="161"/>
+      <c r="AL30" s="161"/>
+      <c r="AM30" s="162"/>
+      <c r="AN30" s="146"/>
+      <c r="AO30" s="147"/>
+      <c r="AP30" s="147"/>
+      <c r="AQ30" s="147"/>
+      <c r="AR30" s="148"/>
+      <c r="AS30" s="146"/>
+      <c r="AT30" s="147"/>
+      <c r="AU30" s="147"/>
+      <c r="AV30" s="147"/>
+      <c r="AW30" s="148"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="152"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="169"/>
-      <c r="AB31" s="169"/>
-      <c r="AC31" s="169"/>
-      <c r="AD31" s="169"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="169"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="169"/>
-      <c r="AJ31" s="169"/>
-      <c r="AK31" s="169"/>
-      <c r="AL31" s="169"/>
-      <c r="AM31" s="170"/>
-      <c r="AN31" s="171"/>
-      <c r="AO31" s="172"/>
-      <c r="AP31" s="172"/>
-      <c r="AQ31" s="172"/>
-      <c r="AR31" s="173"/>
-      <c r="AS31" s="171"/>
-      <c r="AT31" s="172"/>
-      <c r="AU31" s="172"/>
-      <c r="AV31" s="172"/>
-      <c r="AW31" s="173"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="160"/>
+      <c r="W31" s="161"/>
+      <c r="X31" s="161"/>
+      <c r="Y31" s="161"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="161"/>
+      <c r="AB31" s="161"/>
+      <c r="AC31" s="161"/>
+      <c r="AD31" s="161"/>
+      <c r="AE31" s="161"/>
+      <c r="AF31" s="161"/>
+      <c r="AG31" s="161"/>
+      <c r="AH31" s="161"/>
+      <c r="AI31" s="161"/>
+      <c r="AJ31" s="161"/>
+      <c r="AK31" s="161"/>
+      <c r="AL31" s="161"/>
+      <c r="AM31" s="162"/>
+      <c r="AN31" s="146"/>
+      <c r="AO31" s="147"/>
+      <c r="AP31" s="147"/>
+      <c r="AQ31" s="147"/>
+      <c r="AR31" s="148"/>
+      <c r="AS31" s="146"/>
+      <c r="AT31" s="147"/>
+      <c r="AU31" s="147"/>
+      <c r="AV31" s="147"/>
+      <c r="AW31" s="148"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="167"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="169"/>
-      <c r="AA32" s="169"/>
-      <c r="AB32" s="169"/>
-      <c r="AC32" s="169"/>
-      <c r="AD32" s="169"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169"/>
-      <c r="AI32" s="169"/>
-      <c r="AJ32" s="169"/>
-      <c r="AK32" s="169"/>
-      <c r="AL32" s="169"/>
-      <c r="AM32" s="170"/>
-      <c r="AN32" s="171"/>
-      <c r="AO32" s="172"/>
-      <c r="AP32" s="172"/>
-      <c r="AQ32" s="172"/>
-      <c r="AR32" s="173"/>
-      <c r="AS32" s="171"/>
-      <c r="AT32" s="172"/>
-      <c r="AU32" s="172"/>
-      <c r="AV32" s="172"/>
-      <c r="AW32" s="173"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="161"/>
+      <c r="X32" s="161"/>
+      <c r="Y32" s="161"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="161"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="161"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161"/>
+      <c r="AI32" s="161"/>
+      <c r="AJ32" s="161"/>
+      <c r="AK32" s="161"/>
+      <c r="AL32" s="161"/>
+      <c r="AM32" s="162"/>
+      <c r="AN32" s="146"/>
+      <c r="AO32" s="147"/>
+      <c r="AP32" s="147"/>
+      <c r="AQ32" s="147"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="146"/>
+      <c r="AT32" s="147"/>
+      <c r="AU32" s="147"/>
+      <c r="AV32" s="147"/>
+      <c r="AW32" s="148"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="152"/>
-      <c r="U33" s="152"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="169"/>
-      <c r="X33" s="169"/>
-      <c r="Y33" s="169"/>
-      <c r="Z33" s="169"/>
-      <c r="AA33" s="169"/>
-      <c r="AB33" s="169"/>
-      <c r="AC33" s="169"/>
-      <c r="AD33" s="169"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="169"/>
-      <c r="AJ33" s="169"/>
-      <c r="AK33" s="169"/>
-      <c r="AL33" s="169"/>
-      <c r="AM33" s="170"/>
-      <c r="AN33" s="171"/>
-      <c r="AO33" s="172"/>
-      <c r="AP33" s="172"/>
-      <c r="AQ33" s="172"/>
-      <c r="AR33" s="173"/>
-      <c r="AS33" s="171"/>
-      <c r="AT33" s="172"/>
-      <c r="AU33" s="172"/>
-      <c r="AV33" s="172"/>
-      <c r="AW33" s="173"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="161"/>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="161"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="161"/>
+      <c r="AB33" s="161"/>
+      <c r="AC33" s="161"/>
+      <c r="AD33" s="161"/>
+      <c r="AE33" s="161"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="161"/>
+      <c r="AH33" s="161"/>
+      <c r="AI33" s="161"/>
+      <c r="AJ33" s="161"/>
+      <c r="AK33" s="161"/>
+      <c r="AL33" s="161"/>
+      <c r="AM33" s="162"/>
+      <c r="AN33" s="146"/>
+      <c r="AO33" s="147"/>
+      <c r="AP33" s="147"/>
+      <c r="AQ33" s="147"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="146"/>
+      <c r="AT33" s="147"/>
+      <c r="AU33" s="147"/>
+      <c r="AV33" s="147"/>
+      <c r="AW33" s="148"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="162"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="182"/>
-      <c r="S34" s="152"/>
-      <c r="T34" s="152"/>
-      <c r="U34" s="152"/>
-      <c r="V34" s="168"/>
-      <c r="W34" s="169"/>
-      <c r="X34" s="169"/>
-      <c r="Y34" s="169"/>
-      <c r="Z34" s="169"/>
-      <c r="AA34" s="169"/>
-      <c r="AB34" s="169"/>
-      <c r="AC34" s="169"/>
-      <c r="AD34" s="169"/>
-      <c r="AE34" s="169"/>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="169"/>
-      <c r="AI34" s="169"/>
-      <c r="AJ34" s="169"/>
-      <c r="AK34" s="169"/>
-      <c r="AL34" s="169"/>
-      <c r="AM34" s="170"/>
-      <c r="AN34" s="171"/>
-      <c r="AO34" s="172"/>
-      <c r="AP34" s="172"/>
-      <c r="AQ34" s="172"/>
-      <c r="AR34" s="173"/>
-      <c r="AS34" s="171"/>
-      <c r="AT34" s="172"/>
-      <c r="AU34" s="172"/>
-      <c r="AV34" s="172"/>
-      <c r="AW34" s="173"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="160"/>
+      <c r="W34" s="161"/>
+      <c r="X34" s="161"/>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="161"/>
+      <c r="AB34" s="161"/>
+      <c r="AC34" s="161"/>
+      <c r="AD34" s="161"/>
+      <c r="AE34" s="161"/>
+      <c r="AF34" s="161"/>
+      <c r="AG34" s="161"/>
+      <c r="AH34" s="161"/>
+      <c r="AI34" s="161"/>
+      <c r="AJ34" s="161"/>
+      <c r="AK34" s="161"/>
+      <c r="AL34" s="161"/>
+      <c r="AM34" s="162"/>
+      <c r="AN34" s="146"/>
+      <c r="AO34" s="147"/>
+      <c r="AP34" s="147"/>
+      <c r="AQ34" s="147"/>
+      <c r="AR34" s="148"/>
+      <c r="AS34" s="146"/>
+      <c r="AT34" s="147"/>
+      <c r="AU34" s="147"/>
+      <c r="AV34" s="147"/>
+      <c r="AW34" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7676,239 +7905,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8068,11 +8064,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="187"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="189"/>
+      <c r="AO2" s="186"/>
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="187"/>
+      <c r="AS2" s="188"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8081,14 +8077,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="190"/>
-      <c r="BA2" s="191"/>
-      <c r="BB2" s="191"/>
-      <c r="BC2" s="191"/>
-      <c r="BD2" s="191"/>
-      <c r="BE2" s="191"/>
-      <c r="BF2" s="191"/>
-      <c r="BG2" s="192"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="190"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="190"/>
+      <c r="BE2" s="190"/>
+      <c r="BF2" s="190"/>
+      <c r="BG2" s="191"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -9215,7 +9211,7 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
       <c r="AM34" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
@@ -9254,7 +9250,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
@@ -9904,10 +9900,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="194"/>
+      <c r="C50" s="195"/>
       <c r="D50" s="82" t="s">
         <v>78</v>
       </c>
@@ -9990,10 +9986,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="183">
+      <c r="B51" s="196">
         <v>1</v>
       </c>
-      <c r="C51" s="184"/>
+      <c r="C51" s="197"/>
       <c r="D51" s="76" t="s">
         <v>106</v>
       </c>
@@ -10025,16 +10021,16 @@
       <c r="AB51" s="80"/>
       <c r="AC51" s="80"/>
       <c r="AD51" s="81"/>
-      <c r="AE51" s="185" t="s">
+      <c r="AE51" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF51" s="186"/>
-      <c r="AG51" s="185"/>
-      <c r="AH51" s="186"/>
-      <c r="AI51" s="185"/>
-      <c r="AJ51" s="186"/>
-      <c r="AK51" s="185"/>
-      <c r="AL51" s="186"/>
+      <c r="AF51" s="193"/>
+      <c r="AG51" s="192"/>
+      <c r="AH51" s="193"/>
+      <c r="AI51" s="192"/>
+      <c r="AJ51" s="193"/>
+      <c r="AK51" s="192"/>
+      <c r="AL51" s="193"/>
       <c r="AM51" s="77" t="s">
         <v>129</v>
       </c>
@@ -10068,10 +10064,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="183">
+      <c r="B52" s="196">
         <v>2</v>
       </c>
-      <c r="C52" s="184"/>
+      <c r="C52" s="197"/>
       <c r="D52" s="111" t="s">
         <v>106</v>
       </c>
@@ -10103,16 +10099,16 @@
       <c r="AB52" s="80"/>
       <c r="AC52" s="80"/>
       <c r="AD52" s="112"/>
-      <c r="AE52" s="185" t="s">
+      <c r="AE52" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF52" s="186"/>
-      <c r="AG52" s="185"/>
-      <c r="AH52" s="186"/>
-      <c r="AI52" s="185"/>
-      <c r="AJ52" s="186"/>
-      <c r="AK52" s="185"/>
-      <c r="AL52" s="186"/>
+      <c r="AF52" s="193"/>
+      <c r="AG52" s="192"/>
+      <c r="AH52" s="193"/>
+      <c r="AI52" s="192"/>
+      <c r="AJ52" s="193"/>
+      <c r="AK52" s="192"/>
+      <c r="AL52" s="193"/>
       <c r="AM52" s="77" t="s">
         <v>130</v>
       </c>
@@ -10146,10 +10142,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="183">
+      <c r="B53" s="196">
         <v>3</v>
       </c>
-      <c r="C53" s="184"/>
+      <c r="C53" s="197"/>
       <c r="D53" s="111" t="s">
         <v>107</v>
       </c>
@@ -10160,7 +10156,7 @@
       <c r="I53" s="80"/>
       <c r="J53" s="112"/>
       <c r="K53" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L53" s="80"/>
       <c r="M53" s="80"/>
@@ -10181,18 +10177,18 @@
       <c r="AB53" s="80"/>
       <c r="AC53" s="80"/>
       <c r="AD53" s="112"/>
-      <c r="AE53" s="185" t="s">
+      <c r="AE53" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF53" s="186"/>
-      <c r="AG53" s="185"/>
-      <c r="AH53" s="186"/>
-      <c r="AI53" s="185" t="s">
+      <c r="AF53" s="193"/>
+      <c r="AG53" s="192"/>
+      <c r="AH53" s="193"/>
+      <c r="AI53" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AJ53" s="186"/>
-      <c r="AK53" s="185"/>
-      <c r="AL53" s="186"/>
+      <c r="AJ53" s="193"/>
+      <c r="AK53" s="192"/>
+      <c r="AL53" s="193"/>
       <c r="AM53" s="77" t="s">
         <v>131</v>
       </c>
@@ -10226,10 +10222,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="183">
+      <c r="B54" s="196">
         <v>4</v>
       </c>
-      <c r="C54" s="184"/>
+      <c r="C54" s="197"/>
       <c r="D54" s="111" t="s">
         <v>107</v>
       </c>
@@ -10240,7 +10236,7 @@
       <c r="I54" s="80"/>
       <c r="J54" s="112"/>
       <c r="K54" s="111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L54" s="80"/>
       <c r="M54" s="80"/>
@@ -10261,18 +10257,18 @@
       <c r="AB54" s="80"/>
       <c r="AC54" s="80"/>
       <c r="AD54" s="112"/>
-      <c r="AE54" s="185" t="s">
+      <c r="AE54" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF54" s="186"/>
-      <c r="AG54" s="185" t="s">
+      <c r="AF54" s="193"/>
+      <c r="AG54" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AH54" s="186"/>
-      <c r="AI54" s="185"/>
-      <c r="AJ54" s="186"/>
-      <c r="AK54" s="185"/>
-      <c r="AL54" s="186"/>
+      <c r="AH54" s="193"/>
+      <c r="AI54" s="192"/>
+      <c r="AJ54" s="193"/>
+      <c r="AK54" s="192"/>
+      <c r="AL54" s="193"/>
       <c r="AM54" s="77" t="s">
         <v>132</v>
       </c>
@@ -10306,6 +10302,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10314,21 +10325,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10452,20 +10448,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="197">
+      <c r="CD1" s="200">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="CE1" s="198"/>
-      <c r="CF1" s="198"/>
-      <c r="CG1" s="198"/>
-      <c r="CH1" s="198"/>
-      <c r="CI1" s="198"/>
-      <c r="CJ1" s="198"/>
-      <c r="CK1" s="198"/>
-      <c r="CL1" s="198"/>
-      <c r="CM1" s="198"/>
-      <c r="CN1" s="199"/>
+      <c r="CE1" s="201"/>
+      <c r="CF1" s="201"/>
+      <c r="CG1" s="201"/>
+      <c r="CH1" s="201"/>
+      <c r="CI1" s="201"/>
+      <c r="CJ1" s="201"/>
+      <c r="CK1" s="201"/>
+      <c r="CL1" s="201"/>
+      <c r="CM1" s="201"/>
+      <c r="CN1" s="202"/>
       <c r="CO1" s="33" t="s">
         <v>25</v>
       </c>
@@ -10474,23 +10470,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="190" t="str">
+      <c r="CU1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="195"/>
-      <c r="CW1" s="195"/>
-      <c r="CX1" s="195"/>
-      <c r="CY1" s="195"/>
-      <c r="CZ1" s="195"/>
-      <c r="DA1" s="195"/>
-      <c r="DB1" s="195"/>
-      <c r="DC1" s="195"/>
-      <c r="DD1" s="195"/>
-      <c r="DE1" s="195"/>
-      <c r="DF1" s="195"/>
-      <c r="DG1" s="195"/>
-      <c r="DH1" s="196"/>
+      <c r="CV1" s="198"/>
+      <c r="CW1" s="198"/>
+      <c r="CX1" s="198"/>
+      <c r="CY1" s="198"/>
+      <c r="CZ1" s="198"/>
+      <c r="DA1" s="198"/>
+      <c r="DB1" s="198"/>
+      <c r="DC1" s="198"/>
+      <c r="DD1" s="198"/>
+      <c r="DE1" s="198"/>
+      <c r="DF1" s="198"/>
+      <c r="DG1" s="198"/>
+      <c r="DH1" s="199"/>
     </row>
     <row r="2" spans="1:113" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10545,39 +10541,39 @@
       <c r="AQ2" s="89"/>
       <c r="AR2" s="89"/>
       <c r="AS2" s="90"/>
-      <c r="AT2" s="201" t="str">
+      <c r="AT2" s="204" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化の伝票出力&amp;取消</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="202"/>
-      <c r="BC2" s="202"/>
-      <c r="BD2" s="202"/>
-      <c r="BE2" s="202"/>
-      <c r="BF2" s="202"/>
-      <c r="BG2" s="202"/>
-      <c r="BH2" s="202"/>
-      <c r="BI2" s="202"/>
-      <c r="BJ2" s="202"/>
-      <c r="BK2" s="202"/>
-      <c r="BL2" s="202"/>
-      <c r="BM2" s="202"/>
-      <c r="BN2" s="202"/>
-      <c r="BO2" s="202"/>
-      <c r="BP2" s="202"/>
-      <c r="BQ2" s="202"/>
-      <c r="BR2" s="202"/>
-      <c r="BS2" s="202"/>
-      <c r="BT2" s="202"/>
-      <c r="BU2" s="202"/>
-      <c r="BV2" s="202"/>
-      <c r="BW2" s="203"/>
+      <c r="AU2" s="205"/>
+      <c r="AV2" s="205"/>
+      <c r="AW2" s="205"/>
+      <c r="AX2" s="205"/>
+      <c r="AY2" s="205"/>
+      <c r="AZ2" s="205"/>
+      <c r="BA2" s="205"/>
+      <c r="BB2" s="205"/>
+      <c r="BC2" s="205"/>
+      <c r="BD2" s="205"/>
+      <c r="BE2" s="205"/>
+      <c r="BF2" s="205"/>
+      <c r="BG2" s="205"/>
+      <c r="BH2" s="205"/>
+      <c r="BI2" s="205"/>
+      <c r="BJ2" s="205"/>
+      <c r="BK2" s="205"/>
+      <c r="BL2" s="205"/>
+      <c r="BM2" s="205"/>
+      <c r="BN2" s="205"/>
+      <c r="BO2" s="205"/>
+      <c r="BP2" s="205"/>
+      <c r="BQ2" s="205"/>
+      <c r="BR2" s="205"/>
+      <c r="BS2" s="205"/>
+      <c r="BT2" s="205"/>
+      <c r="BU2" s="205"/>
+      <c r="BV2" s="205"/>
+      <c r="BW2" s="206"/>
       <c r="BX2" s="33" t="s">
         <v>24</v>
       </c>
@@ -10586,17 +10582,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="200"/>
-      <c r="CE2" s="195"/>
-      <c r="CF2" s="195"/>
-      <c r="CG2" s="195"/>
-      <c r="CH2" s="195"/>
-      <c r="CI2" s="195"/>
-      <c r="CJ2" s="195"/>
-      <c r="CK2" s="195"/>
-      <c r="CL2" s="195"/>
-      <c r="CM2" s="195"/>
-      <c r="CN2" s="196"/>
+      <c r="CD2" s="203"/>
+      <c r="CE2" s="198"/>
+      <c r="CF2" s="198"/>
+      <c r="CG2" s="198"/>
+      <c r="CH2" s="198"/>
+      <c r="CI2" s="198"/>
+      <c r="CJ2" s="198"/>
+      <c r="CK2" s="198"/>
+      <c r="CL2" s="198"/>
+      <c r="CM2" s="198"/>
+      <c r="CN2" s="199"/>
       <c r="CO2" s="33" t="s">
         <v>26</v>
       </c>
@@ -10605,20 +10601,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="190"/>
-      <c r="CV2" s="195"/>
-      <c r="CW2" s="195"/>
-      <c r="CX2" s="195"/>
-      <c r="CY2" s="195"/>
-      <c r="CZ2" s="195"/>
-      <c r="DA2" s="195"/>
-      <c r="DB2" s="195"/>
-      <c r="DC2" s="195"/>
-      <c r="DD2" s="195"/>
-      <c r="DE2" s="195"/>
-      <c r="DF2" s="195"/>
-      <c r="DG2" s="195"/>
-      <c r="DH2" s="196"/>
+      <c r="CU2" s="189"/>
+      <c r="CV2" s="198"/>
+      <c r="CW2" s="198"/>
+      <c r="CX2" s="198"/>
+      <c r="CY2" s="198"/>
+      <c r="CZ2" s="198"/>
+      <c r="DA2" s="198"/>
+      <c r="DB2" s="198"/>
+      <c r="DC2" s="198"/>
+      <c r="DD2" s="198"/>
+      <c r="DE2" s="198"/>
+      <c r="DF2" s="198"/>
+      <c r="DG2" s="198"/>
+      <c r="DH2" s="199"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="51"/>
@@ -10821,37 +10817,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="145" t="s">
+      <c r="L6" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -10859,24 +10855,24 @@
       </c>
       <c r="O6" s="64"/>
       <c r="P6" s="64"/>
-      <c r="Q6" s="204" t="s">
+      <c r="Q6" s="207" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
       <c r="N7" s="42" t="s">
         <v>60</v>
       </c>
@@ -10886,7 +10882,7 @@
       <c r="P7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="204"/>
+      <c r="Q7" s="207"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -10901,7 +10897,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>88</v>
@@ -10983,7 +10979,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -10999,7 +10995,7 @@
         <v>110</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>88</v>
@@ -11032,7 +11028,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11045,10 +11041,10 @@
         <v>138</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>88</v>
@@ -11081,7 +11077,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11130,7 +11126,7 @@
         <v>34</v>
       </c>
       <c r="Q12" s="105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11146,7 +11142,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>88</v>
@@ -11179,7 +11175,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11195,7 +11191,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>88</v>
@@ -11228,7 +11224,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11241,10 +11237,10 @@
         <v>142</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>88</v>
@@ -11277,7 +11273,7 @@
         <v>34</v>
       </c>
       <c r="Q15" s="105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11326,7 +11322,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -11342,37 +11338,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="205" t="s">
+      <c r="I19" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="204" t="s">
+      <c r="J19" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="145" t="s">
+      <c r="K19" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="145" t="s">
+      <c r="L19" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="145" t="s">
+      <c r="M19" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -11380,24 +11376,24 @@
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="205" t="s">
+      <c r="Q19" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
       <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
@@ -11407,7 +11403,7 @@
       <c r="P20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="206"/>
+      <c r="Q20" s="209"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
@@ -11422,10 +11418,10 @@
         <v>115</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>41</v>
@@ -11467,11 +11463,11 @@
       <c r="D22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="207" t="s">
+      <c r="E22" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="207" t="s">
-        <v>292</v>
+      <c r="F22" s="140" t="s">
+        <v>291</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>89</v>
@@ -11489,7 +11485,7 @@
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>43</v>
@@ -11501,7 +11497,7 @@
         <v>34</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -11535,37 +11531,37 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="145" t="s">
+      <c r="C25" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="145" t="s">
+      <c r="F25" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="G25" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="145" t="s">
+      <c r="H25" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="204" t="s">
+      <c r="I25" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="204" t="s">
+      <c r="J25" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="145" t="s">
+      <c r="K25" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="145" t="s">
+      <c r="L25" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="145" t="s">
+      <c r="M25" s="179" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -11573,24 +11569,24 @@
       </c>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
-      <c r="Q25" s="204" t="s">
+      <c r="Q25" s="207" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
       <c r="N26" s="87" t="s">
         <v>60</v>
       </c>
@@ -11600,7 +11596,7 @@
       <c r="P26" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="204"/>
+      <c r="Q26" s="207"/>
     </row>
     <row r="27" spans="1:17" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
@@ -11629,19 +11625,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="134" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="F28" s="133" t="s">
         <v>258</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>259</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>35</v>
@@ -11659,7 +11655,7 @@
         <v>34</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -11668,7 +11664,7 @@
         <v>35</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11678,13 +11674,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="208" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="209" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="141" t="s">
         <v>289</v>
+      </c>
+      <c r="F29" s="142" t="s">
+        <v>288</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>145</v>
@@ -11714,7 +11710,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -11727,7 +11723,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E30" s="134" t="s">
         <v>121</v>
@@ -11763,7 +11759,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>35</v>
@@ -11776,7 +11772,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="134" t="s">
         <v>123</v>
@@ -11825,13 +11821,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" s="134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>145</v>
@@ -11861,7 +11857,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11874,13 +11870,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="134" t="s">
         <v>98</v>
       </c>
       <c r="F33" s="132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>145</v>
@@ -11910,7 +11906,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11923,13 +11919,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="208" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="209" t="s">
-        <v>291</v>
+      <c r="F34" s="142" t="s">
+        <v>290</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>145</v>
@@ -11962,7 +11958,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11972,7 +11968,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E35" s="134" t="s">
         <v>32</v>
@@ -12008,7 +12004,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -12016,30 +12012,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12052,6 +12024,30 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12127,14 +12123,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="205"/>
+      <c r="AM1" s="206"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -12143,16 +12139,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="198"/>
+      <c r="AV1" s="198"/>
+      <c r="AW1" s="198"/>
+      <c r="AX1" s="198"/>
+      <c r="AY1" s="198"/>
+      <c r="AZ1" s="199"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12180,32 +12176,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="204" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化の伝票出力&amp;取消</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="206"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="199"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -12214,13 +12210,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="199"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -12742,10 +12738,10 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="L15" s="67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M15" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N15" s="120"/>
       <c r="O15" s="120"/>
@@ -12785,7 +12781,7 @@
       <c r="G16" s="67"/>
       <c r="L16" s="67"/>
       <c r="M16" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N16" s="120"/>
       <c r="O16" s="120"/>
@@ -12825,7 +12821,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="120"/>
       <c r="N17" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL17" s="120"/>
       <c r="AM17" s="120"/>
@@ -12841,7 +12837,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL18" s="120"/>
       <c r="AM18" s="120"/>
@@ -12893,7 +12889,7 @@
       <c r="G20" s="67"/>
       <c r="L20" s="67"/>
       <c r="M20" s="120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N20" s="120"/>
       <c r="O20" s="120"/>
@@ -12932,7 +12928,7 @@
       <c r="G21" s="67"/>
       <c r="L21" s="67"/>
       <c r="N21" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
@@ -13010,7 +13006,7 @@
       <c r="G23" s="67"/>
       <c r="K23" s="68"/>
       <c r="L23" s="122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M23" s="131"/>
       <c r="N23" s="131"/>
@@ -13052,7 +13048,7 @@
       <c r="G24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N24" s="120"/>
       <c r="O24" s="120"/>
@@ -13075,7 +13071,7 @@
       <c r="L25" s="124"/>
       <c r="M25" s="120"/>
       <c r="N25" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O25" s="120"/>
       <c r="P25" s="120"/>
@@ -13100,7 +13096,7 @@
       <c r="L26" s="124"/>
       <c r="M26" s="120"/>
       <c r="N26" s="129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O26" s="129"/>
       <c r="P26" s="129"/>
@@ -13125,7 +13121,7 @@
       <c r="L27" s="124"/>
       <c r="M27" s="120"/>
       <c r="N27" s="129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O27" s="129"/>
       <c r="P27" s="129"/>
@@ -13150,7 +13146,7 @@
       <c r="L28" s="124"/>
       <c r="M28" s="120"/>
       <c r="N28" s="120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O28" s="120"/>
       <c r="P28" s="120"/>
@@ -13175,7 +13171,7 @@
       <c r="L29" s="124"/>
       <c r="M29" s="120"/>
       <c r="N29" s="120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
@@ -13200,7 +13196,7 @@
       <c r="L30" s="124"/>
       <c r="M30" s="120"/>
       <c r="N30" s="120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O30" s="120"/>
       <c r="P30" s="120"/>
@@ -13225,7 +13221,7 @@
       <c r="L31" s="124"/>
       <c r="M31" s="120"/>
       <c r="N31" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O31" s="120"/>
       <c r="P31" s="120"/>
@@ -13250,7 +13246,7 @@
       <c r="L32" s="124"/>
       <c r="M32" s="120"/>
       <c r="N32" s="120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O32" s="120"/>
       <c r="P32" s="120"/>
@@ -13275,7 +13271,7 @@
       <c r="L33" s="124"/>
       <c r="M33" s="120"/>
       <c r="N33" s="120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O33" s="120"/>
       <c r="P33" s="120"/>
@@ -13300,7 +13296,7 @@
       <c r="L34" s="124"/>
       <c r="M34" s="120"/>
       <c r="N34" s="120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O34" s="120"/>
       <c r="P34" s="120"/>
@@ -13325,7 +13321,7 @@
       <c r="L35" s="124"/>
       <c r="M35" s="120"/>
       <c r="N35" s="120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O35" s="120"/>
       <c r="P35" s="120"/>
@@ -13350,7 +13346,7 @@
       <c r="L36" s="124"/>
       <c r="M36" s="120"/>
       <c r="N36" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O36" s="120"/>
       <c r="P36" s="120"/>
@@ -13397,7 +13393,7 @@
       <c r="K38" s="68"/>
       <c r="L38" s="124"/>
       <c r="M38" s="120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N38" s="120"/>
       <c r="O38" s="120"/>
@@ -13435,7 +13431,7 @@
       <c r="K39" s="68"/>
       <c r="L39" s="124"/>
       <c r="N39" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O39" s="120"/>
       <c r="P39" s="120"/>
@@ -13472,7 +13468,7 @@
       <c r="K40" s="68"/>
       <c r="L40" s="124"/>
       <c r="N40" s="120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O40" s="120"/>
       <c r="P40" s="120"/>
@@ -13510,7 +13506,7 @@
       <c r="L41" s="124"/>
       <c r="N41" s="120"/>
       <c r="O41" s="120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P41" s="120"/>
       <c r="Q41" s="120"/>
@@ -13525,7 +13521,7 @@
         <v>153</v>
       </c>
       <c r="Z41" s="130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA41" s="120"/>
       <c r="AB41" s="120"/>
@@ -13551,7 +13547,7 @@
       <c r="L42" s="124"/>
       <c r="N42" s="120"/>
       <c r="O42" s="120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P42" s="120"/>
       <c r="Q42" s="120"/>
@@ -13566,7 +13562,7 @@
         <v>153</v>
       </c>
       <c r="Z42" s="120" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA42" s="120"/>
       <c r="AB42" s="120"/>
@@ -13591,7 +13587,7 @@
       <c r="K43" s="68"/>
       <c r="L43" s="124"/>
       <c r="N43" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y43" s="120"/>
       <c r="AV43" s="68"/>
@@ -13604,13 +13600,13 @@
       <c r="K44" s="68"/>
       <c r="L44" s="124"/>
       <c r="O44" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y44" s="120" t="s">
         <v>153</v>
       </c>
       <c r="Z44" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AV44" s="68"/>
     </row>
@@ -13631,7 +13627,7 @@
       <c r="K46" s="68"/>
       <c r="L46" s="124"/>
       <c r="M46" s="120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N46" s="120"/>
       <c r="O46" s="120"/>
@@ -13666,7 +13662,7 @@
       <c r="K47" s="68"/>
       <c r="L47" s="124"/>
       <c r="N47" s="120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O47" s="120"/>
       <c r="P47" s="120"/>
@@ -13681,7 +13677,7 @@
         <v>153</v>
       </c>
       <c r="Z47" s="120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA47" s="120"/>
       <c r="AB47" s="120"/>
@@ -13700,7 +13696,7 @@
       <c r="K48" s="68"/>
       <c r="L48" s="124"/>
       <c r="N48" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O48" s="120"/>
       <c r="P48" s="120"/>
@@ -13715,7 +13711,7 @@
         <v>153</v>
       </c>
       <c r="Z48" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA48" s="120"/>
       <c r="AB48" s="120"/>
@@ -13734,7 +13730,7 @@
       <c r="K49" s="68"/>
       <c r="L49" s="124"/>
       <c r="N49" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O49" s="120"/>
       <c r="P49" s="120"/>
@@ -13749,13 +13745,13 @@
         <v>153</v>
       </c>
       <c r="Z49" s="120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA49" s="120"/>
       <c r="AB49" s="120"/>
       <c r="AC49" s="120"/>
       <c r="AF49" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG49" s="120"/>
       <c r="AH49" s="120"/>
@@ -13771,7 +13767,7 @@
       <c r="K50" s="68"/>
       <c r="L50" s="124"/>
       <c r="N50" s="120" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O50" s="120"/>
       <c r="P50" s="120"/>
@@ -13786,13 +13782,13 @@
         <v>153</v>
       </c>
       <c r="Z50" s="120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA50" s="120"/>
       <c r="AB50" s="120"/>
       <c r="AC50" s="120"/>
       <c r="AF50" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG50" s="120"/>
       <c r="AH50" s="120"/>
@@ -13817,7 +13813,7 @@
       <c r="K52" s="68"/>
       <c r="L52" s="124"/>
       <c r="M52" s="120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N52" s="120"/>
       <c r="O52" s="120"/>
@@ -13853,7 +13849,7 @@
       <c r="L53" s="124"/>
       <c r="M53" s="120"/>
       <c r="N53" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O53" s="120"/>
       <c r="P53" s="120"/>
@@ -13878,7 +13874,7 @@
       <c r="L54" s="124"/>
       <c r="M54" s="120"/>
       <c r="N54" s="129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O54" s="129"/>
       <c r="P54" s="129"/>
@@ -13903,7 +13899,7 @@
       <c r="L55" s="124"/>
       <c r="M55" s="120"/>
       <c r="N55" s="129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O55" s="129"/>
       <c r="P55" s="129"/>
@@ -13928,7 +13924,7 @@
       <c r="L56" s="124"/>
       <c r="M56" s="120"/>
       <c r="N56" s="120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
@@ -13953,7 +13949,7 @@
       <c r="L57" s="124"/>
       <c r="M57" s="120"/>
       <c r="N57" s="120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
@@ -13978,7 +13974,7 @@
       <c r="L58" s="124"/>
       <c r="M58" s="120"/>
       <c r="N58" s="120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O58" s="120"/>
       <c r="P58" s="120"/>
@@ -14003,7 +13999,7 @@
       <c r="L59" s="124"/>
       <c r="M59" s="120"/>
       <c r="N59" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O59" s="120"/>
       <c r="P59" s="120"/>
@@ -14028,7 +14024,7 @@
       <c r="L60" s="124"/>
       <c r="M60" s="120"/>
       <c r="N60" s="120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O60" s="120"/>
       <c r="P60" s="120"/>
@@ -14053,7 +14049,7 @@
       <c r="L61" s="124"/>
       <c r="M61" s="120"/>
       <c r="N61" s="120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O61" s="120"/>
       <c r="P61" s="120"/>
@@ -14078,7 +14074,7 @@
       <c r="L62" s="124"/>
       <c r="M62" s="120"/>
       <c r="N62" s="120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O62" s="120"/>
       <c r="P62" s="120"/>
@@ -14103,7 +14099,7 @@
       <c r="L63" s="124"/>
       <c r="M63" s="120"/>
       <c r="N63" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O63" s="120"/>
       <c r="P63" s="120"/>
@@ -14155,7 +14151,7 @@
       <c r="K66" s="68"/>
       <c r="L66" s="124"/>
       <c r="N66" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK66" s="120"/>
       <c r="AL66" s="120"/>
@@ -14170,7 +14166,7 @@
       <c r="K67" s="68"/>
       <c r="L67" s="124"/>
       <c r="N67" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AK67" s="120"/>
       <c r="AL67" s="120"/>
@@ -14186,7 +14182,7 @@
       <c r="L68" s="124"/>
       <c r="M68" s="120"/>
       <c r="N68" s="120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O68" s="120"/>
       <c r="P68" s="120"/>
@@ -14386,7 +14382,7 @@
       <c r="J72" s="23"/>
       <c r="K72" s="68"/>
       <c r="L72" s="67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -14437,7 +14433,7 @@
       <c r="K73" s="68"/>
       <c r="L73" s="67"/>
       <c r="M73" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
@@ -14646,7 +14642,7 @@
       <c r="J77" s="23"/>
       <c r="K77" s="68"/>
       <c r="L77" s="67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
@@ -14697,7 +14693,7 @@
       <c r="K78" s="68"/>
       <c r="L78" s="67"/>
       <c r="M78" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
@@ -14906,7 +14902,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="68"/>
       <c r="L82" s="67" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
@@ -14957,7 +14953,7 @@
       <c r="K83" s="68"/>
       <c r="L83" s="67"/>
       <c r="M83" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -15245,7 +15241,7 @@
         <v>167</v>
       </c>
       <c r="M89" s="123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N89" s="123"/>
       <c r="O89" s="123"/>
@@ -15333,7 +15329,7 @@
       <c r="G91" s="67"/>
       <c r="L91" s="122"/>
       <c r="M91" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N91" s="109"/>
       <c r="O91" s="109"/>
@@ -15379,7 +15375,7 @@
       <c r="L92" s="122"/>
       <c r="M92" s="109"/>
       <c r="N92" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O92" s="109"/>
       <c r="P92" s="23"/>
@@ -15423,7 +15419,7 @@
       <c r="G93" s="67"/>
       <c r="L93" s="122"/>
       <c r="M93" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N93" s="109"/>
       <c r="O93" s="109"/>
@@ -15469,7 +15465,7 @@
       <c r="L94" s="122"/>
       <c r="M94" s="23"/>
       <c r="N94" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O94" s="109"/>
       <c r="P94" s="109"/>
@@ -15477,7 +15473,7 @@
       <c r="R94" s="109"/>
       <c r="S94" s="109"/>
       <c r="T94" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U94" s="109"/>
       <c r="V94" s="123"/>
@@ -15517,7 +15513,7 @@
       <c r="L95" s="126"/>
       <c r="M95" s="109"/>
       <c r="N95" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O95" s="109"/>
       <c r="P95" s="109"/>
@@ -15525,7 +15521,7 @@
       <c r="R95" s="109"/>
       <c r="S95" s="109"/>
       <c r="T95" s="109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U95" s="109"/>
       <c r="V95" s="109"/>
@@ -15564,7 +15560,7 @@
       <c r="L96" s="122"/>
       <c r="M96" s="23"/>
       <c r="N96" s="109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O96" s="109"/>
       <c r="P96" s="109"/>
@@ -15572,7 +15568,7 @@
       <c r="R96" s="109"/>
       <c r="S96" s="109"/>
       <c r="T96" s="109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U96" s="109"/>
       <c r="V96" s="123"/>
@@ -15611,7 +15607,7 @@
       <c r="L97" s="122"/>
       <c r="M97" s="23"/>
       <c r="N97" s="109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O97" s="109"/>
       <c r="P97" s="109"/>
@@ -15619,7 +15615,7 @@
       <c r="R97" s="109"/>
       <c r="S97" s="109"/>
       <c r="T97" s="109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U97" s="109"/>
       <c r="V97" s="123"/>
@@ -15658,7 +15654,7 @@
       <c r="L98" s="122"/>
       <c r="M98" s="23"/>
       <c r="N98" s="109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O98" s="109"/>
       <c r="P98" s="109"/>
@@ -15666,7 +15662,7 @@
       <c r="R98" s="109"/>
       <c r="S98" s="109"/>
       <c r="T98" s="109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U98" s="109"/>
       <c r="V98" s="123"/>
@@ -15705,7 +15701,7 @@
       <c r="L99" s="122"/>
       <c r="M99" s="23"/>
       <c r="N99" s="109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O99" s="109"/>
       <c r="P99" s="109"/>
@@ -15713,7 +15709,7 @@
       <c r="R99" s="109"/>
       <c r="S99" s="109"/>
       <c r="T99" s="109" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U99" s="109"/>
       <c r="V99" s="123"/>
@@ -15752,7 +15748,7 @@
       <c r="L100" s="122"/>
       <c r="M100" s="23"/>
       <c r="N100" s="109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O100" s="109"/>
       <c r="P100" s="109"/>
@@ -15760,7 +15756,7 @@
       <c r="R100" s="109"/>
       <c r="S100" s="109"/>
       <c r="T100" s="109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U100" s="109"/>
       <c r="V100" s="123"/>
@@ -15799,7 +15795,7 @@
       <c r="L101" s="122"/>
       <c r="M101" s="135"/>
       <c r="N101" s="136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O101" s="136"/>
       <c r="P101" s="136"/>
@@ -15807,7 +15803,7 @@
       <c r="R101" s="136"/>
       <c r="S101" s="136"/>
       <c r="T101" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U101" s="136"/>
       <c r="V101" s="136"/>
@@ -15847,7 +15843,7 @@
       <c r="L102" s="126"/>
       <c r="M102" s="136"/>
       <c r="N102" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O102" s="136"/>
       <c r="P102" s="136"/>
@@ -15855,7 +15851,7 @@
       <c r="R102" s="136"/>
       <c r="S102" s="136"/>
       <c r="T102" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U102" s="136"/>
       <c r="V102" s="136"/>
@@ -15895,7 +15891,7 @@
       <c r="L103" s="126"/>
       <c r="M103" s="136"/>
       <c r="N103" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O103" s="136"/>
       <c r="P103" s="136"/>
@@ -15903,7 +15899,7 @@
       <c r="R103" s="136"/>
       <c r="S103" s="136"/>
       <c r="T103" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U103" s="136"/>
       <c r="V103" s="136"/>
@@ -15943,7 +15939,7 @@
       <c r="L104" s="126"/>
       <c r="M104" s="136"/>
       <c r="N104" s="136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O104" s="136"/>
       <c r="P104" s="136"/>
@@ -15951,7 +15947,7 @@
       <c r="R104" s="136"/>
       <c r="S104" s="136"/>
       <c r="T104" s="138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U104" s="136"/>
       <c r="V104" s="136"/>
@@ -15991,7 +15987,7 @@
       <c r="L105" s="126"/>
       <c r="M105" s="136"/>
       <c r="N105" s="136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O105" s="136"/>
       <c r="P105" s="136"/>
@@ -15999,7 +15995,7 @@
       <c r="R105" s="136"/>
       <c r="S105" s="136"/>
       <c r="T105" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U105" s="136"/>
       <c r="V105" s="136"/>
@@ -16039,7 +16035,7 @@
       <c r="L106" s="126"/>
       <c r="M106" s="136"/>
       <c r="N106" s="136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O106" s="136"/>
       <c r="P106" s="136"/>
@@ -16047,7 +16043,7 @@
       <c r="R106" s="136"/>
       <c r="S106" s="136"/>
       <c r="T106" s="136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U106" s="136"/>
       <c r="V106" s="136"/>
@@ -16087,7 +16083,7 @@
       <c r="L107" s="126"/>
       <c r="M107" s="136"/>
       <c r="N107" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O107" s="136"/>
       <c r="P107" s="136"/>
@@ -16095,7 +16091,7 @@
       <c r="R107" s="136"/>
       <c r="S107" s="136"/>
       <c r="T107" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U107" s="136"/>
       <c r="V107" s="136"/>
@@ -16133,7 +16129,7 @@
       <c r="G108" s="67"/>
       <c r="L108" s="122"/>
       <c r="M108" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N108" s="109"/>
       <c r="O108" s="109"/>
@@ -16178,7 +16174,7 @@
       <c r="L109" s="122"/>
       <c r="M109" s="109"/>
       <c r="N109" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O109" s="109"/>
       <c r="P109" s="109"/>
@@ -16315,7 +16311,7 @@
       <c r="L112" s="67"/>
       <c r="M112" s="23"/>
       <c r="N112" s="109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O112" s="109"/>
       <c r="P112" s="109"/>
@@ -16361,7 +16357,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="109"/>
       <c r="O113" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P113" s="109"/>
       <c r="Q113" s="109"/>
@@ -16405,7 +16401,7 @@
       <c r="L114" s="67"/>
       <c r="M114" s="23"/>
       <c r="N114" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O114" s="109"/>
       <c r="P114" s="109"/>
@@ -16451,17 +16447,17 @@
       <c r="M115" s="23"/>
       <c r="N115" s="109"/>
       <c r="O115" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
       <c r="R115" s="23"/>
       <c r="S115" s="23"/>
       <c r="U115" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V115" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W115" s="23"/>
       <c r="X115" s="23"/>
@@ -16499,17 +16495,17 @@
       <c r="M116" s="23"/>
       <c r="N116" s="109"/>
       <c r="O116" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P116" s="23"/>
       <c r="Q116" s="23"/>
       <c r="R116" s="23"/>
       <c r="S116" s="23"/>
       <c r="U116" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V116" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W116" s="23"/>
       <c r="X116" s="23"/>
@@ -16547,17 +16543,17 @@
       <c r="M117" s="23"/>
       <c r="N117" s="109"/>
       <c r="O117" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
       <c r="R117" s="23"/>
       <c r="S117" s="23"/>
       <c r="U117" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V117" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W117" s="23"/>
       <c r="X117" s="23"/>
@@ -16594,7 +16590,7 @@
       <c r="L118" s="67"/>
       <c r="M118" s="23"/>
       <c r="N118" s="109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O118" s="109"/>
       <c r="P118" s="109"/>
@@ -16639,7 +16635,7 @@
       <c r="M119" s="135"/>
       <c r="N119" s="136"/>
       <c r="O119" s="136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P119" s="136"/>
       <c r="Q119" s="136"/>
@@ -16647,10 +16643,10 @@
       <c r="S119" s="135"/>
       <c r="T119" s="139"/>
       <c r="U119" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V119" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W119" s="136"/>
       <c r="X119" s="136"/>
@@ -16688,7 +16684,7 @@
       <c r="M120" s="135"/>
       <c r="N120" s="136"/>
       <c r="O120" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P120" s="136"/>
       <c r="Q120" s="136"/>
@@ -16696,10 +16692,10 @@
       <c r="S120" s="135"/>
       <c r="T120" s="139"/>
       <c r="U120" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V120" s="136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W120" s="136"/>
       <c r="X120" s="136"/>
@@ -16737,7 +16733,7 @@
       <c r="M121" s="135"/>
       <c r="N121" s="136"/>
       <c r="O121" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P121" s="136"/>
       <c r="Q121" s="136"/>
@@ -16745,10 +16741,10 @@
       <c r="S121" s="135"/>
       <c r="T121" s="139"/>
       <c r="U121" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V121" s="136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W121" s="136"/>
       <c r="X121" s="136"/>
@@ -16786,7 +16782,7 @@
       <c r="M122" s="135"/>
       <c r="N122" s="136"/>
       <c r="O122" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P122" s="136"/>
       <c r="Q122" s="136"/>
@@ -16794,10 +16790,10 @@
       <c r="S122" s="135"/>
       <c r="T122" s="139"/>
       <c r="U122" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V122" s="136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W122" s="136"/>
       <c r="X122" s="136"/>
@@ -16835,7 +16831,7 @@
       <c r="M123" s="135"/>
       <c r="N123" s="136"/>
       <c r="O123" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P123" s="136"/>
       <c r="Q123" s="136"/>
@@ -16843,10 +16839,10 @@
       <c r="S123" s="135"/>
       <c r="T123" s="139"/>
       <c r="U123" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V123" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W123" s="136"/>
       <c r="X123" s="136"/>
@@ -16884,7 +16880,7 @@
       <c r="M124" s="135"/>
       <c r="N124" s="136"/>
       <c r="O124" s="136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P124" s="136"/>
       <c r="Q124" s="136"/>
@@ -16892,10 +16888,10 @@
       <c r="S124" s="135"/>
       <c r="T124" s="139"/>
       <c r="U124" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V124" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W124" s="136"/>
       <c r="X124" s="136"/>
@@ -17135,7 +17131,7 @@
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M129" s="23"/>
       <c r="N129" s="23"/>
@@ -17294,7 +17290,7 @@
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M132" s="23"/>
       <c r="N132" s="23"/>
@@ -24998,14 +24994,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="205"/>
+      <c r="AM1" s="206"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -25014,16 +25010,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="198"/>
+      <c r="AV1" s="198"/>
+      <c r="AW1" s="198"/>
+      <c r="AX1" s="198"/>
+      <c r="AY1" s="198"/>
+      <c r="AZ1" s="199"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -25051,32 +25047,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="204" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化の伝票出力&amp;取消</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="206"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="199"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -25085,13 +25081,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="199"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -25451,7 +25447,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -25463,7 +25459,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -25549,7 +25545,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -25561,7 +25557,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
@@ -25656,7 +25652,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -25668,7 +25664,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -25768,7 +25764,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -25780,7 +25776,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -25857,7 +25853,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -25880,7 +25876,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -25892,7 +25888,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -25990,7 +25986,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -26002,7 +25998,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -26053,9 +26049,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
       <c r="AC20" s="25"/>
-      <c r="AD20" s="24" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD20" s="24"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -26100,7 +26094,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -26112,7 +26106,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE21" s="70"/>
       <c r="AF21" s="70"/>
@@ -26163,9 +26157,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
       <c r="AC22" s="25"/>
-      <c r="AD22" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD22" s="72"/>
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
       <c r="AG22" s="73"/>
@@ -26210,7 +26202,7 @@
       <c r="R23" s="21"/>
       <c r="S23" s="22"/>
       <c r="T23" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -26222,7 +26214,7 @@
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE23" s="70"/>
       <c r="AF23" s="70"/>
@@ -26273,9 +26265,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
-      <c r="AD24" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD24" s="72"/>
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
       <c r="AG24" s="73"/>
@@ -26318,7 +26308,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U25" s="115"/>
       <c r="V25" s="115"/>
@@ -26330,7 +26320,7 @@
       <c r="AB25" s="115"/>
       <c r="AC25" s="116"/>
       <c r="AD25" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE25" s="70"/>
       <c r="AF25" s="70"/>
@@ -26381,9 +26371,7 @@
       <c r="AA26" s="118"/>
       <c r="AB26" s="118"/>
       <c r="AC26" s="119"/>
-      <c r="AD26" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD26" s="72"/>
       <c r="AE26" s="73"/>
       <c r="AF26" s="73"/>
       <c r="AG26" s="73"/>
@@ -26426,7 +26414,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
       <c r="T27" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U27" s="115"/>
       <c r="V27" s="115"/>
@@ -26438,7 +26426,7 @@
       <c r="AB27" s="115"/>
       <c r="AC27" s="116"/>
       <c r="AD27" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE27" s="70"/>
       <c r="AF27" s="70"/>
@@ -26489,9 +26477,7 @@
       <c r="AA28" s="118"/>
       <c r="AB28" s="118"/>
       <c r="AC28" s="119"/>
-      <c r="AD28" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD28" s="72"/>
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
       <c r="AG28" s="73"/>
@@ -26534,7 +26520,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
       <c r="T29" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U29" s="115"/>
       <c r="V29" s="115"/>
@@ -26546,7 +26532,7 @@
       <c r="AB29" s="115"/>
       <c r="AC29" s="116"/>
       <c r="AD29" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AE29" s="70"/>
       <c r="AF29" s="70"/>
@@ -26597,9 +26583,7 @@
       <c r="AA30" s="118"/>
       <c r="AB30" s="118"/>
       <c r="AC30" s="119"/>
-      <c r="AD30" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD30" s="72"/>
       <c r="AE30" s="73"/>
       <c r="AF30" s="73"/>
       <c r="AG30" s="73"/>
@@ -26854,7 +26838,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
       <c r="T35" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -26866,7 +26850,7 @@
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
@@ -26959,7 +26943,7 @@
       <c r="R37" s="70"/>
       <c r="S37" s="71"/>
       <c r="T37" s="70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U37" s="70"/>
       <c r="V37" s="70"/>
@@ -27022,9 +27006,7 @@
       <c r="AA38" s="73"/>
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
-      <c r="AD38" s="72" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD38" s="72"/>
       <c r="AE38" s="73"/>
       <c r="AF38" s="73"/>
       <c r="AG38" s="73"/>
@@ -31013,14 +30995,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="187">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="205"/>
+      <c r="AM1" s="206"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -31029,16 +31011,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="190" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="198"/>
+      <c r="AV1" s="198"/>
+      <c r="AW1" s="198"/>
+      <c r="AX1" s="198"/>
+      <c r="AY1" s="198"/>
+      <c r="AZ1" s="199"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -31066,32 +31048,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="204" t="str">
         <f>'１．機能概要'!W2</f>
         <v>全工程で試作の在庫払出可能化の伝票出力&amp;取消</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="206"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="199"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -31100,13 +31082,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="199"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -31386,7 +31368,7 @@
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -42202,18 +42184,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42375,18 +42357,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
